--- a/outputs/train-Primates.xlsx
+++ b/outputs/train-Primates.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="217">
   <si>
     <t>Row</t>
   </si>
@@ -714,7 +714,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -796,11 +796,51 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -876,6 +916,46 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,38 +969,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="85" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
-        <v>105</v>
+      <c r="A2" s="85" t="s">
+        <v>149</v>
       </c>
       <c r="B2">
-        <v>0.97435537964820285</v>
+        <v>0.99658181210469388</v>
       </c>
       <c r="C2">
-        <v>0.025644620351797154</v>
+        <v>0.0034181878953061283</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -930,14 +1010,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="s">
-        <v>4</v>
+      <c r="A3" s="85" t="s">
+        <v>162</v>
       </c>
       <c r="B3">
-        <v>0.98803138302252802</v>
+        <v>0.99368981494710273</v>
       </c>
       <c r="C3">
-        <v>0.011968616977471971</v>
+        <v>0.0063101850528973092</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -947,14 +1027,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="s">
-        <v>106</v>
+      <c r="A4" s="85" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.98744105185606257</v>
+        <v>0.99151461315214995</v>
       </c>
       <c r="C4">
-        <v>0.012558948143937416</v>
+        <v>0.0084853868478500412</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -964,14 +1044,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
-        <v>107</v>
+      <c r="A5" s="85" t="s">
+        <v>122</v>
       </c>
       <c r="B5">
-        <v>0.98560630029469887</v>
+        <v>0.99250888061350229</v>
       </c>
       <c r="C5">
-        <v>0.014393699705301164</v>
+        <v>0.0074911193864977115</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -981,14 +1061,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="s">
-        <v>108</v>
+      <c r="A6" s="85" t="s">
+        <v>123</v>
       </c>
       <c r="B6">
-        <v>0.98373899837307355</v>
+        <v>0.99132900002727375</v>
       </c>
       <c r="C6">
-        <v>0.016261001626926497</v>
+        <v>0.0086709999727262801</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -998,14 +1078,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="s">
-        <v>109</v>
+      <c r="A7" s="85" t="s">
+        <v>96</v>
       </c>
       <c r="B7">
-        <v>0.94675378226865248</v>
+        <v>0.9976680679774117</v>
       </c>
       <c r="C7">
-        <v>0.053246217731347502</v>
+        <v>0.0023319320225882812</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1015,14 +1095,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="s">
-        <v>110</v>
+      <c r="A8" s="85" t="s">
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>0.97729469557567006</v>
+        <v>0.99263508282851076</v>
       </c>
       <c r="C8">
-        <v>0.022705304424329917</v>
+        <v>0.0073649171714892008</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1032,14 +1112,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="s">
-        <v>111</v>
+      <c r="A9" s="85" t="s">
+        <v>124</v>
       </c>
       <c r="B9">
-        <v>0.95422850755735489</v>
+        <v>0.97345829387896243</v>
       </c>
       <c r="C9">
-        <v>0.045771492442645084</v>
+        <v>0.026541706121037512</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1049,14 +1129,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="s">
-        <v>46</v>
+      <c r="A10" s="85" t="s">
+        <v>45</v>
       </c>
       <c r="B10">
-        <v>0.98847047402089061</v>
+        <v>0.95712328460172125</v>
       </c>
       <c r="C10">
-        <v>0.0115295259791094</v>
+        <v>0.042876715398278718</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1066,14 +1146,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="s">
-        <v>112</v>
+      <c r="A11" s="85" t="s">
+        <v>82</v>
       </c>
       <c r="B11">
-        <v>0.99292407744698197</v>
+        <v>0.98545406731207108</v>
       </c>
       <c r="C11">
-        <v>0.0070759225530180186</v>
+        <v>0.014545932687928876</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1083,14 +1163,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="s">
-        <v>113</v>
+      <c r="A12" s="85" t="s">
+        <v>153</v>
       </c>
       <c r="B12">
-        <v>0.98134045451355767</v>
+        <v>0.99679646664814792</v>
       </c>
       <c r="C12">
-        <v>0.018659545486442306</v>
+        <v>0.0032035333518521392</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1100,82 +1180,82 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13">
+        <v>0.99590714789833201</v>
+      </c>
+      <c r="C13">
+        <v>0.0040928521016680231</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14">
+        <v>0.99304664807745535</v>
+      </c>
+      <c r="C14">
+        <v>0.0069533519225446387</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>0.98865734975748609</v>
+      </c>
+      <c r="C15">
+        <v>0.011342650242513963</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>0.9808051461359637</v>
-      </c>
-      <c r="C13">
-        <v>0.019194853864036306</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14">
-        <v>0.97511808351577911</v>
-      </c>
-      <c r="C14">
-        <v>0.024881916484220907</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15">
-        <v>0.048392352984008458</v>
-      </c>
-      <c r="C15">
-        <v>0.95160764701599154</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="31" t="s">
-        <v>116</v>
-      </c>
       <c r="B16">
-        <v>0.050581881378174098</v>
+        <v>0.99069039725045371</v>
       </c>
       <c r="C16">
-        <v>0.9494181186218259</v>
+        <v>0.009309602749546269</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="s">
-        <v>117</v>
+      <c r="A17" s="85" t="s">
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.0031984211422249049</v>
+        <v>0.0025757356837827761</v>
       </c>
       <c r="C17">
-        <v>0.99680157885777509</v>
+        <v>0.99742426431621722</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1185,14 +1265,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="s">
-        <v>57</v>
+      <c r="A18" s="85" t="s">
+        <v>154</v>
       </c>
       <c r="B18">
-        <v>0.00049137896430262451</v>
+        <v>0.0070863602875680387</v>
       </c>
       <c r="C18">
-        <v>0.99950862103569738</v>
+        <v>0.99291363971243196</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1202,14 +1282,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="s">
-        <v>118</v>
+      <c r="A19" s="85" t="s">
+        <v>185</v>
       </c>
       <c r="B19">
-        <v>0.017763403622478746</v>
+        <v>0.0084402353418021603</v>
       </c>
       <c r="C19">
-        <v>0.98223659637752125</v>
+        <v>0.99155976465819784</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1219,48 +1299,48 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20">
+        <v>0.0068367842675651769</v>
+      </c>
+      <c r="C20">
+        <v>0.99316321573243482</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21">
+        <v>0.0051486928781940833</v>
+      </c>
+      <c r="C21">
+        <v>0.99485130712180592</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
-        <v>0.062392790358869354</v>
-      </c>
-      <c r="C20">
-        <v>0.93760720964113065</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21">
-        <v>0.07827055572477648</v>
-      </c>
-      <c r="C21">
-        <v>0.92172944427522352</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="31" t="s">
-        <v>119</v>
-      </c>
       <c r="B22">
-        <v>0.0049378614816519839</v>
+        <v>0.034411470847779964</v>
       </c>
       <c r="C22">
-        <v>0.99506213851834802</v>
+        <v>0.96558852915222004</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1669,38 +1749,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="87" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="s">
-        <v>120</v>
+      <c r="A2" s="87" t="s">
+        <v>171</v>
       </c>
       <c r="B2">
-        <v>0.99949096339587451</v>
+        <v>0.98880762023697755</v>
       </c>
       <c r="C2">
-        <v>0.00050903660412547429</v>
+        <v>0.01119237976302242</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1710,14 +1790,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="35" t="s">
-        <v>62</v>
+      <c r="A3" s="87" t="s">
+        <v>131</v>
       </c>
       <c r="B3">
-        <v>0.99531107200400493</v>
+        <v>0.99638166354428515</v>
       </c>
       <c r="C3">
-        <v>0.0046889279959950406</v>
+        <v>0.0036183364557148719</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1727,14 +1807,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>35</v>
+      <c r="A4" s="87" t="s">
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>0.99950066100419299</v>
+        <v>0.99619485034679456</v>
       </c>
       <c r="C4">
-        <v>0.00049933899580696835</v>
+        <v>0.0038051496532054488</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1744,14 +1824,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="35" t="s">
-        <v>121</v>
+      <c r="A5" s="87" t="s">
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>0.99977136860346871</v>
+        <v>0.99354171379417122</v>
       </c>
       <c r="C5">
-        <v>0.0002286313965312774</v>
+        <v>0.0064582862058287721</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1761,14 +1841,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="35" t="s">
-        <v>37</v>
+      <c r="A6" s="87" t="s">
+        <v>175</v>
       </c>
       <c r="B6">
-        <v>0.99978542756726685</v>
+        <v>0.98939553010463033</v>
       </c>
       <c r="C6">
-        <v>0.00021457243273318851</v>
+        <v>0.010604469895369676</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1778,31 +1858,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="35" t="s">
-        <v>39</v>
+      <c r="A7" s="87" t="s">
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>3.7693964438645366e-07</v>
+        <v>0.98554870203049294</v>
       </c>
       <c r="C7">
-        <v>0.99999962306035561</v>
+        <v>0.014451297969507048</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="35" t="s">
-        <v>5</v>
+      <c r="A8" s="87" t="s">
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>0.99959296223845318</v>
+        <v>0.98898036959527202</v>
       </c>
       <c r="C8">
-        <v>0.00040703776154679146</v>
+        <v>0.011019630404727958</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1812,14 +1892,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="35" t="s">
-        <v>122</v>
+      <c r="A9" s="87" t="s">
+        <v>108</v>
       </c>
       <c r="B9">
-        <v>0.99943833077725996</v>
+        <v>0.99320973669156376</v>
       </c>
       <c r="C9">
-        <v>0.00056166922273999061</v>
+        <v>0.006790263308436191</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1829,14 +1909,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="35" t="s">
-        <v>123</v>
+      <c r="A10" s="87" t="s">
+        <v>190</v>
       </c>
       <c r="B10">
-        <v>0.99921989608709638</v>
+        <v>0.98971404841065946</v>
       </c>
       <c r="C10">
-        <v>0.00078010391290363472</v>
+        <v>0.010285951589340571</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1846,14 +1926,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="35" t="s">
-        <v>124</v>
+      <c r="A11" s="87" t="s">
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>0.99795528536343114</v>
+        <v>0.97555546009194183</v>
       </c>
       <c r="C11">
-        <v>0.0020447146365688996</v>
+        <v>0.024444539908058203</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1863,14 +1943,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="35" t="s">
-        <v>125</v>
+      <c r="A12" s="87" t="s">
+        <v>138</v>
       </c>
       <c r="B12">
-        <v>0.99949335329195022</v>
+        <v>0.99563736815187365</v>
       </c>
       <c r="C12">
-        <v>0.00050664670804973877</v>
+        <v>0.0043626318481263856</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1880,14 +1960,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="s">
-        <v>126</v>
+      <c r="A13" s="87" t="s">
+        <v>69</v>
       </c>
       <c r="B13">
-        <v>0.99925017329393462</v>
+        <v>0.61477151602205315</v>
       </c>
       <c r="C13">
-        <v>0.00074982670606540416</v>
+        <v>0.3852284839779469</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1897,65 +1977,65 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
-        <v>69</v>
+      <c r="A14" s="87" t="s">
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>0.58754793839784769</v>
+        <v>0.001198459756577841</v>
       </c>
       <c r="C14">
-        <v>0.41245206160215231</v>
+        <v>0.99880154024342216</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
-        <v>127</v>
+      <c r="A15" s="87" t="s">
+        <v>195</v>
       </c>
       <c r="B15">
-        <v>0.99868137972598192</v>
+        <v>0.0083977470244045449</v>
       </c>
       <c r="C15">
-        <v>0.0013186202740180682</v>
+        <v>0.99160225297559546</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="35" t="s">
-        <v>19</v>
+      <c r="A16" s="87" t="s">
+        <v>196</v>
       </c>
       <c r="B16">
-        <v>8.6296143833042294e-06</v>
+        <v>0.52789678181998356</v>
       </c>
       <c r="C16">
-        <v>0.9999913703856167</v>
+        <v>0.47210321818001638</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="35" t="s">
-        <v>128</v>
+      <c r="A17" s="87" t="s">
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>0.070222640485851806</v>
+        <v>0.0016321109592112304</v>
       </c>
       <c r="C17">
-        <v>0.92977735951414819</v>
+        <v>0.99836788904078877</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1965,14 +2045,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="35" t="s">
-        <v>129</v>
+      <c r="A18" s="87" t="s">
+        <v>104</v>
       </c>
       <c r="B18">
-        <v>0.005773772137414146</v>
+        <v>0.0010184702789004518</v>
       </c>
       <c r="C18">
-        <v>0.99422622786258585</v>
+        <v>0.99898152972109955</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1982,14 +2062,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="35" t="s">
-        <v>24</v>
+      <c r="A19" s="87" t="s">
+        <v>212</v>
       </c>
       <c r="B19">
-        <v>7.8628971702521255e-06</v>
+        <v>0.045231405418416082</v>
       </c>
       <c r="C19">
-        <v>0.99999213710282975</v>
+        <v>0.95476859458158392</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1999,14 +2079,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="35" t="s">
-        <v>73</v>
+      <c r="A20" s="87" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>0.0093079381106991876</v>
+        <v>0.016308232415023216</v>
       </c>
       <c r="C20">
-        <v>0.99069206188930081</v>
+        <v>0.98369176758497678</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2016,14 +2096,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="35" t="s">
-        <v>12</v>
+      <c r="A21" s="87" t="s">
+        <v>118</v>
       </c>
       <c r="B21">
-        <v>0.00029229584866208302</v>
+        <v>0.012324938358063144</v>
       </c>
       <c r="C21">
-        <v>0.99970770415133792</v>
+        <v>0.98767506164193686</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2033,14 +2113,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="35" t="s">
-        <v>130</v>
+      <c r="A22" s="87" t="s">
+        <v>213</v>
       </c>
       <c r="B22">
-        <v>0.0037256656277485645</v>
+        <v>0.032030453463495756</v>
       </c>
       <c r="C22">
-        <v>0.99627433437225144</v>
+        <v>0.96796954653650424</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2059,38 +2139,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="89" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
-        <v>120</v>
+      <c r="A2" s="89" t="s">
+        <v>171</v>
       </c>
       <c r="B2">
-        <v>0.99713075991159417</v>
+        <v>0.96587991011403029</v>
       </c>
       <c r="C2">
-        <v>0.0028692400884058476</v>
+        <v>0.034120089885969727</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2100,14 +2180,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="s">
-        <v>62</v>
+      <c r="A3" s="89" t="s">
+        <v>131</v>
       </c>
       <c r="B3">
-        <v>0.99169730826687208</v>
+        <v>0.98453760995518935</v>
       </c>
       <c r="C3">
-        <v>0.0083026917331279412</v>
+        <v>0.015462390044810596</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2117,14 +2197,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="s">
-        <v>35</v>
+      <c r="A4" s="89" t="s">
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>0.99842255804071189</v>
+        <v>0.98514016074204991</v>
       </c>
       <c r="C4">
-        <v>0.0015774419592881582</v>
+        <v>0.014859839257950118</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2134,14 +2214,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="s">
-        <v>121</v>
+      <c r="A5" s="89" t="s">
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>0.99867446826053186</v>
+        <v>0.97062397752782281</v>
       </c>
       <c r="C5">
-        <v>0.0013255317394680966</v>
+        <v>0.029376022472177219</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2151,14 +2231,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="s">
-        <v>37</v>
+      <c r="A6" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="B6">
-        <v>0.99879805070511551</v>
+        <v>0.97274137532106986</v>
       </c>
       <c r="C6">
-        <v>0.0012019492948845134</v>
+        <v>0.027258624678930136</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2168,31 +2248,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="37" t="s">
-        <v>39</v>
+      <c r="A7" s="89" t="s">
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>0.00020677023854698273</v>
+        <v>0.97227050695905115</v>
       </c>
       <c r="C7">
-        <v>0.99979322976145302</v>
+        <v>0.027729493040948888</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="37" t="s">
-        <v>5</v>
+      <c r="A8" s="89" t="s">
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>0.99805279545048153</v>
+        <v>0.96740322611862584</v>
       </c>
       <c r="C8">
-        <v>0.0019472045495184363</v>
+        <v>0.032596773881374184</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2202,14 +2282,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="37" t="s">
-        <v>122</v>
+      <c r="A9" s="89" t="s">
+        <v>108</v>
       </c>
       <c r="B9">
-        <v>0.9968950579018574</v>
+        <v>0.97455067936922457</v>
       </c>
       <c r="C9">
-        <v>0.0031049420981425846</v>
+        <v>0.02544932063077545</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2219,14 +2299,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="37" t="s">
-        <v>123</v>
+      <c r="A10" s="89" t="s">
+        <v>190</v>
       </c>
       <c r="B10">
-        <v>0.99632626081943199</v>
+        <v>0.96039333891808121</v>
       </c>
       <c r="C10">
-        <v>0.0036737391805680584</v>
+        <v>0.039606661081918848</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2236,14 +2316,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="37" t="s">
-        <v>124</v>
+      <c r="A11" s="89" t="s">
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>0.98643150389018763</v>
+        <v>0.89135673427091322</v>
       </c>
       <c r="C11">
-        <v>0.013568496109812363</v>
+        <v>0.10864326572908681</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2253,14 +2333,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="37" t="s">
-        <v>125</v>
+      <c r="A12" s="89" t="s">
+        <v>138</v>
       </c>
       <c r="B12">
-        <v>0.99632605051173184</v>
+        <v>0.98302694321969375</v>
       </c>
       <c r="C12">
-        <v>0.0036739494882681626</v>
+        <v>0.016973056780306254</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2270,14 +2350,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="37" t="s">
-        <v>126</v>
+      <c r="A13" s="89" t="s">
+        <v>69</v>
       </c>
       <c r="B13">
-        <v>0.99519106070373764</v>
+        <v>0.89140886176168666</v>
       </c>
       <c r="C13">
-        <v>0.0048089392962623132</v>
+        <v>0.10859113823831339</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2287,48 +2367,48 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="37" t="s">
-        <v>69</v>
+      <c r="A14" s="89" t="s">
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>0.97230667588574626</v>
+        <v>0.0039151185939697575</v>
       </c>
       <c r="C14">
-        <v>0.027693324114253754</v>
+        <v>0.99608488140603024</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="37" t="s">
-        <v>127</v>
+      <c r="A15" s="89" t="s">
+        <v>195</v>
       </c>
       <c r="B15">
-        <v>0.99270029376318614</v>
+        <v>0.035558115176325344</v>
       </c>
       <c r="C15">
-        <v>0.0072997062368138216</v>
+        <v>0.96444188482367466</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="37" t="s">
-        <v>19</v>
+      <c r="A16" s="89" t="s">
+        <v>196</v>
       </c>
       <c r="B16">
-        <v>0.001510566944989189</v>
+        <v>0.13960971535149225</v>
       </c>
       <c r="C16">
-        <v>0.99848943305501081</v>
+        <v>0.86039028464850786</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2338,14 +2418,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="37" t="s">
-        <v>128</v>
+      <c r="A17" s="89" t="s">
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>0.18873800694595932</v>
+        <v>0.0047186282039157756</v>
       </c>
       <c r="C17">
-        <v>0.81126199305404068</v>
+        <v>0.99528137179608422</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2355,14 +2435,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="37" t="s">
-        <v>129</v>
+      <c r="A18" s="89" t="s">
+        <v>104</v>
       </c>
       <c r="B18">
-        <v>0.024391126077819458</v>
+        <v>0.0030549506211029476</v>
       </c>
       <c r="C18">
-        <v>0.97560887392218054</v>
+        <v>0.99694504937889705</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2372,14 +2452,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="37" t="s">
-        <v>24</v>
+      <c r="A19" s="89" t="s">
+        <v>212</v>
       </c>
       <c r="B19">
-        <v>0.00034040259031042908</v>
+        <v>0.053086958181112975</v>
       </c>
       <c r="C19">
-        <v>0.99965959740968957</v>
+        <v>0.94691304181888702</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2389,14 +2469,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="37" t="s">
-        <v>73</v>
+      <c r="A20" s="89" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>0.0077480770975738578</v>
+        <v>0.03197867908500629</v>
       </c>
       <c r="C20">
-        <v>0.99225192290242614</v>
+        <v>0.96802132091499371</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2406,14 +2486,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="37" t="s">
-        <v>12</v>
+      <c r="A21" s="89" t="s">
+        <v>118</v>
       </c>
       <c r="B21">
-        <v>0.003967935256704469</v>
+        <v>0.026329585717290833</v>
       </c>
       <c r="C21">
-        <v>0.99603206474329553</v>
+        <v>0.97367041428270917</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2423,14 +2503,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="37" t="s">
-        <v>130</v>
+      <c r="A22" s="89" t="s">
+        <v>213</v>
       </c>
       <c r="B22">
-        <v>0.019766857716972952</v>
+        <v>0.074308172474867096</v>
       </c>
       <c r="C22">
-        <v>0.98023314228302705</v>
+        <v>0.9256918275251329</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2839,38 +2919,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="91" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="41" t="s">
-        <v>131</v>
+      <c r="A2" s="91" t="s">
+        <v>76</v>
       </c>
       <c r="B2">
-        <v>0.99486970661578666</v>
+        <v>0.99849243292226553</v>
       </c>
       <c r="C2">
-        <v>0.005130293384213367</v>
+        <v>0.0015075670777345283</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2880,14 +2960,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41" t="s">
-        <v>132</v>
+      <c r="A3" s="91" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.99041429128944014</v>
+        <v>0.99938387370637383</v>
       </c>
       <c r="C3">
-        <v>0.0095857087105598732</v>
+        <v>0.00061612629362613636</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2897,14 +2977,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="41" t="s">
-        <v>36</v>
+      <c r="A4" s="91" t="s">
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>0.99084269127208824</v>
+        <v>0.99983264584540588</v>
       </c>
       <c r="C4">
-        <v>0.009157308727911791</v>
+        <v>0.00016735415459410486</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2914,31 +2994,31 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="41" t="s">
-        <v>40</v>
+      <c r="A5" s="91" t="s">
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>0.98903570752874692</v>
+        <v>7.8866846386915768e-10</v>
       </c>
       <c r="C5">
-        <v>0.010964292471253058</v>
+        <v>0.99999999921133154</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="41" t="s">
-        <v>65</v>
+      <c r="A6" s="91" t="s">
+        <v>148</v>
       </c>
       <c r="B6">
-        <v>0.98974155819963106</v>
+        <v>0.99984437162727946</v>
       </c>
       <c r="C6">
-        <v>0.010258441800368962</v>
+        <v>0.00015562837272049652</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2948,14 +3028,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="41" t="s">
-        <v>133</v>
+      <c r="A7" s="91" t="s">
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>0.99720640698185348</v>
+        <v>0.99992735765161123</v>
       </c>
       <c r="C7">
-        <v>0.0027935930181465702</v>
+        <v>7.264234838875094e-05</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2965,14 +3045,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="91" t="s">
         <v>134</v>
       </c>
       <c r="B8">
-        <v>0.98996511404586762</v>
+        <v>0.99964397130177651</v>
       </c>
       <c r="C8">
-        <v>0.010034885954132433</v>
+        <v>0.00035602869822345723</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2982,14 +3062,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="41" t="s">
-        <v>135</v>
+      <c r="A9" s="91" t="s">
+        <v>152</v>
       </c>
       <c r="B9">
-        <v>0.9891247433393876</v>
+        <v>0.99975116029959632</v>
       </c>
       <c r="C9">
-        <v>0.010875256660612355</v>
+        <v>0.00024883970040365271</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2999,14 +3079,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="41" t="s">
-        <v>136</v>
+      <c r="A10" s="91" t="s">
+        <v>204</v>
       </c>
       <c r="B10">
-        <v>0.99058808509673812</v>
+        <v>0.98095586775280685</v>
       </c>
       <c r="C10">
-        <v>0.0094119149032618199</v>
+        <v>0.019044132247193143</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3016,14 +3096,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="41" t="s">
-        <v>137</v>
+      <c r="A11" s="91" t="s">
+        <v>111</v>
       </c>
       <c r="B11">
-        <v>0.99196426676336003</v>
+        <v>0.99815755959577024</v>
       </c>
       <c r="C11">
-        <v>0.0080357332366399851</v>
+        <v>0.0018424404042297268</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3033,14 +3113,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="41" t="s">
-        <v>138</v>
+      <c r="A12" s="91" t="s">
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>0.99368919984967963</v>
+        <v>0.99997249014509215</v>
       </c>
       <c r="C12">
-        <v>0.0063108001503203474</v>
+        <v>2.7509854907848076e-05</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3050,14 +3130,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="41" t="s">
-        <v>139</v>
+      <c r="A13" s="91" t="s">
+        <v>193</v>
       </c>
       <c r="B13">
-        <v>0.98597652975777161</v>
+        <v>0.99981827549144364</v>
       </c>
       <c r="C13">
-        <v>0.014023470242228393</v>
+        <v>0.00018172450855630893</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3067,14 +3147,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="41" t="s">
-        <v>49</v>
+      <c r="A14" s="91" t="s">
+        <v>140</v>
       </c>
       <c r="B14">
-        <v>0.99104436003275964</v>
+        <v>0.99964966809500855</v>
       </c>
       <c r="C14">
-        <v>0.0089556399672403378</v>
+        <v>0.0003503319049914371</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3084,14 +3164,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="41" t="s">
-        <v>140</v>
+      <c r="A15" s="91" t="s">
+        <v>85</v>
       </c>
       <c r="B15">
-        <v>0.98712306100608727</v>
+        <v>0.99993192732828429</v>
       </c>
       <c r="C15">
-        <v>0.012876938993912745</v>
+        <v>6.8072671715734936e-05</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3101,31 +3181,31 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="41" t="s">
-        <v>141</v>
+      <c r="A16" s="91" t="s">
+        <v>102</v>
       </c>
       <c r="B16">
-        <v>0.22471471591989536</v>
+        <v>0.99998766306783959</v>
       </c>
       <c r="C16">
-        <v>0.77528528408010466</v>
+        <v>1.2336932160366771e-05</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41" t="s">
-        <v>142</v>
+      <c r="A17" s="91" t="s">
+        <v>86</v>
       </c>
       <c r="B17">
-        <v>0.0010844560580881568</v>
+        <v>0.00065632130304105196</v>
       </c>
       <c r="C17">
-        <v>0.99891554394191184</v>
+        <v>0.99934367869695895</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -3135,14 +3215,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="41" t="s">
-        <v>11</v>
+      <c r="A18" s="91" t="s">
+        <v>184</v>
       </c>
       <c r="B18">
-        <v>0.030950889716004459</v>
+        <v>5.0025405484710461e-08</v>
       </c>
       <c r="C18">
-        <v>0.96904911028399554</v>
+        <v>0.99999994997459452</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3152,14 +3232,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41" t="s">
-        <v>143</v>
+      <c r="A19" s="91" t="s">
+        <v>88</v>
       </c>
       <c r="B19">
-        <v>0.011957304666207258</v>
+        <v>0.023872455731961839</v>
       </c>
       <c r="C19">
-        <v>0.98804269533379274</v>
+        <v>0.97612754426803816</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3169,14 +3249,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="41" t="s">
-        <v>144</v>
+      <c r="A20" s="91" t="s">
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>0.00017520117574698624</v>
+        <v>2.3304736473939158e-08</v>
       </c>
       <c r="C20">
-        <v>0.99982479882425301</v>
+        <v>0.99999997669526353</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -3186,14 +3266,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41" t="s">
-        <v>25</v>
+      <c r="A21" s="91" t="s">
+        <v>55</v>
       </c>
       <c r="B21">
-        <v>0.00084924440012812408</v>
+        <v>0.0010431768536278696</v>
       </c>
       <c r="C21">
-        <v>0.99915075559987188</v>
+        <v>0.99895682314637213</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3203,14 +3283,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="41" t="s">
-        <v>145</v>
+      <c r="A22" s="91" t="s">
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.024675729587359422</v>
+        <v>0.00021522110678318107</v>
       </c>
       <c r="C22">
-        <v>0.97532427041264058</v>
+        <v>0.99978477889321682</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3230,37 +3310,37 @@
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="93" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="43" t="s">
-        <v>131</v>
+      <c r="A2" s="93" t="s">
+        <v>76</v>
       </c>
       <c r="B2">
-        <v>0.99570946273232963</v>
+        <v>0.99753014737866863</v>
       </c>
       <c r="C2">
-        <v>0.0042905372676703274</v>
+        <v>0.0024698526213313733</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3270,14 +3350,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
-        <v>132</v>
+      <c r="A3" s="93" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.99373965297880706</v>
+        <v>0.99708399940236969</v>
       </c>
       <c r="C3">
-        <v>0.0062603470211929435</v>
+        <v>0.0029160005976303009</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3287,14 +3367,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="43" t="s">
-        <v>36</v>
+      <c r="A4" s="93" t="s">
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>0.99452396014223787</v>
+        <v>0.99931938107682006</v>
       </c>
       <c r="C4">
-        <v>0.0054760398577621792</v>
+        <v>0.00068061892317998072</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3304,31 +3384,31 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>40</v>
+      <c r="A5" s="93" t="s">
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>0.98738640302250413</v>
+        <v>0.0091767781039598928</v>
       </c>
       <c r="C5">
-        <v>0.012613596977495823</v>
+        <v>0.99082322189604011</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="43" t="s">
-        <v>65</v>
+      <c r="A6" s="93" t="s">
+        <v>148</v>
       </c>
       <c r="B6">
-        <v>0.99330631820688364</v>
+        <v>0.99952320967086006</v>
       </c>
       <c r="C6">
-        <v>0.0066936817931163494</v>
+        <v>0.00047679032913996273</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3338,14 +3418,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="43" t="s">
-        <v>133</v>
+      <c r="A7" s="93" t="s">
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>0.99827603182128322</v>
+        <v>0.99987933463655554</v>
       </c>
       <c r="C7">
-        <v>0.0017239681787167361</v>
+        <v>0.00012066536344440917</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3355,14 +3435,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="93" t="s">
         <v>134</v>
       </c>
       <c r="B8">
-        <v>0.99084935702689059</v>
+        <v>0.9984537837898485</v>
       </c>
       <c r="C8">
-        <v>0.0091506429731093644</v>
+        <v>0.0015462162101515184</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3372,14 +3452,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="s">
-        <v>135</v>
+      <c r="A9" s="93" t="s">
+        <v>152</v>
       </c>
       <c r="B9">
-        <v>0.99115322642235293</v>
+        <v>0.99884212034427411</v>
       </c>
       <c r="C9">
-        <v>0.0088467735776471181</v>
+        <v>0.0011578796557258888</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3389,14 +3469,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="43" t="s">
-        <v>136</v>
+      <c r="A10" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="B10">
-        <v>0.99342752263961243</v>
+        <v>0.98423830225093145</v>
       </c>
       <c r="C10">
-        <v>0.0065724773603875889</v>
+        <v>0.015761697749068528</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3406,14 +3486,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="43" t="s">
-        <v>137</v>
+      <c r="A11" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="B11">
-        <v>0.99340007227080795</v>
+        <v>0.99111067920682705</v>
       </c>
       <c r="C11">
-        <v>0.0065999277291920282</v>
+        <v>0.0088893207931729796</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3423,14 +3503,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="43" t="s">
-        <v>138</v>
+      <c r="A12" s="93" t="s">
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>0.99540149038597914</v>
+        <v>0.99935376443331347</v>
       </c>
       <c r="C12">
-        <v>0.0045985096140208626</v>
+        <v>0.00064623556668647313</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3440,14 +3520,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="43" t="s">
-        <v>139</v>
+      <c r="A13" s="93" t="s">
+        <v>193</v>
       </c>
       <c r="B13">
-        <v>0.98895470896962634</v>
+        <v>0.99831492931424559</v>
       </c>
       <c r="C13">
-        <v>0.011045291030373685</v>
+        <v>0.0016850706857543557</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3457,14 +3537,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="43" t="s">
-        <v>49</v>
+      <c r="A14" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="B14">
-        <v>0.99457271964058735</v>
+        <v>0.99816183949491022</v>
       </c>
       <c r="C14">
-        <v>0.005427280359412659</v>
+        <v>0.0018381605050897564</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3474,14 +3554,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="43" t="s">
-        <v>140</v>
+      <c r="A15" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="B15">
-        <v>0.98879187301551286</v>
+        <v>0.99950258383066115</v>
       </c>
       <c r="C15">
-        <v>0.011208126984487152</v>
+        <v>0.00049741616933883796</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3491,31 +3571,31 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="43" t="s">
-        <v>141</v>
+      <c r="A16" s="93" t="s">
+        <v>102</v>
       </c>
       <c r="B16">
-        <v>0.23552582165313649</v>
+        <v>0.99973109223769929</v>
       </c>
       <c r="C16">
-        <v>0.76447417834686349</v>
+        <v>0.00026890776230069808</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="43" t="s">
-        <v>142</v>
+      <c r="A17" s="93" t="s">
+        <v>86</v>
       </c>
       <c r="B17">
-        <v>0.00085868340895056683</v>
+        <v>0.00024038195253106576</v>
       </c>
       <c r="C17">
-        <v>0.99914131659104943</v>
+        <v>0.99975961804746893</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -3525,14 +3605,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="43" t="s">
-        <v>11</v>
+      <c r="A18" s="93" t="s">
+        <v>184</v>
       </c>
       <c r="B18">
-        <v>0.019671874058431738</v>
+        <v>3.8744292750747533e-06</v>
       </c>
       <c r="C18">
-        <v>0.98032812594156826</v>
+        <v>0.99999612557072493</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3542,14 +3622,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="43" t="s">
-        <v>143</v>
+      <c r="A19" s="93" t="s">
+        <v>88</v>
       </c>
       <c r="B19">
-        <v>0.0072767547025088808</v>
+        <v>0.02038729799022776</v>
       </c>
       <c r="C19">
-        <v>0.99272324529749112</v>
+        <v>0.97961270200977224</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3559,14 +3639,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="43" t="s">
-        <v>144</v>
+      <c r="A20" s="93" t="s">
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>0.00023963809550542337</v>
+        <v>2.0884010250354912e-05</v>
       </c>
       <c r="C20">
-        <v>0.99976036190449458</v>
+        <v>0.99997911598974965</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -3576,14 +3656,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="43" t="s">
-        <v>25</v>
+      <c r="A21" s="93" t="s">
+        <v>55</v>
       </c>
       <c r="B21">
-        <v>0.00057669509932833929</v>
+        <v>0.0062845445951027479</v>
       </c>
       <c r="C21">
-        <v>0.99942330490067166</v>
+        <v>0.99371545540489725</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -3593,14 +3673,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="43" t="s">
-        <v>145</v>
+      <c r="A22" s="93" t="s">
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.020081035510549627</v>
+        <v>0.00036017331595983304</v>
       </c>
       <c r="C22">
-        <v>0.97991896448945037</v>
+        <v>0.99963982668404017</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -4016,31 +4096,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="95" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
-        <v>146</v>
+      <c r="A2" s="95" t="s">
+        <v>91</v>
       </c>
       <c r="B2">
-        <v>0.98637661547392264</v>
+        <v>0.99348223207969955</v>
       </c>
       <c r="C2">
-        <v>0.01362338452607738</v>
+        <v>0.0065177679203004598</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4050,14 +4130,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
-        <v>38</v>
+      <c r="A3" s="95" t="s">
+        <v>132</v>
       </c>
       <c r="B3">
-        <v>0.99356843472989997</v>
+        <v>0.99320234857494938</v>
       </c>
       <c r="C3">
-        <v>0.0064315652701000293</v>
+        <v>0.0067976514250506154</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4067,14 +4147,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
-        <v>147</v>
+      <c r="A4" s="95" t="s">
+        <v>203</v>
       </c>
       <c r="B4">
-        <v>0.99435892434849593</v>
+        <v>0.98926139580670225</v>
       </c>
       <c r="C4">
-        <v>0.0056410756515040327</v>
+        <v>0.010738604193297807</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4084,14 +4164,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="47" t="s">
-        <v>148</v>
+      <c r="A5" s="95" t="s">
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>0.99330883509547585</v>
+        <v>0.99154009243307073</v>
       </c>
       <c r="C5">
-        <v>0.0066911649045241764</v>
+        <v>0.0084599075669292666</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4101,14 +4181,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="47" t="s">
-        <v>149</v>
+      <c r="A6" s="95" t="s">
+        <v>95</v>
       </c>
       <c r="B6">
-        <v>0.99520556125493198</v>
+        <v>0.98880249450430757</v>
       </c>
       <c r="C6">
-        <v>0.0047944387450680748</v>
+        <v>0.011197505495692402</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4118,14 +4198,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="47" t="s">
-        <v>150</v>
+      <c r="A7" s="95" t="s">
+        <v>163</v>
       </c>
       <c r="B7">
-        <v>0.9931734104416714</v>
+        <v>0.95857690021798592</v>
       </c>
       <c r="C7">
-        <v>0.006826589558328623</v>
+        <v>0.041423099782014132</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4135,14 +4215,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
-        <v>3</v>
+      <c r="A8" s="95" t="s">
+        <v>151</v>
       </c>
       <c r="B8">
-        <v>0.99182516761870199</v>
+        <v>0.99181759241541601</v>
       </c>
       <c r="C8">
-        <v>0.0081748323812980694</v>
+        <v>0.0081824075845840036</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4152,14 +4232,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="47" t="s">
-        <v>42</v>
+      <c r="A9" s="95" t="s">
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.99734621939352996</v>
+        <v>0.9911570027811365</v>
       </c>
       <c r="C9">
-        <v>0.0026537806064700666</v>
+        <v>0.0088429972188635488</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4169,14 +4249,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="47" t="s">
-        <v>66</v>
+      <c r="A10" s="95" t="s">
+        <v>110</v>
       </c>
       <c r="B10">
-        <v>0.99210608571953851</v>
+        <v>0.98050910102398636</v>
       </c>
       <c r="C10">
-        <v>0.007893914280461491</v>
+        <v>0.019490898976013585</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4186,14 +4266,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
-        <v>151</v>
+      <c r="A11" s="95" t="s">
+        <v>191</v>
       </c>
       <c r="B11">
-        <v>0.9929486114352043</v>
+        <v>0.99565128831658023</v>
       </c>
       <c r="C11">
-        <v>0.0070513885647957462</v>
+        <v>0.0043487116834198154</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4203,14 +4283,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
-        <v>152</v>
+      <c r="A12" s="95" t="s">
+        <v>47</v>
       </c>
       <c r="B12">
-        <v>0.99324243377390864</v>
+        <v>0.69620283782273962</v>
       </c>
       <c r="C12">
-        <v>0.0067575662260913891</v>
+        <v>0.30379716217726033</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4220,14 +4300,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
-        <v>153</v>
+      <c r="A13" s="95" t="s">
+        <v>98</v>
       </c>
       <c r="B13">
-        <v>0.99485281280874427</v>
+        <v>0.94246182519509658</v>
       </c>
       <c r="C13">
-        <v>0.0051471871912557804</v>
+        <v>0.057538174804903384</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4237,65 +4317,65 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14">
+        <v>0.9959345832730705</v>
+      </c>
+      <c r="C14">
+        <v>0.0040654167269295405</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>0.99439702867774105</v>
+      </c>
+      <c r="C15">
+        <v>0.0056029713222589695</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>0.9885508254956622</v>
+      </c>
+      <c r="C16">
+        <v>0.01144917450433783</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B14">
-        <v>0.01280549638432249</v>
-      </c>
-      <c r="C14">
-        <v>0.98719450361567751</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15">
-        <v>0.017232110434971193</v>
-      </c>
-      <c r="C15">
-        <v>0.98276788956502881</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16">
-        <v>0.10579148679844409</v>
-      </c>
-      <c r="C16">
-        <v>0.89420851320155592</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="B17">
-        <v>0.008525714279971508</v>
+        <v>0.01725111822938219</v>
       </c>
       <c r="C17">
-        <v>0.99147428572002849</v>
+        <v>0.98274888177061781</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -4305,14 +4385,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="47" t="s">
-        <v>156</v>
+      <c r="A18" s="95" t="s">
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0042530224433624531</v>
+        <v>0.26191617047239135</v>
       </c>
       <c r="C18">
-        <v>0.99574697755663755</v>
+        <v>0.73808382952760865</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -4322,14 +4402,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="s">
-        <v>74</v>
+      <c r="A19" s="95" t="s">
+        <v>167</v>
       </c>
       <c r="B19">
-        <v>0.0018004924102599238</v>
+        <v>0.039096582078883224</v>
       </c>
       <c r="C19">
-        <v>0.99819950758974008</v>
+        <v>0.96090341792111678</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4339,14 +4419,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="47" t="s">
-        <v>13</v>
+      <c r="A20" s="95" t="s">
+        <v>89</v>
       </c>
       <c r="B20">
-        <v>0.0059372190651238999</v>
+        <v>0.0065243622552236813</v>
       </c>
       <c r="C20">
-        <v>0.9940627809348761</v>
+        <v>0.99347563774477632</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -4356,14 +4436,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="47" t="s">
-        <v>157</v>
+      <c r="A21" s="95" t="s">
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>0.020131987761217052</v>
+        <v>0.017934293045319127</v>
       </c>
       <c r="C21">
-        <v>0.97986801223878295</v>
+        <v>0.98206570695468098</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4373,14 +4453,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="47" t="s">
-        <v>158</v>
+      <c r="A22" s="95" t="s">
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.041824560963456103</v>
+        <v>0.022863725889989528</v>
       </c>
       <c r="C22">
-        <v>0.9581754390365439</v>
+        <v>0.97713627411001047</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -4406,31 +4486,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="49" t="s">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="97" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>146</v>
+      <c r="A2" s="97" t="s">
+        <v>91</v>
       </c>
       <c r="B2">
-        <v>0.98786572831411701</v>
+        <v>0.99708517163731403</v>
       </c>
       <c r="C2">
-        <v>0.012134271685883035</v>
+        <v>0.0029148283626859498</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4440,14 +4520,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="s">
-        <v>38</v>
+      <c r="A3" s="97" t="s">
+        <v>132</v>
       </c>
       <c r="B3">
-        <v>0.99677720468122899</v>
+        <v>0.99778187514203842</v>
       </c>
       <c r="C3">
-        <v>0.0032227953187710036</v>
+        <v>0.0022181248579615704</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4457,14 +4537,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>147</v>
+      <c r="A4" s="97" t="s">
+        <v>203</v>
       </c>
       <c r="B4">
-        <v>0.99736173442050191</v>
+        <v>0.99783230236405207</v>
       </c>
       <c r="C4">
-        <v>0.0026382655794980987</v>
+        <v>0.0021676976359479346</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4474,14 +4554,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="s">
-        <v>148</v>
+      <c r="A5" s="97" t="s">
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>0.99670331539476831</v>
+        <v>0.99724133679249316</v>
       </c>
       <c r="C5">
-        <v>0.0032966846052317443</v>
+        <v>0.0027586632075068548</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4491,14 +4571,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="s">
-        <v>149</v>
+      <c r="A6" s="97" t="s">
+        <v>95</v>
       </c>
       <c r="B6">
-        <v>0.99711435606879806</v>
+        <v>0.99637544173188874</v>
       </c>
       <c r="C6">
-        <v>0.002885643931201973</v>
+        <v>0.0036245582681112632</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4508,14 +4588,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="s">
-        <v>150</v>
+      <c r="A7" s="97" t="s">
+        <v>163</v>
       </c>
       <c r="B7">
-        <v>0.99491931657566912</v>
+        <v>0.98605957688027601</v>
       </c>
       <c r="C7">
-        <v>0.0050806834243308664</v>
+        <v>0.013940423119723943</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4525,14 +4605,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="s">
-        <v>3</v>
+      <c r="A8" s="97" t="s">
+        <v>151</v>
       </c>
       <c r="B8">
-        <v>0.99611154052389417</v>
+        <v>0.99617985554053445</v>
       </c>
       <c r="C8">
-        <v>0.0038884594761057784</v>
+        <v>0.0038201444594655725</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4542,14 +4622,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="s">
-        <v>42</v>
+      <c r="A9" s="97" t="s">
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.99923579414130403</v>
+        <v>0.99580337864713786</v>
       </c>
       <c r="C9">
-        <v>0.00076420585869598867</v>
+        <v>0.0041966213528621208</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4559,14 +4639,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
-        <v>66</v>
+      <c r="A10" s="97" t="s">
+        <v>110</v>
       </c>
       <c r="B10">
-        <v>0.99283590381258724</v>
+        <v>0.9955827388230567</v>
       </c>
       <c r="C10">
-        <v>0.0071640961874127372</v>
+        <v>0.0044172611769432626</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4576,14 +4656,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="s">
-        <v>151</v>
+      <c r="A11" s="97" t="s">
+        <v>191</v>
       </c>
       <c r="B11">
-        <v>0.99366316590572745</v>
+        <v>0.99849461098969727</v>
       </c>
       <c r="C11">
-        <v>0.0063368340942725147</v>
+        <v>0.0015053890103027101</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4593,14 +4673,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="s">
-        <v>152</v>
+      <c r="A12" s="97" t="s">
+        <v>47</v>
       </c>
       <c r="B12">
-        <v>0.99508472636774437</v>
+        <v>0.9873278262252706</v>
       </c>
       <c r="C12">
-        <v>0.0049152736322556102</v>
+        <v>0.012672173774729394</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4610,14 +4690,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="s">
-        <v>153</v>
+      <c r="A13" s="97" t="s">
+        <v>98</v>
       </c>
       <c r="B13">
-        <v>0.99680438512330238</v>
+        <v>0.98019393907262953</v>
       </c>
       <c r="C13">
-        <v>0.0031956148766976392</v>
+        <v>0.019806060927370465</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4627,65 +4707,65 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14">
+        <v>0.9992739367148552</v>
+      </c>
+      <c r="C14">
+        <v>0.00072606328514481498</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>0.99833726683061341</v>
+      </c>
+      <c r="C15">
+        <v>0.0016627331693866039</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>0.99537936875063016</v>
+      </c>
+      <c r="C16">
+        <v>0.0046206312493698868</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="B14">
-        <v>0.0092133416323396666</v>
-      </c>
-      <c r="C14">
-        <v>0.99078665836766033</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15">
-        <v>0.0033052485106261908</v>
-      </c>
-      <c r="C15">
-        <v>0.99669475148937381</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16">
-        <v>0.026266615005743899</v>
-      </c>
-      <c r="C16">
-        <v>0.9737333849942561</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="49" t="s">
-        <v>23</v>
-      </c>
       <c r="B17">
-        <v>0.0016268822169698272</v>
+        <v>0.0065731119909155922</v>
       </c>
       <c r="C17">
-        <v>0.99837311778303017</v>
+        <v>0.99342688800908441</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -4695,14 +4775,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="s">
-        <v>156</v>
+      <c r="A18" s="97" t="s">
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0013471758599947758</v>
+        <v>0.19015084765424273</v>
       </c>
       <c r="C18">
-        <v>0.99865282414000522</v>
+        <v>0.80984915234575738</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -4712,14 +4792,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="s">
-        <v>74</v>
+      <c r="A19" s="97" t="s">
+        <v>167</v>
       </c>
       <c r="B19">
-        <v>0.0002720471576164174</v>
+        <v>0.00037555418940904417</v>
       </c>
       <c r="C19">
-        <v>0.99972795284238358</v>
+        <v>0.99962444581059096</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4729,14 +4809,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="s">
-        <v>13</v>
+      <c r="A20" s="97" t="s">
+        <v>89</v>
       </c>
       <c r="B20">
-        <v>0.0013888613193150379</v>
+        <v>0.0005865584559003878</v>
       </c>
       <c r="C20">
-        <v>0.99861113868068496</v>
+        <v>0.99941344154409961</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -4746,14 +4826,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="s">
-        <v>157</v>
+      <c r="A21" s="97" t="s">
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>0.006042523905805175</v>
+        <v>0.0047363404037835677</v>
       </c>
       <c r="C21">
-        <v>0.99395747609419483</v>
+        <v>0.99526365959621643</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -4763,14 +4843,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="s">
-        <v>158</v>
+      <c r="A22" s="97" t="s">
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0060533690617572411</v>
+        <v>0.0034901632047954489</v>
       </c>
       <c r="C22">
-        <v>0.99394663093824276</v>
+        <v>0.99650983679520455</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -5796,38 +5876,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="99" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53" t="s">
-        <v>159</v>
+      <c r="A2" s="99" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.98931008847345936</v>
+        <v>0.98955178973882663</v>
       </c>
       <c r="C2">
-        <v>0.010689911526540587</v>
+        <v>0.010448210261173324</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5837,14 +5917,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="53" t="s">
-        <v>160</v>
+      <c r="A3" s="99" t="s">
+        <v>147</v>
       </c>
       <c r="B3">
-        <v>0.57725532252042822</v>
+        <v>0.99264813542594388</v>
       </c>
       <c r="C3">
-        <v>0.42274467747957178</v>
+        <v>0.0073518645740561382</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5854,14 +5934,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="53" t="s">
-        <v>161</v>
+      <c r="A4" s="99" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.98153734443125351</v>
+        <v>0.991368599346512</v>
       </c>
       <c r="C4">
-        <v>0.018462655568746503</v>
+        <v>0.0086314006534880111</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5871,14 +5951,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="53" t="s">
-        <v>64</v>
+      <c r="A5" s="99" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.98782871010417062</v>
+        <v>0.99098979108770902</v>
       </c>
       <c r="C5">
-        <v>0.012171289895829392</v>
+        <v>0.0090102089122909845</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5888,14 +5968,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="s">
-        <v>41</v>
+      <c r="A6" s="99" t="s">
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>0.98193752023403214</v>
+        <v>0.99227584336278218</v>
       </c>
       <c r="C6">
-        <v>0.018062479765967917</v>
+        <v>0.0077241566372177857</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5905,14 +5985,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53" t="s">
-        <v>162</v>
+      <c r="A7" s="99" t="s">
+        <v>107</v>
       </c>
       <c r="B7">
-        <v>0.99157963180058339</v>
+        <v>0.99435241859450718</v>
       </c>
       <c r="C7">
-        <v>0.0084203681994165763</v>
+        <v>0.005647581405492842</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5922,14 +6002,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="53" t="s">
-        <v>163</v>
+      <c r="A8" s="99" t="s">
+        <v>206</v>
       </c>
       <c r="B8">
-        <v>0.93192165008131711</v>
+        <v>0.98871502764298091</v>
       </c>
       <c r="C8">
-        <v>0.068078349918682932</v>
+        <v>0.011284972357019083</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5939,14 +6019,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="53" t="s">
-        <v>45</v>
+      <c r="A9" s="99" t="s">
+        <v>99</v>
       </c>
       <c r="B9">
-        <v>0.91276286450284072</v>
+        <v>0.99371534273301054</v>
       </c>
       <c r="C9">
-        <v>0.087237135497159266</v>
+        <v>0.0062846572669894149</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5956,14 +6036,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="53" t="s">
-        <v>70</v>
+      <c r="A10" s="99" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>0.99110425586443196</v>
+        <v>0.9922174173157714</v>
       </c>
       <c r="C10">
-        <v>0.0088957441355680296</v>
+        <v>0.0077825826842286353</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5973,14 +6053,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="53" t="s">
-        <v>164</v>
+      <c r="A11" s="99" t="s">
+        <v>100</v>
       </c>
       <c r="B11">
-        <v>0.99370953369902237</v>
+        <v>0.99455609677681867</v>
       </c>
       <c r="C11">
-        <v>0.0062904663009776506</v>
+        <v>0.0054439032231813301</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5990,65 +6070,65 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="53" t="s">
-        <v>71</v>
+      <c r="A12" s="99" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.99373952729526183</v>
+        <v>0.016160688155160474</v>
       </c>
       <c r="C12">
-        <v>0.0062604727047381971</v>
+        <v>0.98383931184483953</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="53" t="s">
-        <v>165</v>
+      <c r="A13" s="99" t="s">
+        <v>103</v>
       </c>
       <c r="B13">
-        <v>0.99475093641848589</v>
+        <v>0.031671826265825209</v>
       </c>
       <c r="C13">
-        <v>0.0052490635815141285</v>
+        <v>0.96832817373417479</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="53" t="s">
-        <v>72</v>
+      <c r="A14" s="99" t="s">
+        <v>87</v>
       </c>
       <c r="B14">
-        <v>0.99496613994639704</v>
+        <v>0.035495827365809363</v>
       </c>
       <c r="C14">
-        <v>0.0050338600536029565</v>
+        <v>0.96450417263419064</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="53" t="s">
-        <v>166</v>
+      <c r="A15" s="99" t="s">
+        <v>142</v>
       </c>
       <c r="B15">
-        <v>0.011082562227528459</v>
+        <v>0.00043492507870657171</v>
       </c>
       <c r="C15">
-        <v>0.98891743777247154</v>
+        <v>0.99956507492129343</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -6058,14 +6138,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="53" t="s">
-        <v>167</v>
+      <c r="A16" s="99" t="s">
+        <v>57</v>
       </c>
       <c r="B16">
-        <v>0.016597354531584618</v>
+        <v>0.00012531107189883706</v>
       </c>
       <c r="C16">
-        <v>0.98340264546841538</v>
+        <v>0.99987468892810116</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -6075,14 +6155,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="53" t="s">
-        <v>168</v>
+      <c r="A17" s="99" t="s">
+        <v>74</v>
       </c>
       <c r="B17">
-        <v>0.016424124365609694</v>
+        <v>0.0013475738706205664</v>
       </c>
       <c r="C17">
-        <v>0.98357587563439031</v>
+        <v>0.99865242612937943</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -6092,14 +6172,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="53" t="s">
-        <v>169</v>
+      <c r="A18" s="99" t="s">
+        <v>144</v>
       </c>
       <c r="B18">
-        <v>0.0025301128242332105</v>
+        <v>0.00011724884227348742</v>
       </c>
       <c r="C18">
-        <v>0.99746988717576679</v>
+        <v>0.99988275115772651</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -6109,14 +6189,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="53" t="s">
-        <v>54</v>
+      <c r="A19" s="99" t="s">
+        <v>186</v>
       </c>
       <c r="B19">
-        <v>0.015717974844127736</v>
+        <v>0.010831544408820504</v>
       </c>
       <c r="C19">
-        <v>0.98428202515587226</v>
+        <v>0.9891684555911795</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -6126,14 +6206,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="53" t="s">
-        <v>27</v>
+      <c r="A20" s="99" t="s">
+        <v>130</v>
       </c>
       <c r="B20">
-        <v>0.020302694807787014</v>
+        <v>0.021820985582186481</v>
       </c>
       <c r="C20">
-        <v>0.97969730519221299</v>
+        <v>0.97817901441781352</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -6143,14 +6223,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="53" t="s">
-        <v>170</v>
+      <c r="A21" s="99" t="s">
+        <v>145</v>
       </c>
       <c r="B21">
-        <v>0.0031729482754134781</v>
+        <v>0.018088290795878259</v>
       </c>
       <c r="C21">
-        <v>0.99682705172458652</v>
+        <v>0.98191170920412174</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -6160,14 +6240,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="99" t="s">
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.011145617428135024</v>
+        <v>0.0075281970903023909</v>
       </c>
       <c r="C22">
-        <v>0.98885438257186498</v>
+        <v>0.99247180290969761</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -6187,37 +6267,37 @@
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="101" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="55" t="s">
-        <v>159</v>
+      <c r="A2" s="101" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.98405342964286557</v>
+        <v>0.99797327231124677</v>
       </c>
       <c r="C2">
-        <v>0.015946570357134433</v>
+        <v>0.0020267276887532587</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6227,31 +6307,31 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="55" t="s">
-        <v>160</v>
+      <c r="A3" s="101" t="s">
+        <v>147</v>
       </c>
       <c r="B3">
-        <v>0.15447732298670805</v>
+        <v>0.99961657890763167</v>
       </c>
       <c r="C3">
-        <v>0.84552267701329198</v>
+        <v>0.00038342109236830154</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="55" t="s">
-        <v>161</v>
+      <c r="A4" s="101" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.95563842529738507</v>
+        <v>0.99946393095824881</v>
       </c>
       <c r="C4">
-        <v>0.044361574702614918</v>
+        <v>0.00053606904175117806</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6261,14 +6341,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="55" t="s">
-        <v>64</v>
+      <c r="A5" s="101" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.98944283899136709</v>
+        <v>0.99946542604886035</v>
       </c>
       <c r="C5">
-        <v>0.010557161008632888</v>
+        <v>0.0005345739511396655</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6278,14 +6358,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="55" t="s">
-        <v>41</v>
+      <c r="A6" s="101" t="s">
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>0.98483141846978017</v>
+        <v>0.99954492072131451</v>
       </c>
       <c r="C6">
-        <v>0.015168581530219875</v>
+        <v>0.00045507927868550756</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6295,14 +6375,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="55" t="s">
-        <v>162</v>
+      <c r="A7" s="101" t="s">
+        <v>107</v>
       </c>
       <c r="B7">
-        <v>0.98681218760166456</v>
+        <v>0.99924675327920343</v>
       </c>
       <c r="C7">
-        <v>0.013187812398335465</v>
+        <v>0.00075324672079654859</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6312,14 +6392,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="55" t="s">
-        <v>163</v>
+      <c r="A8" s="101" t="s">
+        <v>206</v>
       </c>
       <c r="B8">
-        <v>0.90794653958555815</v>
+        <v>0.99882837146499359</v>
       </c>
       <c r="C8">
-        <v>0.092053460414441873</v>
+        <v>0.0011716285350064407</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -6329,14 +6409,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="55" t="s">
-        <v>45</v>
+      <c r="A9" s="101" t="s">
+        <v>99</v>
       </c>
       <c r="B9">
-        <v>0.8392766678870569</v>
+        <v>0.99969508720494771</v>
       </c>
       <c r="C9">
-        <v>0.16072333211294304</v>
+        <v>0.00030491279505229652</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6346,14 +6426,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="55" t="s">
-        <v>70</v>
+      <c r="A10" s="101" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>0.98396629284781689</v>
+        <v>0.99949634873320159</v>
       </c>
       <c r="C10">
-        <v>0.016033707152183121</v>
+        <v>0.00050365126679836425</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6363,14 +6443,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="55" t="s">
-        <v>164</v>
+      <c r="A11" s="101" t="s">
+        <v>100</v>
       </c>
       <c r="B11">
-        <v>0.99001121384365121</v>
+        <v>0.99975185534349109</v>
       </c>
       <c r="C11">
-        <v>0.0099887861563488275</v>
+        <v>0.00024814465650894367</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6380,65 +6460,65 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="55" t="s">
-        <v>71</v>
+      <c r="A12" s="101" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.98805071052451787</v>
+        <v>0.0022668433891686046</v>
       </c>
       <c r="C12">
-        <v>0.011949289475482102</v>
+        <v>0.9977331566108314</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="55" t="s">
-        <v>165</v>
+      <c r="A13" s="101" t="s">
+        <v>103</v>
       </c>
       <c r="B13">
-        <v>0.98951270229451715</v>
+        <v>0.0014476894336453716</v>
       </c>
       <c r="C13">
-        <v>0.010487297705482877</v>
+        <v>0.99855231056635463</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="55" t="s">
-        <v>72</v>
+      <c r="A14" s="101" t="s">
+        <v>87</v>
       </c>
       <c r="B14">
-        <v>0.99086297899668729</v>
+        <v>0.025754087513112256</v>
       </c>
       <c r="C14">
-        <v>0.0091370210033127203</v>
+        <v>0.97424591248688774</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="55" t="s">
-        <v>166</v>
+      <c r="A15" s="101" t="s">
+        <v>142</v>
       </c>
       <c r="B15">
-        <v>0.0089324475009088244</v>
+        <v>2.7897099852403073e-05</v>
       </c>
       <c r="C15">
-        <v>0.99106755249909118</v>
+        <v>0.9999721029001476</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -6448,14 +6528,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="55" t="s">
-        <v>167</v>
+      <c r="A16" s="101" t="s">
+        <v>57</v>
       </c>
       <c r="B16">
-        <v>0.00057725926977569841</v>
+        <v>6.2360431616337308e-06</v>
       </c>
       <c r="C16">
-        <v>0.9994227407302243</v>
+        <v>0.99999376395683837</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -6465,14 +6545,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="55" t="s">
-        <v>168</v>
+      <c r="A17" s="101" t="s">
+        <v>74</v>
       </c>
       <c r="B17">
-        <v>0.015607585197534801</v>
+        <v>0.00011878075556015499</v>
       </c>
       <c r="C17">
-        <v>0.9843924148024652</v>
+        <v>0.99988121924443985</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -6482,14 +6562,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="55" t="s">
-        <v>169</v>
+      <c r="A18" s="101" t="s">
+        <v>144</v>
       </c>
       <c r="B18">
-        <v>0.0038448722663690926</v>
+        <v>6.9396128736798346e-06</v>
       </c>
       <c r="C18">
-        <v>0.99615512773363091</v>
+        <v>0.99999306038712632</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -6499,14 +6579,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="55" t="s">
-        <v>54</v>
+      <c r="A19" s="101" t="s">
+        <v>186</v>
       </c>
       <c r="B19">
-        <v>0.025099685633943603</v>
+        <v>0.0030182903331672506</v>
       </c>
       <c r="C19">
-        <v>0.9749003143660564</v>
+        <v>0.99698170966683275</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -6516,14 +6596,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="55" t="s">
-        <v>27</v>
+      <c r="A20" s="101" t="s">
+        <v>130</v>
       </c>
       <c r="B20">
-        <v>0.023731001212332736</v>
+        <v>0.0042662873945207291</v>
       </c>
       <c r="C20">
-        <v>0.97626899878766726</v>
+        <v>0.99573371260547927</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -6533,14 +6613,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="55" t="s">
-        <v>170</v>
+      <c r="A21" s="101" t="s">
+        <v>145</v>
       </c>
       <c r="B21">
-        <v>0.0017217617842965049</v>
+        <v>0.0044144294800360084</v>
       </c>
       <c r="C21">
-        <v>0.9982782382157035</v>
+        <v>0.99558557051996399</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -6550,14 +6630,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="101" t="s">
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.012966578131517803</v>
+        <v>0.0014135225269538143</v>
       </c>
       <c r="C22">
-        <v>0.9870334218684822</v>
+        <v>0.99858647747304619</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -6973,31 +7053,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="103" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59" t="s">
-        <v>171</v>
+      <c r="A2" s="103" t="s">
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>0.98625043331548512</v>
+        <v>0.97693195055781668</v>
       </c>
       <c r="C2">
-        <v>0.013749566684514923</v>
+        <v>0.023068049442183297</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -7007,14 +7087,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="59" t="s">
-        <v>172</v>
+      <c r="A3" s="103" t="s">
+        <v>120</v>
       </c>
       <c r="B3">
-        <v>0.98777135325918231</v>
+        <v>0.99302476217801749</v>
       </c>
       <c r="C3">
-        <v>0.012228646740817728</v>
+        <v>0.0069752378219824661</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7024,14 +7104,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="59" t="s">
-        <v>173</v>
+      <c r="A4" s="103" t="s">
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>0.99485436283410267</v>
+        <v>0.98107339151354656</v>
       </c>
       <c r="C4">
-        <v>0.005145637165897359</v>
+        <v>0.018926608486453497</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -7041,14 +7121,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="59" t="s">
-        <v>174</v>
+      <c r="A5" s="103" t="s">
+        <v>160</v>
       </c>
       <c r="B5">
-        <v>0.985721423157357</v>
+        <v>0.63022985210867677</v>
       </c>
       <c r="C5">
-        <v>0.014278576842643036</v>
+        <v>0.36977014789132329</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -7058,14 +7138,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="59" t="s">
-        <v>175</v>
+      <c r="A6" s="103" t="s">
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.98879760178770559</v>
+        <v>0.99337019882495892</v>
       </c>
       <c r="C6">
-        <v>0.011202398212294414</v>
+        <v>0.0066298011750410852</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -7075,14 +7155,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="59" t="s">
-        <v>176</v>
+      <c r="A7" s="103" t="s">
+        <v>133</v>
       </c>
       <c r="B7">
-        <v>0.99205658213292369</v>
+        <v>0.99766436771303235</v>
       </c>
       <c r="C7">
-        <v>0.0079434178670762887</v>
+        <v>0.0023356322869676135</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -7092,14 +7172,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="59" t="s">
-        <v>177</v>
+      <c r="A8" s="103" t="s">
+        <v>135</v>
       </c>
       <c r="B8">
-        <v>0.99119743263574278</v>
+        <v>0.99029997865047381</v>
       </c>
       <c r="C8">
-        <v>0.0088025673642572275</v>
+        <v>0.0097000213495261646</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -7109,14 +7189,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="59" t="s">
-        <v>7</v>
+      <c r="A9" s="103" t="s">
+        <v>97</v>
       </c>
       <c r="B9">
-        <v>0.99028861724277706</v>
+        <v>0.97926184222458779</v>
       </c>
       <c r="C9">
-        <v>0.009711382757222933</v>
+        <v>0.020738157775412266</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -7126,14 +7206,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="59" t="s">
-        <v>178</v>
+      <c r="A10" s="103" t="s">
+        <v>139</v>
       </c>
       <c r="B10">
-        <v>0.98674403087211926</v>
+        <v>0.98832167295440898</v>
       </c>
       <c r="C10">
-        <v>0.0132559691278807</v>
+        <v>0.011678327045591011</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -7143,14 +7223,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="59" t="s">
-        <v>179</v>
+      <c r="A11" s="103" t="s">
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>0.97148393104603348</v>
+        <v>0.98286000930864115</v>
       </c>
       <c r="C11">
-        <v>0.028516068953966543</v>
+        <v>0.017139990691358891</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -7160,14 +7240,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="59" t="s">
-        <v>48</v>
+      <c r="A12" s="103" t="s">
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>0.9960466026298167</v>
+        <v>0.99293492268092409</v>
       </c>
       <c r="C12">
-        <v>0.0039533973701832851</v>
+        <v>0.0070650773190759318</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -7177,82 +7257,82 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="59" t="s">
-        <v>180</v>
+      <c r="A13" s="103" t="s">
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.9955285576761459</v>
+        <v>0.17281114120314056</v>
       </c>
       <c r="C13">
-        <v>0.0044714423238541561</v>
+        <v>0.82718885879685944</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="59" t="s">
-        <v>181</v>
+      <c r="A14" s="103" t="s">
+        <v>115</v>
       </c>
       <c r="B14">
-        <v>0.99268424437199021</v>
+        <v>0.04117745594376232</v>
       </c>
       <c r="C14">
-        <v>0.0073157556280097537</v>
+        <v>0.95882254405623768</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="59" t="s">
-        <v>182</v>
+      <c r="A15" s="103" t="s">
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.99359680193976674</v>
+        <v>0.019622550802391725</v>
       </c>
       <c r="C15">
-        <v>0.0064031980602333076</v>
+        <v>0.98037744919760827</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="59" t="s">
-        <v>183</v>
+      <c r="A16" s="103" t="s">
+        <v>166</v>
       </c>
       <c r="B16">
-        <v>0.6306131933094179</v>
+        <v>0.011896900778814445</v>
       </c>
       <c r="C16">
-        <v>0.36938680669058216</v>
+        <v>0.98810309922118555</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="59" t="s">
-        <v>20</v>
+      <c r="A17" s="103" t="s">
+        <v>168</v>
       </c>
       <c r="B17">
-        <v>0.0050813793063384516</v>
+        <v>0.015183654526610302</v>
       </c>
       <c r="C17">
-        <v>0.99491862069366155</v>
+        <v>0.9848163454733897</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -7262,14 +7342,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="59" t="s">
-        <v>184</v>
+      <c r="A18" s="103" t="s">
+        <v>211</v>
       </c>
       <c r="B18">
-        <v>0.0025515400518344444</v>
+        <v>0.001163331767325082</v>
       </c>
       <c r="C18">
-        <v>0.99744845994816556</v>
+        <v>0.99883666823267492</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -7279,14 +7359,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="59" t="s">
-        <v>185</v>
+      <c r="A19" s="103" t="s">
+        <v>90</v>
       </c>
       <c r="B19">
-        <v>0.02265952400130267</v>
+        <v>0.026331715965320024</v>
       </c>
       <c r="C19">
-        <v>0.97734047599869733</v>
+        <v>0.97366828403467998</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -7296,14 +7376,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="59" t="s">
-        <v>186</v>
+      <c r="A20" s="103" t="s">
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>0.017526610164762979</v>
+        <v>0.0069899629690508558</v>
       </c>
       <c r="C20">
-        <v>0.98247338983523702</v>
+        <v>0.99301003703094914</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -7313,14 +7393,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="59" t="s">
-        <v>60</v>
+      <c r="A21" s="103" t="s">
+        <v>157</v>
       </c>
       <c r="B21">
-        <v>0.0082289244191494637</v>
+        <v>0.017440152155804522</v>
       </c>
       <c r="C21">
-        <v>0.99177107558085054</v>
+        <v>0.98255984784419548</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -7330,14 +7410,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="59" t="s">
-        <v>187</v>
+      <c r="A22" s="103" t="s">
+        <v>119</v>
       </c>
       <c r="B22">
-        <v>0.057415630875371382</v>
+        <v>0.0042440977442806949</v>
       </c>
       <c r="C22">
-        <v>0.94258436912462862</v>
+        <v>0.99575590225571931</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -7363,31 +7443,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="105" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61" t="s">
-        <v>171</v>
+      <c r="A2" s="105" t="s">
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>0.98156753194833668</v>
+        <v>0.96542037155677263</v>
       </c>
       <c r="C2">
-        <v>0.018432468051663292</v>
+        <v>0.034579628443227324</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -7397,14 +7477,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61" t="s">
-        <v>172</v>
+      <c r="A3" s="105" t="s">
+        <v>120</v>
       </c>
       <c r="B3">
-        <v>0.98240478759197769</v>
+        <v>0.98694139541027182</v>
       </c>
       <c r="C3">
-        <v>0.017595212408022306</v>
+        <v>0.01305860458972821</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7414,14 +7494,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="61" t="s">
-        <v>173</v>
+      <c r="A4" s="105" t="s">
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>0.99503107066058938</v>
+        <v>0.95860706423473674</v>
       </c>
       <c r="C4">
-        <v>0.0049689293394106155</v>
+        <v>0.04139293576526322</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -7431,31 +7511,31 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="61" t="s">
-        <v>174</v>
+      <c r="A5" s="105" t="s">
+        <v>160</v>
       </c>
       <c r="B5">
-        <v>0.98505384226398474</v>
+        <v>0.19159210721562789</v>
       </c>
       <c r="C5">
-        <v>0.014946157736015219</v>
+        <v>0.80840789278437208</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="61" t="s">
-        <v>175</v>
+      <c r="A6" s="105" t="s">
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9872044748902995</v>
+        <v>0.99120278814019991</v>
       </c>
       <c r="C6">
-        <v>0.012795525109700532</v>
+        <v>0.008797211859800088</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -7465,14 +7545,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="61" t="s">
-        <v>176</v>
+      <c r="A7" s="105" t="s">
+        <v>133</v>
       </c>
       <c r="B7">
-        <v>0.98851911295676564</v>
+        <v>0.99479413906680103</v>
       </c>
       <c r="C7">
-        <v>0.011480887043234318</v>
+        <v>0.0052058609331989188</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -7482,14 +7562,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="61" t="s">
-        <v>177</v>
+      <c r="A8" s="105" t="s">
+        <v>135</v>
       </c>
       <c r="B8">
-        <v>0.98844846747987425</v>
+        <v>0.97998817913107361</v>
       </c>
       <c r="C8">
-        <v>0.011551532520125744</v>
+        <v>0.020011820868926427</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -7499,14 +7579,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="61" t="s">
-        <v>7</v>
+      <c r="A9" s="105" t="s">
+        <v>97</v>
       </c>
       <c r="B9">
-        <v>0.98688625924151419</v>
+        <v>0.96123328010992015</v>
       </c>
       <c r="C9">
-        <v>0.013113740758485828</v>
+        <v>0.038766719890079862</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -7516,14 +7596,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="61" t="s">
-        <v>178</v>
+      <c r="A10" s="105" t="s">
+        <v>139</v>
       </c>
       <c r="B10">
-        <v>0.98738323860157418</v>
+        <v>0.97913980553630398</v>
       </c>
       <c r="C10">
-        <v>0.012616761398425831</v>
+        <v>0.020860194463695993</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -7533,14 +7613,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="61" t="s">
-        <v>179</v>
+      <c r="A11" s="105" t="s">
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>0.97051693842417008</v>
+        <v>0.97243607703602797</v>
       </c>
       <c r="C11">
-        <v>0.029483061575829965</v>
+        <v>0.027563922963971983</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -7550,14 +7630,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="61" t="s">
-        <v>48</v>
+      <c r="A12" s="105" t="s">
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>0.99398334417369527</v>
+        <v>0.9803494147156333</v>
       </c>
       <c r="C12">
-        <v>0.0060166558263047443</v>
+        <v>0.019650585284366744</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -7567,82 +7647,82 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="61" t="s">
-        <v>180</v>
+      <c r="A13" s="105" t="s">
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.99663848122741261</v>
+        <v>0.043997979101877749</v>
       </c>
       <c r="C13">
-        <v>0.0033615187725873469</v>
+        <v>0.95600202089812225</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="61" t="s">
-        <v>181</v>
+      <c r="A14" s="105" t="s">
+        <v>115</v>
       </c>
       <c r="B14">
-        <v>0.99116301238524485</v>
+        <v>0.045943003060126553</v>
       </c>
       <c r="C14">
-        <v>0.0088369876147551592</v>
+        <v>0.95405699693987345</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="61" t="s">
-        <v>182</v>
+      <c r="A15" s="105" t="s">
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.99460347064719634</v>
+        <v>0.016254829747787469</v>
       </c>
       <c r="C15">
-        <v>0.0053965293528036662</v>
+        <v>0.98374517025221253</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="61" t="s">
-        <v>183</v>
+      <c r="A16" s="105" t="s">
+        <v>166</v>
       </c>
       <c r="B16">
-        <v>0.50650075864230892</v>
+        <v>0.0096308755964807924</v>
       </c>
       <c r="C16">
-        <v>0.49349924135769102</v>
+        <v>0.99036912440351921</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="61" t="s">
-        <v>20</v>
+      <c r="A17" s="105" t="s">
+        <v>168</v>
       </c>
       <c r="B17">
-        <v>0.004080516668654055</v>
+        <v>0.017508562406348238</v>
       </c>
       <c r="C17">
-        <v>0.99591948333134594</v>
+        <v>0.98249143759365176</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -7652,14 +7732,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="61" t="s">
-        <v>184</v>
+      <c r="A18" s="105" t="s">
+        <v>211</v>
       </c>
       <c r="B18">
-        <v>0.002617202795674678</v>
+        <v>0.0026343166176509003</v>
       </c>
       <c r="C18">
-        <v>0.99738279720432532</v>
+        <v>0.9973656833823491</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -7669,14 +7749,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="61" t="s">
-        <v>185</v>
+      <c r="A19" s="105" t="s">
+        <v>90</v>
       </c>
       <c r="B19">
-        <v>0.015368124276239903</v>
+        <v>0.033422126576280742</v>
       </c>
       <c r="C19">
-        <v>0.9846318757237601</v>
+        <v>0.96657787342371926</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -7686,14 +7766,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="61" t="s">
-        <v>186</v>
+      <c r="A20" s="105" t="s">
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>0.020292571515529101</v>
+        <v>0.0025540859604891164</v>
       </c>
       <c r="C20">
-        <v>0.9797074284844709</v>
+        <v>0.99744591403951088</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -7703,14 +7783,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="61" t="s">
-        <v>60</v>
+      <c r="A21" s="105" t="s">
+        <v>157</v>
       </c>
       <c r="B21">
-        <v>0.0095283273329669349</v>
+        <v>0.023771623150748988</v>
       </c>
       <c r="C21">
-        <v>0.99047167266703307</v>
+        <v>0.97622837684925101</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -7720,14 +7800,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="61" t="s">
-        <v>187</v>
+      <c r="A22" s="105" t="s">
+        <v>119</v>
       </c>
       <c r="B22">
-        <v>0.010395563572583755</v>
+        <v>0.0025228122534179942</v>
       </c>
       <c r="C22">
-        <v>0.98960443642741625</v>
+        <v>0.99747718774658201</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -8136,38 +8216,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65" t="s">
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="107" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
-        <v>1</v>
+      <c r="A2" s="107" t="s">
+        <v>92</v>
       </c>
       <c r="B2">
-        <v>0.9878145508670223</v>
+        <v>0.99609527636019712</v>
       </c>
       <c r="C2">
-        <v>0.012185449132977734</v>
+        <v>0.0039047236398029182</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8177,14 +8257,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="65" t="s">
-        <v>188</v>
+      <c r="A3" s="107" t="s">
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>0.99634774964372697</v>
+        <v>0.98208071275763309</v>
       </c>
       <c r="C3">
-        <v>0.0036522503562730867</v>
+        <v>0.017919287242366876</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8194,14 +8274,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
-        <v>43</v>
+      <c r="A4" s="107" t="s">
+        <v>161</v>
       </c>
       <c r="B4">
-        <v>0.99198894068762866</v>
+        <v>0.9920618559384673</v>
       </c>
       <c r="C4">
-        <v>0.008011059312371345</v>
+        <v>0.0079381440615326881</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8211,14 +8291,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
-        <v>189</v>
+      <c r="A5" s="107" t="s">
+        <v>174</v>
       </c>
       <c r="B5">
-        <v>0.98735647332072096</v>
+        <v>0.98738941753125664</v>
       </c>
       <c r="C5">
-        <v>0.01264352667927908</v>
+        <v>0.012610582468743388</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8228,14 +8308,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
-        <v>190</v>
+      <c r="A6" s="107" t="s">
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>0.98701052526570709</v>
+        <v>0.99392024537763579</v>
       </c>
       <c r="C6">
-        <v>0.012989474734292936</v>
+        <v>0.0060797546223641833</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8245,14 +8325,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="65" t="s">
-        <v>191</v>
+      <c r="A7" s="107" t="s">
+        <v>109</v>
       </c>
       <c r="B7">
-        <v>0.99540467080082151</v>
+        <v>0.98003301623801653</v>
       </c>
       <c r="C7">
-        <v>0.0045953291991784537</v>
+        <v>0.019966983761983456</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -8262,14 +8342,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="65" t="s">
-        <v>192</v>
+      <c r="A8" s="107" t="s">
+        <v>81</v>
       </c>
       <c r="B8">
-        <v>0.98813633335833073</v>
+        <v>0.99383856602328602</v>
       </c>
       <c r="C8">
-        <v>0.01186366664166928</v>
+        <v>0.0061614339767139311</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8279,14 +8359,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="65" t="s">
-        <v>50</v>
+      <c r="A9" s="107" t="s">
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>0.98514630968743355</v>
+        <v>0.9953056760187603</v>
       </c>
       <c r="C9">
-        <v>0.014853690312566491</v>
+        <v>0.0046943239812396679</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -8296,14 +8376,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="65" t="s">
-        <v>193</v>
+      <c r="A10" s="107" t="s">
+        <v>179</v>
       </c>
       <c r="B10">
-        <v>0.98887292176562103</v>
+        <v>0.97514072100140725</v>
       </c>
       <c r="C10">
-        <v>0.011127078234378968</v>
+        <v>0.024859278998592704</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8313,14 +8393,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="65" t="s">
-        <v>194</v>
+      <c r="A11" s="107" t="s">
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>0.98876282021710282</v>
+        <v>0.99370655259120677</v>
       </c>
       <c r="C11">
-        <v>0.011237179782897143</v>
+        <v>0.0062934474087932603</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -8330,48 +8410,48 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="65" t="s">
-        <v>56</v>
+      <c r="A12" s="107" t="s">
+        <v>182</v>
       </c>
       <c r="B12">
-        <v>0.00050281018222853024</v>
+        <v>0.99529840344163079</v>
       </c>
       <c r="C12">
-        <v>0.99949718981777147</v>
+        <v>0.0047015965583691727</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="65" t="s">
-        <v>195</v>
+      <c r="A13" s="107" t="s">
+        <v>127</v>
       </c>
       <c r="B13">
-        <v>0.0035419810824356412</v>
+        <v>0.99148261438204666</v>
       </c>
       <c r="C13">
-        <v>0.99645801891756436</v>
+        <v>0.0085173856179533262</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="65" t="s">
-        <v>22</v>
+      <c r="A14" s="107" t="s">
+        <v>128</v>
       </c>
       <c r="B14">
-        <v>0.014208818029924242</v>
+        <v>0.15635799500498049</v>
       </c>
       <c r="C14">
-        <v>0.98579118197007576</v>
+        <v>0.84364200499501951</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -8381,14 +8461,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="65" t="s">
-        <v>196</v>
+      <c r="A15" s="107" t="s">
+        <v>155</v>
       </c>
       <c r="B15">
-        <v>0.42098366618900684</v>
+        <v>0.077736891634880845</v>
       </c>
       <c r="C15">
-        <v>0.57901633381099316</v>
+        <v>0.92226310836511916</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -8398,31 +8478,31 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>0.0035545049204894763</v>
+      </c>
+      <c r="C16">
+        <v>0.99644549507951052</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="B16">
-        <v>3.4977374111844206e-05</v>
-      </c>
-      <c r="C16">
-        <v>0.99996502262588816</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="65" t="s">
-        <v>198</v>
-      </c>
       <c r="B17">
-        <v>0.00012523181415247109</v>
+        <v>3.3329235584744765e-05</v>
       </c>
       <c r="C17">
-        <v>0.99987476818584753</v>
+        <v>0.99996667076441526</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -8432,14 +8512,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="107" t="s">
         <v>199</v>
       </c>
       <c r="B18">
-        <v>6.2626492617678942e-05</v>
+        <v>5.359211595501457e-05</v>
       </c>
       <c r="C18">
-        <v>0.99993737350738232</v>
+        <v>0.99994640788404499</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -8449,14 +8529,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="65" t="s">
-        <v>200</v>
+      <c r="A19" s="107" t="s">
+        <v>60</v>
       </c>
       <c r="B19">
-        <v>0.00358007669894711</v>
+        <v>0.0053823407958193403</v>
       </c>
       <c r="C19">
-        <v>0.99641992330105289</v>
+        <v>0.99461765920418066</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -8466,14 +8546,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="65" t="s">
-        <v>201</v>
+      <c r="A20" s="107" t="s">
+        <v>61</v>
       </c>
       <c r="B20">
-        <v>0.006138807591445917</v>
+        <v>0.011833445956752842</v>
       </c>
       <c r="C20">
-        <v>0.99386119240855408</v>
+        <v>0.98816655404324716</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -8483,14 +8563,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="65" t="s">
-        <v>202</v>
+      <c r="A21" s="107" t="s">
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>0.0027055387976695489</v>
+        <v>0.26274232989754742</v>
       </c>
       <c r="C21">
-        <v>0.99729446120233045</v>
+        <v>0.73725767010245258</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -8500,14 +8580,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="65" t="s">
-        <v>17</v>
+      <c r="A22" s="107" t="s">
+        <v>187</v>
       </c>
       <c r="B22">
-        <v>0.12774616907811009</v>
+        <v>0.12356150380524922</v>
       </c>
       <c r="C22">
-        <v>0.87225383092188991</v>
+        <v>0.87643849619475078</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -8533,31 +8613,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="109" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
+      <c r="A2" s="109" t="s">
+        <v>92</v>
       </c>
       <c r="B2">
-        <v>0.99004008302430713</v>
+        <v>0.98987260119200748</v>
       </c>
       <c r="C2">
-        <v>0.0099599169756928313</v>
+        <v>0.010127398807992505</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8567,14 +8647,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="67" t="s">
-        <v>188</v>
+      <c r="A3" s="109" t="s">
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>0.9974452920237078</v>
+        <v>0.97114212684827017</v>
       </c>
       <c r="C3">
-        <v>0.0025547079762921537</v>
+        <v>0.028857873151729836</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8584,14 +8664,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="67" t="s">
-        <v>43</v>
+      <c r="A4" s="109" t="s">
+        <v>161</v>
       </c>
       <c r="B4">
-        <v>0.99580628986031439</v>
+        <v>0.98012522467222829</v>
       </c>
       <c r="C4">
-        <v>0.0041937101396856526</v>
+        <v>0.019874775327771741</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8601,14 +8681,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="67" t="s">
-        <v>189</v>
+      <c r="A5" s="109" t="s">
+        <v>174</v>
       </c>
       <c r="B5">
-        <v>0.9933326092342234</v>
+        <v>0.98417999197727712</v>
       </c>
       <c r="C5">
-        <v>0.006667390765776637</v>
+        <v>0.015820008022722831</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8618,14 +8698,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="67" t="s">
-        <v>190</v>
+      <c r="A6" s="109" t="s">
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>0.98739192726874114</v>
+        <v>0.98988320905885485</v>
       </c>
       <c r="C6">
-        <v>0.012608072731258848</v>
+        <v>0.010116790941145185</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8635,14 +8715,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="67" t="s">
-        <v>191</v>
+      <c r="A7" s="109" t="s">
+        <v>109</v>
       </c>
       <c r="B7">
-        <v>0.99605789189368588</v>
+        <v>0.96609678988108949</v>
       </c>
       <c r="C7">
-        <v>0.0039421081063141118</v>
+        <v>0.033903210118910496</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -8652,14 +8732,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="67" t="s">
-        <v>192</v>
+      <c r="A8" s="109" t="s">
+        <v>81</v>
       </c>
       <c r="B8">
-        <v>0.99503004768510794</v>
+        <v>0.99147165315484043</v>
       </c>
       <c r="C8">
-        <v>0.0049699523148920791</v>
+        <v>0.0085283468451595908</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8669,14 +8749,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="67" t="s">
-        <v>50</v>
+      <c r="A9" s="109" t="s">
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>0.99201577208281622</v>
+        <v>0.99165634421918059</v>
       </c>
       <c r="C9">
-        <v>0.0079842279171837543</v>
+        <v>0.0083436557808193885</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -8686,14 +8766,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="67" t="s">
-        <v>193</v>
+      <c r="A10" s="109" t="s">
+        <v>179</v>
       </c>
       <c r="B10">
-        <v>0.99185905861946999</v>
+        <v>0.97150816232616</v>
       </c>
       <c r="C10">
-        <v>0.0081409413805300212</v>
+        <v>0.028491837673839976</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8703,14 +8783,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="67" t="s">
-        <v>194</v>
+      <c r="A11" s="109" t="s">
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>0.99348455207430775</v>
+        <v>0.991549190841575</v>
       </c>
       <c r="C11">
-        <v>0.0065154479256922838</v>
+        <v>0.0084508091584249833</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -8720,48 +8800,48 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="67" t="s">
-        <v>56</v>
+      <c r="A12" s="109" t="s">
+        <v>182</v>
       </c>
       <c r="B12">
-        <v>0.00013764399576121633</v>
+        <v>0.99517834596201249</v>
       </c>
       <c r="C12">
-        <v>0.99986235600423878</v>
+        <v>0.0048216540379874854</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="67" t="s">
-        <v>195</v>
+      <c r="A13" s="109" t="s">
+        <v>127</v>
       </c>
       <c r="B13">
-        <v>0.0052063531098787141</v>
+        <v>0.98094409463659948</v>
       </c>
       <c r="C13">
-        <v>0.99479364689012129</v>
+        <v>0.019055905363400509</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="67" t="s">
-        <v>22</v>
+      <c r="A14" s="109" t="s">
+        <v>128</v>
       </c>
       <c r="B14">
-        <v>0.0016352018637537657</v>
+        <v>0.15490936223911778</v>
       </c>
       <c r="C14">
-        <v>0.99836479813624623</v>
+        <v>0.84509063776088222</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -8771,14 +8851,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="67" t="s">
-        <v>196</v>
+      <c r="A15" s="109" t="s">
+        <v>155</v>
       </c>
       <c r="B15">
-        <v>0.028383618847349076</v>
+        <v>0.047782335374479401</v>
       </c>
       <c r="C15">
-        <v>0.97161638115265092</v>
+        <v>0.9522176646255206</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -8788,31 +8868,31 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16">
+        <v>0.0050703208588702697</v>
+      </c>
+      <c r="C16">
+        <v>0.99492967914112973</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="B16">
-        <v>1.9142812287431532e-05</v>
-      </c>
-      <c r="C16">
-        <v>0.99998085718771257</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="67" t="s">
-        <v>198</v>
-      </c>
       <c r="B17">
-        <v>5.0129267102794195e-05</v>
+        <v>0.00015109702610149878</v>
       </c>
       <c r="C17">
-        <v>0.99994987073289721</v>
+        <v>0.9998489029738985</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -8822,14 +8902,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="109" t="s">
         <v>199</v>
       </c>
       <c r="B18">
-        <v>2.5645752819936085e-05</v>
+        <v>0.00024139374937370839</v>
       </c>
       <c r="C18">
-        <v>0.99997435424718006</v>
+        <v>0.99975860625062629</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -8839,14 +8919,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="67" t="s">
-        <v>200</v>
+      <c r="A19" s="109" t="s">
+        <v>60</v>
       </c>
       <c r="B19">
-        <v>0.00047609106537893631</v>
+        <v>0.0059421085637977331</v>
       </c>
       <c r="C19">
-        <v>0.99952390893462106</v>
+        <v>0.99405789143620227</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -8856,14 +8936,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="67" t="s">
-        <v>201</v>
+      <c r="A20" s="109" t="s">
+        <v>61</v>
       </c>
       <c r="B20">
-        <v>0.0021349553257459242</v>
+        <v>0.013850081934630665</v>
       </c>
       <c r="C20">
-        <v>0.99786504467425408</v>
+        <v>0.98614991806536934</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -8873,14 +8953,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="67" t="s">
-        <v>202</v>
+      <c r="A21" s="109" t="s">
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>0.0016746000902732039</v>
+        <v>0.055062124253733136</v>
       </c>
       <c r="C21">
-        <v>0.9983253999097268</v>
+        <v>0.94493787574626686</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -8890,14 +8970,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="67" t="s">
-        <v>17</v>
+      <c r="A22" s="109" t="s">
+        <v>187</v>
       </c>
       <c r="B22">
-        <v>0.021297071613894825</v>
+        <v>0.011074842186338809</v>
       </c>
       <c r="C22">
-        <v>0.97870292838610518</v>
+        <v>0.98892515781366119</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -9306,7 +9386,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
@@ -9314,19 +9394,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="75" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -9334,14 +9414,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>75</v>
+      <c r="A2" s="75" t="s">
+        <v>172</v>
       </c>
       <c r="B2">
-        <v>0.97107418158218073</v>
+        <v>0.9895785427765198</v>
       </c>
       <c r="C2">
-        <v>0.028925818417819282</v>
+        <v>0.010421457223480222</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9354,14 +9434,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>76</v>
+      <c r="A3" s="75" t="s">
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>0.98527679531838253</v>
+        <v>0.98461697616328814</v>
       </c>
       <c r="C3">
-        <v>0.014723204681617438</v>
+        <v>0.015383023836711853</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9374,14 +9454,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>77</v>
+      <c r="A4" s="75" t="s">
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>0.96852415420760374</v>
+        <v>0.99325701303360903</v>
       </c>
       <c r="C4">
-        <v>0.031475845792396227</v>
+        <v>0.0067429869663910161</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9394,14 +9474,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>78</v>
+      <c r="A5" s="75" t="s">
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>0.9699863000343234</v>
+        <v>0.99478304057771094</v>
       </c>
       <c r="C5">
-        <v>0.030013699965676571</v>
+        <v>0.0052169594222890026</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -9414,14 +9494,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>2</v>
+      <c r="A6" s="75" t="s">
+        <v>93</v>
       </c>
       <c r="B6">
-        <v>0.98724460082795662</v>
+        <v>0.99105114446697162</v>
       </c>
       <c r="C6">
-        <v>0.012755399172043332</v>
+        <v>0.0089488555330283822</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -9434,14 +9514,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
-        <v>79</v>
+      <c r="A7" s="75" t="s">
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>0.99365604304910216</v>
+        <v>0.99314844572031735</v>
       </c>
       <c r="C7">
-        <v>0.0063439569508978904</v>
+        <v>0.0068515542796826912</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -9454,14 +9534,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
-        <v>80</v>
+      <c r="A8" s="75" t="s">
+        <v>176</v>
       </c>
       <c r="B8">
-        <v>0.98483936005061767</v>
+        <v>0.99532181282294907</v>
       </c>
       <c r="C8">
-        <v>0.015160639949382337</v>
+        <v>0.004678187177050883</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -9474,14 +9554,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
-        <v>6</v>
+      <c r="A9" s="75" t="s">
+        <v>189</v>
       </c>
       <c r="B9">
-        <v>0.98987335097502582</v>
+        <v>0.98987981533561931</v>
       </c>
       <c r="C9">
-        <v>0.010126649024974184</v>
+        <v>0.010120184664380675</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -9494,14 +9574,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
-        <v>81</v>
+      <c r="A10" s="75" t="s">
+        <v>136</v>
       </c>
       <c r="B10">
-        <v>0.98843902146109008</v>
+        <v>0.99469614251987759</v>
       </c>
       <c r="C10">
-        <v>0.011560978538909961</v>
+        <v>0.0053038574801223702</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -9514,14 +9594,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>82</v>
+      <c r="A11" s="75" t="s">
+        <v>178</v>
       </c>
       <c r="B11">
-        <v>0.98060403065457635</v>
+        <v>0.99006272766570258</v>
       </c>
       <c r="C11">
-        <v>0.019395969345423644</v>
+        <v>0.0099372723342974756</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9534,14 +9614,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>83</v>
+      <c r="A12" s="75" t="s">
+        <v>112</v>
       </c>
       <c r="B12">
-        <v>0.97554753614130951</v>
+        <v>0.99677036181656342</v>
       </c>
       <c r="C12">
-        <v>0.02445246385869047</v>
+        <v>0.0032296381834366183</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -9554,14 +9634,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>84</v>
+      <c r="A13" s="75" t="s">
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>0.99506299193097802</v>
+        <v>0.99721964467012469</v>
       </c>
       <c r="C13">
-        <v>0.0049370080690220239</v>
+        <v>0.0027803553298752759</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -9574,34 +9654,34 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
-        <v>85</v>
+      <c r="A14" s="75" t="s">
+        <v>208</v>
       </c>
       <c r="B14">
-        <v>0.99242306891107579</v>
+        <v>0.69964526129954829</v>
       </c>
       <c r="C14">
-        <v>0.00757693108892416</v>
+        <v>0.30035473870045176</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
-        <v>86</v>
+      <c r="A15" s="75" t="s">
+        <v>116</v>
       </c>
       <c r="B15">
-        <v>0.029306858722225049</v>
+        <v>0.076726493430662401</v>
       </c>
       <c r="C15">
-        <v>0.97069314127777495</v>
+        <v>0.9232735065693376</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -9614,14 +9694,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
-        <v>87</v>
+      <c r="A16" s="75" t="s">
+        <v>117</v>
       </c>
       <c r="B16">
-        <v>0.037144882050477945</v>
+        <v>0.001048758518085946</v>
       </c>
       <c r="C16">
-        <v>0.96285511794952205</v>
+        <v>0.99895124148191405</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -9634,14 +9714,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
-        <v>88</v>
+      <c r="A17" s="75" t="s">
+        <v>143</v>
       </c>
       <c r="B17">
-        <v>0.16020080452618435</v>
+        <v>0.0073446812435253861</v>
       </c>
       <c r="C17">
-        <v>0.83979919547381565</v>
+        <v>0.99265531875647461</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -9654,14 +9734,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
-        <v>89</v>
+      <c r="A18" s="75" t="s">
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>0.0060634433647622785</v>
+        <v>0.00021988824528207385</v>
       </c>
       <c r="C18">
-        <v>0.99393655663523772</v>
+        <v>0.99978011175471793</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -9674,14 +9754,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
-        <v>58</v>
+      <c r="A19" s="75" t="s">
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>0.019906678512318421</v>
+        <v>0.0074646234751707397</v>
       </c>
       <c r="C19">
-        <v>0.98009332148768158</v>
+        <v>0.99253537652482926</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -9694,14 +9774,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
-        <v>90</v>
+      <c r="A20" s="75" t="s">
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.027472182764319949</v>
+        <v>0.00048807104068504525</v>
       </c>
       <c r="C20">
-        <v>0.97252781723568005</v>
+        <v>0.99951192895931495</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -9714,14 +9794,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
-        <v>14</v>
+      <c r="A21" s="75" t="s">
+        <v>170</v>
       </c>
       <c r="B21">
-        <v>0.0062064053794262941</v>
+        <v>0.0030811106820454182</v>
       </c>
       <c r="C21">
-        <v>0.99379359462057371</v>
+        <v>0.99691888931795458</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -9734,14 +9814,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="s">
-        <v>29</v>
+      <c r="A22" s="75" t="s">
+        <v>215</v>
       </c>
       <c r="B22">
-        <v>0.016837565074443561</v>
+        <v>0.042082972504638771</v>
       </c>
       <c r="C22">
-        <v>0.98316243492555644</v>
+        <v>0.95791702749536123</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -9930,31 +10010,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="111" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="71" t="s">
-        <v>63</v>
+      <c r="A2" s="111" t="s">
+        <v>159</v>
       </c>
       <c r="B2">
-        <v>0.99487925164353364</v>
+        <v>0.98620492981874286</v>
       </c>
       <c r="C2">
-        <v>0.0051207483564663587</v>
+        <v>0.013795070181257195</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9964,14 +10044,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="71" t="s">
-        <v>203</v>
+      <c r="A3" s="111" t="s">
+        <v>150</v>
       </c>
       <c r="B3">
-        <v>0.99164190724220846</v>
+        <v>0.99045429447436728</v>
       </c>
       <c r="C3">
-        <v>0.0083580927577914868</v>
+        <v>0.0095457055256327004</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9981,14 +10061,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="71" t="s">
-        <v>204</v>
+      <c r="A4" s="111" t="s">
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>0.95915400518661575</v>
+        <v>0.98774836313073222</v>
       </c>
       <c r="C4">
-        <v>0.040845994813384204</v>
+        <v>0.012251636869267826</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9998,48 +10078,48 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="111" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5">
+        <v>0.99593647446018763</v>
+      </c>
+      <c r="C5">
+        <v>0.0040635255398123555</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6">
+        <v>0.99057613433222513</v>
+      </c>
+      <c r="C6">
+        <v>0.0094238656677748268</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="B5">
-        <v>0.9910426384040214</v>
-      </c>
-      <c r="C5">
-        <v>0.0089573615959786489</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>0.98841780503680787</v>
-      </c>
-      <c r="C6">
-        <v>0.011582194963192158</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="71" t="s">
-        <v>206</v>
-      </c>
       <c r="B7">
-        <v>0.99156752567202877</v>
+        <v>0.98620750268443524</v>
       </c>
       <c r="C7">
-        <v>0.0084324743279712289</v>
+        <v>0.013792497315564724</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10049,14 +10129,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="71" t="s">
-        <v>207</v>
+      <c r="A8" s="111" t="s">
+        <v>126</v>
       </c>
       <c r="B8">
-        <v>0.67199886735118952</v>
+        <v>0.98301489645087781</v>
       </c>
       <c r="C8">
-        <v>0.32800113264881048</v>
+        <v>0.016985103549122246</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -10066,167 +10146,167 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="71" t="s">
-        <v>208</v>
+      <c r="A9" s="111" t="s">
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>0.74153021221161164</v>
+        <v>0.98161472960039275</v>
       </c>
       <c r="C9">
-        <v>0.25846978778838831</v>
+        <v>0.018385270399607277</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="71" t="s">
-        <v>10</v>
+      <c r="A10" s="111" t="s">
+        <v>70</v>
       </c>
       <c r="B10">
-        <v>0.26284197805490372</v>
+        <v>0.98954556384173753</v>
       </c>
       <c r="C10">
-        <v>0.73715802194509628</v>
+        <v>0.010454436158262522</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="71" t="s">
-        <v>209</v>
+      <c r="A11" s="111" t="s">
+        <v>71</v>
       </c>
       <c r="B11">
-        <v>0.059600421588553165</v>
+        <v>0.99352199556106058</v>
       </c>
       <c r="C11">
-        <v>0.94039957841144683</v>
+        <v>0.0064780044389393691</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12">
+        <v>0.9853637855087779</v>
+      </c>
+      <c r="C12">
+        <v>0.014636214491222065</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13">
+        <v>0.98493610038720802</v>
+      </c>
+      <c r="C13">
+        <v>0.015063899612791991</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.0035371424578756194</v>
+      </c>
+      <c r="C14">
+        <v>0.99646285754212438</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="B12">
-        <v>0.43987463146401307</v>
-      </c>
-      <c r="C12">
-        <v>0.56012536853598693</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>0.29823805446863427</v>
-      </c>
-      <c r="C13">
-        <v>0.70176194553136573</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="71" t="s">
+      <c r="B15">
+        <v>0.30919852046341312</v>
+      </c>
+      <c r="C15">
+        <v>0.69080147953658688</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16">
+        <v>0.19300324253149148</v>
+      </c>
+      <c r="C16">
+        <v>0.80699675746850852</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>0.091069010551193652</v>
+      </c>
+      <c r="C17">
+        <v>0.90893098944880646</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B14">
-        <v>0.0016151706106952712</v>
-      </c>
-      <c r="C14">
-        <v>0.99838482938930473</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15">
-        <v>0.0013008825620525188</v>
-      </c>
-      <c r="C15">
-        <v>0.99869911743794748</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16">
-        <v>0.066868555944745611</v>
-      </c>
-      <c r="C16">
-        <v>0.93313144405525439</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17">
-        <v>0.020338393665611409</v>
-      </c>
-      <c r="C17">
-        <v>0.97966160633438859</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="71" t="s">
-        <v>213</v>
-      </c>
       <c r="B18">
-        <v>0.040386214170021861</v>
+        <v>0.0026057736063953563</v>
       </c>
       <c r="C18">
-        <v>0.95961378582997814</v>
+        <v>0.99739422639360464</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -10236,14 +10316,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="71" t="s">
-        <v>214</v>
+      <c r="A19" s="111" t="s">
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>0.0084813686973892466</v>
+        <v>0.028256547746952521</v>
       </c>
       <c r="C19">
-        <v>0.99151863130261075</v>
+        <v>0.97174345225304748</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -10253,14 +10333,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="71" t="s">
-        <v>215</v>
+      <c r="A20" s="111" t="s">
+        <v>169</v>
       </c>
       <c r="B20">
-        <v>0.10561068720608546</v>
+        <v>0.0027786190391222432</v>
       </c>
       <c r="C20">
-        <v>0.89438931279391454</v>
+        <v>0.99722138096087776</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -10270,14 +10350,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="71" t="s">
-        <v>61</v>
+      <c r="A21" s="111" t="s">
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>0.019069081230802531</v>
+        <v>0.045690985739234129</v>
       </c>
       <c r="C21">
-        <v>0.98093091876919747</v>
+        <v>0.95430901426076586</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -10287,14 +10367,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="71" t="s">
-        <v>216</v>
+      <c r="A22" s="111" t="s">
+        <v>158</v>
       </c>
       <c r="B22">
-        <v>0.052740784308429427</v>
+        <v>0.057729862833997503</v>
       </c>
       <c r="C22">
-        <v>0.94725921569157068</v>
+        <v>0.9422701371660025</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -10313,38 +10393,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="113" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="73" t="s">
-        <v>63</v>
+      <c r="A2" s="113" t="s">
+        <v>159</v>
       </c>
       <c r="B2">
-        <v>0.99984049050703339</v>
+        <v>0.98835812234207954</v>
       </c>
       <c r="C2">
-        <v>0.00015950949296660672</v>
+        <v>0.011641877657920449</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -10354,14 +10434,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="73" t="s">
-        <v>203</v>
+      <c r="A3" s="113" t="s">
+        <v>150</v>
       </c>
       <c r="B3">
-        <v>0.99972988729920198</v>
+        <v>0.99222519331368064</v>
       </c>
       <c r="C3">
-        <v>0.00027011270079798603</v>
+        <v>0.0077748066863193091</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -10371,14 +10451,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="73" t="s">
-        <v>204</v>
+      <c r="A4" s="113" t="s">
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>0.99568548364281639</v>
+        <v>0.99155153004890106</v>
       </c>
       <c r="C4">
-        <v>0.004314516357183649</v>
+        <v>0.0084484699510988821</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -10388,48 +10468,48 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5">
+        <v>0.9951473762623867</v>
+      </c>
+      <c r="C5">
+        <v>0.0048526237376132824</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6">
+        <v>0.99105746276624518</v>
+      </c>
+      <c r="C6">
+        <v>0.0089425372337548353</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="B5">
-        <v>0.99938840648911942</v>
-      </c>
-      <c r="C5">
-        <v>0.00061159351088058633</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>0.99930637123338828</v>
-      </c>
-      <c r="C6">
-        <v>0.00069362876661177011</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="73" t="s">
-        <v>206</v>
-      </c>
       <c r="B7">
-        <v>0.99953067593841283</v>
+        <v>0.98587866325237761</v>
       </c>
       <c r="C7">
-        <v>0.00046932406158713499</v>
+        <v>0.014121336747622386</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10439,14 +10519,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="73" t="s">
-        <v>207</v>
+      <c r="A8" s="113" t="s">
+        <v>126</v>
       </c>
       <c r="B8">
-        <v>0.99564618265762439</v>
+        <v>0.98498445490894304</v>
       </c>
       <c r="C8">
-        <v>0.004353817342375642</v>
+        <v>0.01501554509105694</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -10456,167 +10536,167 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="73" t="s">
-        <v>208</v>
+      <c r="A9" s="113" t="s">
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>0.60459873259940977</v>
+        <v>0.97624430396305883</v>
       </c>
       <c r="C9">
-        <v>0.39540126740059017</v>
+        <v>0.023755696036941186</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="73" t="s">
-        <v>10</v>
+      <c r="A10" s="113" t="s">
+        <v>70</v>
       </c>
       <c r="B10">
-        <v>0.070511985574792324</v>
+        <v>0.98922737416396034</v>
       </c>
       <c r="C10">
-        <v>0.92948801442520768</v>
+        <v>0.010772625836039615</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="73" t="s">
-        <v>209</v>
+      <c r="A11" s="113" t="s">
+        <v>71</v>
       </c>
       <c r="B11">
-        <v>0.0046546937494604812</v>
+        <v>0.9922872613739101</v>
       </c>
       <c r="C11">
-        <v>0.99534530625053952</v>
+        <v>0.0077127386260898633</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12">
+        <v>0.98653399398303909</v>
+      </c>
+      <c r="C12">
+        <v>0.013466006016960897</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13">
+        <v>0.98763652976619054</v>
+      </c>
+      <c r="C13">
+        <v>0.012363470233809406</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.0032481266038985046</v>
+      </c>
+      <c r="C14">
+        <v>0.9967518733961015</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="B12">
-        <v>0.31947938027211631</v>
-      </c>
-      <c r="C12">
-        <v>0.68052061972788369</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>0.3063465359727735</v>
-      </c>
-      <c r="C13">
-        <v>0.6936534640272265</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="73" t="s">
+      <c r="B15">
+        <v>0.25703449262822586</v>
+      </c>
+      <c r="C15">
+        <v>0.74296550737177414</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16">
+        <v>0.2515587367524541</v>
+      </c>
+      <c r="C16">
+        <v>0.7484412632475459</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>0.022706370261488806</v>
+      </c>
+      <c r="C17">
+        <v>0.97729362973851119</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B14">
-        <v>1.3504496655825093e-05</v>
-      </c>
-      <c r="C14">
-        <v>0.99998649550334417</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15">
-        <v>1.5500581061478336e-05</v>
-      </c>
-      <c r="C15">
-        <v>0.99998449941893852</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16">
-        <v>0.011244959375460328</v>
-      </c>
-      <c r="C16">
-        <v>0.98875504062453967</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17">
-        <v>0.0013160119771548073</v>
-      </c>
-      <c r="C17">
-        <v>0.99868398802284519</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="73" t="s">
-        <v>213</v>
-      </c>
       <c r="B18">
-        <v>0.0078885698295168005</v>
+        <v>0.0023202860352894428</v>
       </c>
       <c r="C18">
-        <v>0.9921114301704832</v>
+        <v>0.99767971396471056</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -10626,14 +10706,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="73" t="s">
-        <v>214</v>
+      <c r="A19" s="113" t="s">
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>0.00023002636560487399</v>
+        <v>0.036222870090756976</v>
       </c>
       <c r="C19">
-        <v>0.99976997363439513</v>
+        <v>0.96377712990924302</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -10643,14 +10723,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="73" t="s">
-        <v>215</v>
+      <c r="A20" s="113" t="s">
+        <v>169</v>
       </c>
       <c r="B20">
-        <v>0.03108147263407568</v>
+        <v>0.0023503931225685726</v>
       </c>
       <c r="C20">
-        <v>0.96891852736592432</v>
+        <v>0.99764960687743143</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -10660,14 +10740,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="73" t="s">
-        <v>61</v>
+      <c r="A21" s="113" t="s">
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>0.0011009564400649152</v>
+        <v>0.052988765860313647</v>
       </c>
       <c r="C21">
-        <v>0.99889904355993508</v>
+        <v>0.94701123413968635</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -10677,14 +10757,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="73" t="s">
-        <v>216</v>
+      <c r="A22" s="113" t="s">
+        <v>158</v>
       </c>
       <c r="B22">
-        <v>0.0085610905648427771</v>
+        <v>0.038585986528008931</v>
       </c>
       <c r="C22">
-        <v>0.99143890943515722</v>
+        <v>0.96141401347199107</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -10703,27 +10783,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
     <col min="6" max="6" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="77" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -10731,14 +10811,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
-        <v>75</v>
+      <c r="A2" s="77" t="s">
+        <v>172</v>
       </c>
       <c r="B2">
-        <v>0.99212019246286087</v>
+        <v>0.99830148937026786</v>
       </c>
       <c r="C2">
-        <v>0.0078798075371391239</v>
+        <v>0.001698510629732106</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -10751,14 +10831,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
-        <v>76</v>
+      <c r="A3" s="77" t="s">
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>0.9944418480274243</v>
+        <v>0.99831860107335491</v>
       </c>
       <c r="C3">
-        <v>0.0055581519725757186</v>
+        <v>0.0016813989266451237</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -10771,14 +10851,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>77</v>
+      <c r="A4" s="77" t="s">
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>0.98635422445906773</v>
+        <v>0.9993790508738235</v>
       </c>
       <c r="C4">
-        <v>0.013645775540932287</v>
+        <v>0.00062094912617646379</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -10791,14 +10871,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>78</v>
+      <c r="A5" s="77" t="s">
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>0.99316917420037842</v>
+        <v>0.99962287196057853</v>
       </c>
       <c r="C5">
-        <v>0.0068308257996215578</v>
+        <v>0.00037712803942141623</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10811,14 +10891,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>2</v>
+      <c r="A6" s="77" t="s">
+        <v>93</v>
       </c>
       <c r="B6">
-        <v>0.99265823638009698</v>
+        <v>0.99891124751062632</v>
       </c>
       <c r="C6">
-        <v>0.0073417636199030484</v>
+        <v>0.0010887524893736778</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -10831,14 +10911,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
-        <v>79</v>
+      <c r="A7" s="77" t="s">
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>0.99799695310738312</v>
+        <v>0.99878915405793889</v>
       </c>
       <c r="C7">
-        <v>0.0020030468926169015</v>
+        <v>0.0012108459420611666</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10851,14 +10931,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>80</v>
+      <c r="A8" s="77" t="s">
+        <v>176</v>
       </c>
       <c r="B8">
-        <v>0.99504707195832542</v>
+        <v>0.99941131236587588</v>
       </c>
       <c r="C8">
-        <v>0.0049529280416745879</v>
+        <v>0.00058868763412413629</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -10871,14 +10951,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>6</v>
+      <c r="A9" s="77" t="s">
+        <v>189</v>
       </c>
       <c r="B9">
-        <v>0.99674181247590832</v>
+        <v>0.9988691996586494</v>
       </c>
       <c r="C9">
-        <v>0.0032581875240917163</v>
+        <v>0.0011308003413505504</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -10891,14 +10971,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>81</v>
+      <c r="A10" s="77" t="s">
+        <v>136</v>
       </c>
       <c r="B10">
-        <v>0.99716613836785284</v>
+        <v>0.99943122483244851</v>
       </c>
       <c r="C10">
-        <v>0.0028338616321471415</v>
+        <v>0.00056877516755144796</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -10911,14 +10991,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
-        <v>82</v>
+      <c r="A11" s="77" t="s">
+        <v>178</v>
       </c>
       <c r="B11">
-        <v>0.99186962353536468</v>
+        <v>0.99873376069217645</v>
       </c>
       <c r="C11">
-        <v>0.0081303764646352746</v>
+        <v>0.0012662393078235776</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -10931,14 +11011,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>83</v>
+      <c r="A12" s="77" t="s">
+        <v>112</v>
       </c>
       <c r="B12">
-        <v>0.98737845301984906</v>
+        <v>0.99977136536016042</v>
       </c>
       <c r="C12">
-        <v>0.012621546980150958</v>
+        <v>0.00022863463983960162</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -10951,14 +11031,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>84</v>
+      <c r="A13" s="77" t="s">
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>0.99782798652683413</v>
+        <v>0.99973297317412368</v>
       </c>
       <c r="C13">
-        <v>0.0021720134731658975</v>
+        <v>0.00026702682587628182</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -10971,34 +11051,34 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>85</v>
+      <c r="A14" s="77" t="s">
+        <v>208</v>
       </c>
       <c r="B14">
-        <v>0.99824025194575361</v>
+        <v>0.48617354674448943</v>
       </c>
       <c r="C14">
-        <v>0.0017597480542464357</v>
+        <v>0.51382645325551057</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
-        <v>86</v>
+      <c r="A15" s="77" t="s">
+        <v>116</v>
       </c>
       <c r="B15">
-        <v>0.0028561679339083046</v>
+        <v>0.012336860179194</v>
       </c>
       <c r="C15">
-        <v>0.9971438320660917</v>
+        <v>0.987663139820806</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -11011,14 +11091,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
-        <v>87</v>
+      <c r="A16" s="77" t="s">
+        <v>117</v>
       </c>
       <c r="B16">
-        <v>0.050653361149121556</v>
+        <v>0.00012531109995828071</v>
       </c>
       <c r="C16">
-        <v>0.94934663885087844</v>
+        <v>0.99987468890004172</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -11031,14 +11111,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
-        <v>88</v>
+      <c r="A17" s="77" t="s">
+        <v>143</v>
       </c>
       <c r="B17">
-        <v>0.099592456129504833</v>
+        <v>0.0015339008688356468</v>
       </c>
       <c r="C17">
-        <v>0.90040754387049515</v>
+        <v>0.99846609913116435</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -11051,14 +11131,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
-        <v>89</v>
+      <c r="A18" s="77" t="s">
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>0.0013510319202444387</v>
+        <v>2.64406401478956e-05</v>
       </c>
       <c r="C18">
-        <v>0.99864896807975556</v>
+        <v>0.9999735593598521</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -11071,14 +11151,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>58</v>
+      <c r="A19" s="77" t="s">
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>0.011694105710411851</v>
+        <v>0.00096701410949928679</v>
       </c>
       <c r="C19">
-        <v>0.98830589428958815</v>
+        <v>0.99903298589050071</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -11091,14 +11171,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>90</v>
+      <c r="A20" s="77" t="s">
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.013181639143989288</v>
+        <v>7.7107410811905197e-05</v>
       </c>
       <c r="C20">
-        <v>0.98681836085601071</v>
+        <v>0.99992289258918809</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -11111,14 +11191,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>14</v>
+      <c r="A21" s="77" t="s">
+        <v>170</v>
       </c>
       <c r="B21">
-        <v>0.0019578574449032882</v>
+        <v>0.00068631275105823786</v>
       </c>
       <c r="C21">
-        <v>0.99804214255509671</v>
+        <v>0.99931368724894176</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -11131,14 +11211,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
-        <v>29</v>
+      <c r="A22" s="77" t="s">
+        <v>215</v>
       </c>
       <c r="B22">
-        <v>0.0033413412425081779</v>
+        <v>0.028387449914158203</v>
       </c>
       <c r="C22">
-        <v>0.99665865875749182</v>
+        <v>0.9716125500858418</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -11957,7 +12037,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
@@ -11965,19 +12045,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="79" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -11985,14 +12065,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>91</v>
+      <c r="A2" s="79" t="s">
+        <v>105</v>
       </c>
       <c r="B2">
-        <v>0.99467046383003577</v>
+        <v>0.9771277414401407</v>
       </c>
       <c r="C2">
-        <v>0.0053295361699642546</v>
+        <v>0.022872258559859349</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -12005,14 +12085,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>92</v>
+      <c r="A3" s="79" t="s">
+        <v>146</v>
       </c>
       <c r="B3">
-        <v>0.99567638482224929</v>
+        <v>0.9857557853113158</v>
       </c>
       <c r="C3">
-        <v>0.0043236151777507371</v>
+        <v>0.014244214688684221</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -12025,14 +12105,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>93</v>
+      <c r="A4" s="79" t="s">
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>0.99137356893766226</v>
+        <v>0.99224231739046276</v>
       </c>
       <c r="C4">
-        <v>0.0086264310623377308</v>
+        <v>0.0077576826095372827</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -12045,14 +12125,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>94</v>
+      <c r="A5" s="79" t="s">
+        <v>121</v>
       </c>
       <c r="B5">
-        <v>0.99237392611125175</v>
+        <v>0.99449820070122563</v>
       </c>
       <c r="C5">
-        <v>0.0076260738887483038</v>
+        <v>0.0055017992987743888</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -12065,14 +12145,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>95</v>
+      <c r="A6" s="79" t="s">
+        <v>173</v>
       </c>
       <c r="B6">
-        <v>0.99142051663144959</v>
+        <v>0.99526828742039863</v>
       </c>
       <c r="C6">
-        <v>0.0085794833685504078</v>
+        <v>0.004731712579601339</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -12085,14 +12165,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>96</v>
+      <c r="A7" s="79" t="s">
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>0.99792407480877032</v>
+        <v>0.99266990530260912</v>
       </c>
       <c r="C7">
-        <v>0.0020759251912296846</v>
+        <v>0.0073300946973908774</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -12105,14 +12185,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>44</v>
+      <c r="A8" s="79" t="s">
+        <v>79</v>
       </c>
       <c r="B8">
-        <v>0.99651082899354315</v>
+        <v>0.995166777618119</v>
       </c>
       <c r="C8">
-        <v>0.0034891710064568877</v>
+        <v>0.004833222381880998</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -12125,14 +12205,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>67</v>
+      <c r="A9" s="79" t="s">
+        <v>177</v>
       </c>
       <c r="B9">
-        <v>0.96760602676656515</v>
+        <v>0.99130371039619436</v>
       </c>
       <c r="C9">
-        <v>0.03239397323343482</v>
+        <v>0.0086962896038056542</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -12145,14 +12225,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>97</v>
+      <c r="A10" s="79" t="s">
+        <v>125</v>
       </c>
       <c r="B10">
-        <v>0.98277102163464425</v>
+        <v>0.9930493664428961</v>
       </c>
       <c r="C10">
-        <v>0.0172289783653558</v>
+        <v>0.0069506335571038608</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12165,14 +12245,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>47</v>
+      <c r="A11" s="79" t="s">
+        <v>207</v>
       </c>
       <c r="B11">
-        <v>0.71035318094054101</v>
+        <v>0.64081932206378744</v>
       </c>
       <c r="C11">
-        <v>0.28964681905945899</v>
+        <v>0.35918067793621261</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12185,14 +12265,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>98</v>
+      <c r="A12" s="79" t="s">
+        <v>181</v>
       </c>
       <c r="B12">
-        <v>0.95195370999502926</v>
+        <v>0.99279640344390097</v>
       </c>
       <c r="C12">
-        <v>0.048046290004970786</v>
+        <v>0.0072035965560990362</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12205,14 +12285,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>99</v>
+      <c r="A13" s="79" t="s">
+        <v>165</v>
       </c>
       <c r="B13">
-        <v>0.99540882131886443</v>
+        <v>0.99458523631349405</v>
       </c>
       <c r="C13">
-        <v>0.0045911786811355659</v>
+        <v>0.0054147636865059887</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12225,14 +12305,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>100</v>
+      <c r="A14" s="79" t="s">
+        <v>114</v>
       </c>
       <c r="B14">
-        <v>0.9958766480541702</v>
+        <v>0.98543346110797769</v>
       </c>
       <c r="C14">
-        <v>0.0041233519458298406</v>
+        <v>0.014566538892022302</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12245,94 +12325,94 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>8</v>
+      <c r="A15" s="79" t="s">
+        <v>209</v>
       </c>
       <c r="B15">
-        <v>0.99533148627308998</v>
+        <v>0.20135575169472397</v>
       </c>
       <c r="C15">
-        <v>0.0046685137269100122</v>
+        <v>0.79864424830527603</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23" t="s">
-        <v>101</v>
+      <c r="A16" s="79" t="s">
+        <v>183</v>
       </c>
       <c r="B16">
-        <v>0.99070561976107596</v>
+        <v>0.67622860316339284</v>
       </c>
       <c r="C16">
-        <v>0.0092943802389239844</v>
+        <v>0.32377139683660716</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="s">
-        <v>102</v>
+      <c r="A17" s="79" t="s">
+        <v>129</v>
       </c>
       <c r="B17">
-        <v>0.99827785019610737</v>
+        <v>0.23496825091211471</v>
       </c>
       <c r="C17">
-        <v>0.0017221498038926775</v>
+        <v>0.76503174908788529</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="s">
-        <v>51</v>
+      <c r="A18" s="79" t="s">
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>0.99303448860808219</v>
+        <v>0.013158225125272538</v>
       </c>
       <c r="C18">
-        <v>0.0069655113919178417</v>
+        <v>0.98684177487472746</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="s">
-        <v>18</v>
+      <c r="A19" s="79" t="s">
+        <v>198</v>
       </c>
       <c r="B19">
-        <v>0.027009971472414795</v>
+        <v>0.0004198891950401018</v>
       </c>
       <c r="C19">
-        <v>0.9729900285275852</v>
+        <v>0.9995801108049599</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -12345,14 +12425,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="s">
-        <v>103</v>
+      <c r="A20" s="79" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.04599158068317577</v>
+        <v>0.032029930288447472</v>
       </c>
       <c r="C20">
-        <v>0.95400841931682423</v>
+        <v>0.96797006971155253</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -12365,14 +12445,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="23" t="s">
-        <v>104</v>
+      <c r="A21" s="79" t="s">
+        <v>200</v>
       </c>
       <c r="B21">
-        <v>0.0008667332864960019</v>
+        <v>0.0074774183424994867</v>
       </c>
       <c r="C21">
-        <v>0.999133266713504</v>
+        <v>0.99252258165750051</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -12385,14 +12465,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="23" t="s">
-        <v>26</v>
+      <c r="A22" s="79" t="s">
+        <v>202</v>
       </c>
       <c r="B22">
-        <v>0.0011024341041813157</v>
+        <v>0.0070660848866421766</v>
       </c>
       <c r="C22">
-        <v>0.99889756589581868</v>
+        <v>0.99293391511335782</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -12405,14 +12485,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="23" t="s">
-        <v>16</v>
+      <c r="A23" s="79" t="s">
+        <v>216</v>
       </c>
       <c r="B23">
-        <v>0.032281778771430014</v>
+        <v>0.039705522447986197</v>
       </c>
       <c r="C23">
-        <v>0.96771822122856999</v>
+        <v>0.9602944775520138</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -12602,19 +12682,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="81" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -12622,14 +12702,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>91</v>
+      <c r="A2" s="81" t="s">
+        <v>105</v>
       </c>
       <c r="B2">
-        <v>0.99133203488864885</v>
+        <v>0.98088163102656856</v>
       </c>
       <c r="C2">
-        <v>0.0086679651113510982</v>
+        <v>0.019118368973431429</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -12642,14 +12722,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
-        <v>92</v>
+      <c r="A3" s="81" t="s">
+        <v>146</v>
       </c>
       <c r="B3">
-        <v>0.99164992063882118</v>
+        <v>0.98161693941175443</v>
       </c>
       <c r="C3">
-        <v>0.0083500793611788349</v>
+        <v>0.018383060588245619</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -12662,14 +12742,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
-        <v>93</v>
+      <c r="A4" s="81" t="s">
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>0.98942842660612251</v>
+        <v>0.99283318064916726</v>
       </c>
       <c r="C4">
-        <v>0.010571573393877516</v>
+        <v>0.0071668193508327219</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -12682,14 +12762,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
-        <v>94</v>
+      <c r="A5" s="81" t="s">
+        <v>121</v>
       </c>
       <c r="B5">
-        <v>0.98678377338396861</v>
+        <v>0.99420293208930155</v>
       </c>
       <c r="C5">
-        <v>0.013216226616031439</v>
+        <v>0.0057970679106984632</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -12702,14 +12782,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="s">
-        <v>95</v>
+      <c r="A6" s="81" t="s">
+        <v>173</v>
       </c>
       <c r="B6">
-        <v>0.98977305779742708</v>
+        <v>0.9948774297106312</v>
       </c>
       <c r="C6">
-        <v>0.010226942202572951</v>
+        <v>0.0051225702893687832</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -12722,14 +12802,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="s">
-        <v>96</v>
+      <c r="A7" s="81" t="s">
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>0.99773606904419287</v>
+        <v>0.99198309620506864</v>
       </c>
       <c r="C7">
-        <v>0.00226393095580711</v>
+        <v>0.0080169037949314095</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -12742,14 +12822,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="s">
-        <v>44</v>
+      <c r="A8" s="81" t="s">
+        <v>79</v>
       </c>
       <c r="B8">
-        <v>0.99110408958373497</v>
+        <v>0.99246317364361836</v>
       </c>
       <c r="C8">
-        <v>0.0088959104162650432</v>
+        <v>0.0075368263563815882</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -12762,14 +12842,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
-        <v>67</v>
+      <c r="A9" s="81" t="s">
+        <v>177</v>
       </c>
       <c r="B9">
-        <v>0.92168236746215459</v>
+        <v>0.98788820221419693</v>
       </c>
       <c r="C9">
-        <v>0.078317632537845419</v>
+        <v>0.012111797785803057</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -12782,14 +12862,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="s">
-        <v>97</v>
+      <c r="A10" s="81" t="s">
+        <v>125</v>
       </c>
       <c r="B10">
-        <v>0.97746850779820493</v>
+        <v>0.98604130395763201</v>
       </c>
       <c r="C10">
-        <v>0.022531492201795091</v>
+        <v>0.013958696042367939</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12802,14 +12882,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="s">
-        <v>47</v>
+      <c r="A11" s="81" t="s">
+        <v>207</v>
       </c>
       <c r="B11">
-        <v>0.97422383147423042</v>
+        <v>0.94956083967167992</v>
       </c>
       <c r="C11">
-        <v>0.025776168525769527</v>
+        <v>0.050439160328320055</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12822,14 +12902,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="s">
-        <v>98</v>
+      <c r="A12" s="81" t="s">
+        <v>181</v>
       </c>
       <c r="B12">
-        <v>0.95892202840306884</v>
+        <v>0.99076468172742049</v>
       </c>
       <c r="C12">
-        <v>0.041077971596931176</v>
+        <v>0.0092353182725794583</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12842,14 +12922,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="s">
-        <v>99</v>
+      <c r="A13" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="B13">
-        <v>0.99549509462575614</v>
+        <v>0.99326901018840974</v>
       </c>
       <c r="C13">
-        <v>0.0045049053742438417</v>
+        <v>0.0067309898115902097</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12862,14 +12942,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="s">
-        <v>100</v>
+      <c r="A14" s="81" t="s">
+        <v>114</v>
       </c>
       <c r="B14">
-        <v>0.99605691302076826</v>
+        <v>0.98056079239045735</v>
       </c>
       <c r="C14">
-        <v>0.0039430869792317844</v>
+        <v>0.019439207609542625</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12882,94 +12962,94 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="s">
-        <v>8</v>
+      <c r="A15" s="81" t="s">
+        <v>209</v>
       </c>
       <c r="B15">
-        <v>0.98907001122901206</v>
+        <v>0.097675908891539112</v>
       </c>
       <c r="C15">
-        <v>0.010929988770987897</v>
+        <v>0.9023240911084609</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="s">
-        <v>101</v>
+      <c r="A16" s="81" t="s">
+        <v>183</v>
       </c>
       <c r="B16">
-        <v>0.98755747594870913</v>
+        <v>0.56178269239725187</v>
       </c>
       <c r="C16">
-        <v>0.012442524051290904</v>
+        <v>0.43821730760274813</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
-        <v>102</v>
+      <c r="A17" s="81" t="s">
+        <v>129</v>
       </c>
       <c r="B17">
-        <v>0.99636397659414355</v>
+        <v>0.11054338569215993</v>
       </c>
       <c r="C17">
-        <v>0.0036360234058564855</v>
+        <v>0.88945661430784007</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="s">
-        <v>51</v>
+      <c r="A18" s="81" t="s">
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>0.99191854337242402</v>
+        <v>0.014024917956840133</v>
       </c>
       <c r="C18">
-        <v>0.0080814566275760249</v>
+        <v>0.98597508204315987</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="s">
-        <v>18</v>
+      <c r="A19" s="81" t="s">
+        <v>198</v>
       </c>
       <c r="B19">
-        <v>0.013253262802088939</v>
+        <v>0.00074334902460970742</v>
       </c>
       <c r="C19">
-        <v>0.98674673719791106</v>
+        <v>0.99925665097539029</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -12982,14 +13062,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="s">
-        <v>103</v>
+      <c r="A20" s="81" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.010496002838796925</v>
+        <v>0.031047350479395552</v>
       </c>
       <c r="C20">
-        <v>0.98950399716120307</v>
+        <v>0.96895264952060445</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -13002,14 +13082,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
-        <v>104</v>
+      <c r="A21" s="81" t="s">
+        <v>200</v>
       </c>
       <c r="B21">
-        <v>0.00080586425283390984</v>
+        <v>0.0067513393747536954</v>
       </c>
       <c r="C21">
-        <v>0.99919413574716609</v>
+        <v>0.9932486606252463</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -13022,14 +13102,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="s">
-        <v>26</v>
+      <c r="A22" s="81" t="s">
+        <v>202</v>
       </c>
       <c r="B22">
-        <v>0.0012811739275253586</v>
+        <v>0.015957285495968088</v>
       </c>
       <c r="C22">
-        <v>0.99871882607247464</v>
+        <v>0.98404271450403191</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -13042,14 +13122,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="s">
-        <v>16</v>
+      <c r="A23" s="81" t="s">
+        <v>216</v>
       </c>
       <c r="B23">
-        <v>0.024648029254939915</v>
+        <v>0.050863751677042823</v>
       </c>
       <c r="C23">
-        <v>0.97535197074506008</v>
+        <v>0.94913624832295718</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -13621,38 +13701,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="83" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>105</v>
+      <c r="A2" s="83" t="s">
+        <v>149</v>
       </c>
       <c r="B2">
-        <v>0.9781916783980561</v>
+        <v>0.9970272434471471</v>
       </c>
       <c r="C2">
-        <v>0.02180832160194392</v>
+        <v>0.0029727565528528742</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -13662,14 +13742,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>4</v>
+      <c r="A3" s="83" t="s">
+        <v>162</v>
       </c>
       <c r="B3">
-        <v>0.99111829929935624</v>
+        <v>0.99393576232087155</v>
       </c>
       <c r="C3">
-        <v>0.0088817007006437611</v>
+        <v>0.006064237679128448</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -13679,14 +13759,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
-        <v>106</v>
+      <c r="A4" s="83" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.99174441956471127</v>
+        <v>0.99245152305115714</v>
       </c>
       <c r="C4">
-        <v>0.0082555804352887133</v>
+        <v>0.0075484769488428499</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -13696,14 +13776,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
-        <v>107</v>
+      <c r="A5" s="83" t="s">
+        <v>122</v>
       </c>
       <c r="B5">
-        <v>0.9940672608861435</v>
+        <v>0.99449371106960516</v>
       </c>
       <c r="C5">
-        <v>0.0059327391138564584</v>
+        <v>0.0055062889303948417</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -13713,14 +13793,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
-        <v>108</v>
+      <c r="A6" s="83" t="s">
+        <v>123</v>
       </c>
       <c r="B6">
-        <v>0.99128669051112384</v>
+        <v>0.99151587960530718</v>
       </c>
       <c r="C6">
-        <v>0.0087133094888761989</v>
+        <v>0.0084841203946928179</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -13730,14 +13810,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="s">
-        <v>109</v>
+      <c r="A7" s="83" t="s">
+        <v>96</v>
       </c>
       <c r="B7">
-        <v>0.97312278982247202</v>
+        <v>0.99759764469858359</v>
       </c>
       <c r="C7">
-        <v>0.026877210177528029</v>
+        <v>0.0024023553014164115</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -13747,14 +13827,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="s">
-        <v>110</v>
+      <c r="A8" s="83" t="s">
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>0.98078820752833429</v>
+        <v>0.99672859525148116</v>
       </c>
       <c r="C8">
-        <v>0.019211792471665667</v>
+        <v>0.0032714047485188631</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -13764,14 +13844,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="s">
-        <v>111</v>
+      <c r="A9" s="83" t="s">
+        <v>124</v>
       </c>
       <c r="B9">
-        <v>0.96411398993397546</v>
+        <v>0.97856461946976103</v>
       </c>
       <c r="C9">
-        <v>0.035886010066024501</v>
+        <v>0.021435380530238923</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -13781,14 +13861,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
-        <v>46</v>
+      <c r="A10" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="B10">
-        <v>0.99474701961574352</v>
+        <v>0.95653952971402656</v>
       </c>
       <c r="C10">
-        <v>0.0052529803842564287</v>
+        <v>0.043460470285973392</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -13798,14 +13878,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="s">
-        <v>112</v>
+      <c r="A11" s="83" t="s">
+        <v>82</v>
       </c>
       <c r="B11">
-        <v>0.99524616131990851</v>
+        <v>0.9892601692019134</v>
       </c>
       <c r="C11">
-        <v>0.0047538386800914439</v>
+        <v>0.010739830798086575</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -13815,14 +13895,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="s">
-        <v>113</v>
+      <c r="A12" s="83" t="s">
+        <v>153</v>
       </c>
       <c r="B12">
-        <v>0.98894934749915198</v>
+        <v>0.99651416566057671</v>
       </c>
       <c r="C12">
-        <v>0.011050652500847994</v>
+        <v>0.0034858343394232748</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -13832,82 +13912,82 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13">
+        <v>0.99668634348334173</v>
+      </c>
+      <c r="C13">
+        <v>0.0033136565166582859</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14">
+        <v>0.99294438586574585</v>
+      </c>
+      <c r="C14">
+        <v>0.0070556141342541408</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>0.98658809401345471</v>
+      </c>
+      <c r="C15">
+        <v>0.013411905986545319</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>0.98935548563234488</v>
-      </c>
-      <c r="C13">
-        <v>0.010644514367655114</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14">
-        <v>0.98337891720469439</v>
-      </c>
-      <c r="C14">
-        <v>0.016621082795305664</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15">
-        <v>0.034378400989951485</v>
-      </c>
-      <c r="C15">
-        <v>0.96562159901004851</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="B16">
-        <v>0.081405920159581369</v>
+        <v>0.9922370132438012</v>
       </c>
       <c r="C16">
-        <v>0.91859407984041863</v>
+        <v>0.0077629867561987975</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="29" t="s">
-        <v>117</v>
+      <c r="A17" s="83" t="s">
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.0015190390243694505</v>
+        <v>0.0065296049199248252</v>
       </c>
       <c r="C17">
-        <v>0.99848096097563055</v>
+        <v>0.99347039508007517</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -13917,14 +13997,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="29" t="s">
-        <v>57</v>
+      <c r="A18" s="83" t="s">
+        <v>154</v>
       </c>
       <c r="B18">
-        <v>7.8163830766087017e-05</v>
+        <v>0.010812429771867471</v>
       </c>
       <c r="C18">
-        <v>0.99992183616923391</v>
+        <v>0.98918757022813253</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -13934,14 +14014,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="29" t="s">
-        <v>118</v>
+      <c r="A19" s="83" t="s">
+        <v>185</v>
       </c>
       <c r="B19">
-        <v>0.0079808010214190706</v>
+        <v>0.011712776924443611</v>
       </c>
       <c r="C19">
-        <v>0.99201919897858093</v>
+        <v>0.98828722307555639</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -13951,48 +14031,48 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20">
+        <v>0.0075925787344678364</v>
+      </c>
+      <c r="C20">
+        <v>0.99240742126553216</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21">
+        <v>0.0051412909676274987</v>
+      </c>
+      <c r="C21">
+        <v>0.9948587090323725</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
-        <v>0.032690497914306449</v>
-      </c>
-      <c r="C20">
-        <v>0.96730950208569355</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21">
-        <v>0.027308260145653129</v>
-      </c>
-      <c r="C21">
-        <v>0.97269173985434687</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="29" t="s">
-        <v>119</v>
-      </c>
       <c r="B22">
-        <v>0.0030993503347228613</v>
+        <v>0.028368543319480577</v>
       </c>
       <c r="C22">
-        <v>0.99690064966527714</v>
+        <v>0.97163145668051942</v>
       </c>
       <c r="D22">
         <v>2</v>

--- a/outputs/train-Primates.xlsx
+++ b/outputs/train-Primates.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="217">
   <si>
     <t>Row</t>
   </si>
@@ -714,7 +714,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="115">
+  <borders count="125">
     <border>
       <left/>
       <right/>
@@ -836,11 +836,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -956,6 +966,16 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,42 +985,42 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E43"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85" t="s">
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="119" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="85" t="s">
-        <v>149</v>
+      <c r="A2" s="119" t="s">
+        <v>62</v>
       </c>
       <c r="B2">
-        <v>0.99658181210469388</v>
+        <v>0.93947846556982384</v>
       </c>
       <c r="C2">
-        <v>0.0034181878953061283</v>
+        <v>0.060521534430176105</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1010,14 +1030,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="85" t="s">
-        <v>162</v>
+      <c r="A3" s="119" t="s">
+        <v>146</v>
       </c>
       <c r="B3">
-        <v>0.99368981494710273</v>
+        <v>0.95136422028708634</v>
       </c>
       <c r="C3">
-        <v>0.0063101850528973092</v>
+        <v>0.048635779712913677</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1027,14 +1047,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="85" t="s">
-        <v>6</v>
+      <c r="A4" s="119" t="s">
+        <v>159</v>
       </c>
       <c r="B4">
-        <v>0.99151461315214995</v>
+        <v>0.97110315557972948</v>
       </c>
       <c r="C4">
-        <v>0.0084853868478500412</v>
+        <v>0.028896844420270539</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1044,31 +1064,31 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="85" t="s">
-        <v>122</v>
+      <c r="A5" s="119" t="s">
+        <v>160</v>
       </c>
       <c r="B5">
-        <v>0.99250888061350229</v>
+        <v>0.18114305111718909</v>
       </c>
       <c r="C5">
-        <v>0.0074911193864977115</v>
+        <v>0.81885694888281091</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="85" t="s">
-        <v>123</v>
+      <c r="A6" s="119" t="s">
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.99132900002727375</v>
+        <v>0.94407744979449904</v>
       </c>
       <c r="C6">
-        <v>0.0086709999727262801</v>
+        <v>0.05592255020550093</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1078,14 +1098,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="85" t="s">
-        <v>96</v>
+      <c r="A7" s="119" t="s">
+        <v>172</v>
       </c>
       <c r="B7">
-        <v>0.9976680679774117</v>
+        <v>0.95545131333072209</v>
       </c>
       <c r="C7">
-        <v>0.0023319320225882812</v>
+        <v>0.04454868666927795</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1095,257 +1115,614 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>0.9881107017227454</v>
+      </c>
+      <c r="C8">
+        <v>0.011889298277254649</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>0.95167280949825073</v>
+      </c>
+      <c r="C9">
+        <v>0.048327190501749266</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10">
+        <v>0.96433942787722848</v>
+      </c>
+      <c r="C10">
+        <v>0.035660572122771537</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11">
+        <v>0.96962815870032171</v>
+      </c>
+      <c r="C11">
+        <v>0.030371841299678338</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12">
+        <v>0.96459562250742059</v>
+      </c>
+      <c r="C12">
+        <v>0.035404377492579457</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <v>0.90464407103590494</v>
+      </c>
+      <c r="C13">
+        <v>0.095355928964095074</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="B8">
-        <v>0.99263508282851076</v>
-      </c>
-      <c r="C8">
-        <v>0.0073649171714892008</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="85" t="s">
+      <c r="B14">
+        <v>0.95935618710584547</v>
+      </c>
+      <c r="C14">
+        <v>0.040643812894154571</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="B9">
-        <v>0.97345829387896243</v>
-      </c>
-      <c r="C9">
-        <v>0.026541706121037512</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="85" t="s">
+      <c r="B15">
+        <v>0.91389982021142957</v>
+      </c>
+      <c r="C15">
+        <v>0.086100179788570458</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <v>0.96090950271835196</v>
+      </c>
+      <c r="C16">
+        <v>0.039090497281648012</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17">
+        <v>0.92659010395083763</v>
+      </c>
+      <c r="C17">
+        <v>0.073409896049162385</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="B10">
-        <v>0.95712328460172125</v>
-      </c>
-      <c r="C10">
-        <v>0.042876715398278718</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="85" t="s">
+      <c r="B18">
+        <v>0.86193888350469172</v>
+      </c>
+      <c r="C18">
+        <v>0.13806111649530828</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>0.92623083711436949</v>
+      </c>
+      <c r="C19">
+        <v>0.073769162885630457</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B11">
-        <v>0.98545406731207108</v>
-      </c>
-      <c r="C11">
-        <v>0.014545932687928876</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="85" t="s">
+      <c r="B20">
+        <v>0.9474859492404013</v>
+      </c>
+      <c r="C20">
+        <v>0.052514050759598592</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21">
+        <v>0.97848891737884869</v>
+      </c>
+      <c r="C21">
+        <v>0.021511082621151294</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="119" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22">
+        <v>0.97849176204121413</v>
+      </c>
+      <c r="C22">
+        <v>0.021508237958785897</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="B12">
-        <v>0.99679646664814792</v>
-      </c>
-      <c r="C12">
-        <v>0.0032035333518521392</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13">
-        <v>0.99590714789833201</v>
-      </c>
-      <c r="C13">
-        <v>0.0040928521016680231</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14">
-        <v>0.99304664807745535</v>
-      </c>
-      <c r="C14">
-        <v>0.0069533519225446387</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>0.98865734975748609</v>
-      </c>
-      <c r="C15">
-        <v>0.011342650242513963</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>0.99069039725045371</v>
-      </c>
-      <c r="C16">
-        <v>0.009309602749546269</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0.0025757356837827761</v>
-      </c>
-      <c r="C17">
-        <v>0.99742426431621722</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18">
-        <v>0.0070863602875680387</v>
-      </c>
-      <c r="C18">
-        <v>0.99291363971243196</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19">
-        <v>0.0084402353418021603</v>
-      </c>
-      <c r="C19">
-        <v>0.99155976465819784</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="85" t="s">
+      <c r="B23">
+        <v>0.98142371557052499</v>
+      </c>
+      <c r="C23">
+        <v>0.018576284429475051</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>0.96372081071999205</v>
+      </c>
+      <c r="C24">
+        <v>0.036279189280007992</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25">
+        <v>0.9602826858169683</v>
+      </c>
+      <c r="C25">
+        <v>0.039717314183031677</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26">
+        <v>0.96088237095975493</v>
+      </c>
+      <c r="C26">
+        <v>0.039117629040245031</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>0.98110670968235536</v>
+      </c>
+      <c r="C27">
+        <v>0.018893290317644612</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>0.0070237819038353475</v>
+      </c>
+      <c r="C28">
+        <v>0.99297621809616465</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <v>0.058238257357979384</v>
+      </c>
+      <c r="C29">
+        <v>0.94176174264202062</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30">
+        <v>0.056067276223143336</v>
+      </c>
+      <c r="C30">
+        <v>0.94393272377685666</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31">
+        <v>0.0039075136316838455</v>
+      </c>
+      <c r="C31">
+        <v>0.99609248636831615</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>0.018181888753110664</v>
+      </c>
+      <c r="C32">
+        <v>0.98181811124688934</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33">
+        <v>0.0064850018286418676</v>
+      </c>
+      <c r="C33">
+        <v>0.99351499817135813</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34">
+        <v>0.0015610443074397518</v>
+      </c>
+      <c r="C34">
+        <v>0.99843895569256025</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35">
+        <v>0.0046583498373270471</v>
+      </c>
+      <c r="C35">
+        <v>0.99534165016267295</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>0.061556517036590042</v>
+      </c>
+      <c r="C36">
+        <v>0.93844348296340996</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>0.0041066630558401762</v>
+      </c>
+      <c r="C37">
+        <v>0.99589333694415982</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>0.049906019892453024</v>
+      </c>
+      <c r="C38">
+        <v>0.95009398010754698</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="119" t="s">
         <v>201</v>
       </c>
-      <c r="B20">
-        <v>0.0068367842675651769</v>
-      </c>
-      <c r="C20">
-        <v>0.99316321573243482</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21">
-        <v>0.0051486928781940833</v>
-      </c>
-      <c r="C21">
-        <v>0.99485130712180592</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>0.034411470847779964</v>
-      </c>
-      <c r="C22">
-        <v>0.96558852915222004</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
+      <c r="B39">
+        <v>0.019154634908608248</v>
+      </c>
+      <c r="C39">
+        <v>0.98084536509139175</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>0.022994122046141929</v>
+      </c>
+      <c r="C40">
+        <v>0.97700587795385807</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <v>0.029348834956023029</v>
+      </c>
+      <c r="C41">
+        <v>0.97065116504397697</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>0.052617096624744897</v>
+      </c>
+      <c r="C42">
+        <v>0.94738290337525521</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43">
+        <v>0.027628448142361761</v>
+      </c>
+      <c r="C43">
+        <v>0.97237155185763824</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
         <v>2</v>
       </c>
     </row>
@@ -2135,42 +2512,42 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E43"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89" t="s">
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="121" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="89" t="s">
-        <v>171</v>
+      <c r="A2" s="121" t="s">
+        <v>105</v>
       </c>
       <c r="B2">
-        <v>0.96587991011403029</v>
+        <v>0.99637084329501135</v>
       </c>
       <c r="C2">
-        <v>0.034120089885969727</v>
+        <v>0.003629156704988605</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2180,14 +2557,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="89" t="s">
-        <v>131</v>
+      <c r="A3" s="121" t="s">
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>0.98453760995518935</v>
+        <v>0.99862507323806515</v>
       </c>
       <c r="C3">
-        <v>0.015462390044810596</v>
+        <v>0.0013749267619348998</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2197,31 +2574,31 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="89" t="s">
-        <v>37</v>
+      <c r="A4" s="121" t="s">
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>0.98514016074204991</v>
+        <v>1.799879783426217e-05</v>
       </c>
       <c r="C4">
-        <v>0.014859839257950118</v>
+        <v>0.99998200120216574</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="89" t="s">
-        <v>40</v>
+      <c r="A5" s="121" t="s">
+        <v>203</v>
       </c>
       <c r="B5">
-        <v>0.97062397752782281</v>
+        <v>0.99904037182956862</v>
       </c>
       <c r="C5">
-        <v>0.029376022472177219</v>
+        <v>0.000959628170431428</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2231,14 +2608,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="89" t="s">
-        <v>175</v>
+      <c r="A6" s="121" t="s">
+        <v>188</v>
       </c>
       <c r="B6">
-        <v>0.97274137532106986</v>
+        <v>0.9995805311965511</v>
       </c>
       <c r="C6">
-        <v>0.027258624678930136</v>
+        <v>0.0004194688034488658</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2248,14 +2625,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="89" t="s">
-        <v>41</v>
+      <c r="A7" s="121" t="s">
+        <v>162</v>
       </c>
       <c r="B7">
-        <v>0.97227050695905115</v>
+        <v>0.99912883012928277</v>
       </c>
       <c r="C7">
-        <v>0.027729493040948888</v>
+        <v>0.00087116987071722465</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2265,14 +2642,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="89" t="s">
-        <v>80</v>
+      <c r="A8" s="121" t="s">
+        <v>163</v>
       </c>
       <c r="B8">
-        <v>0.96740322611862584</v>
+        <v>0.99011527102043428</v>
       </c>
       <c r="C8">
-        <v>0.032596773881374184</v>
+        <v>0.0098847289795657069</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2282,14 +2659,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="89" t="s">
-        <v>108</v>
+      <c r="A9" s="121" t="s">
+        <v>123</v>
       </c>
       <c r="B9">
-        <v>0.97455067936922457</v>
+        <v>0.99797636123797862</v>
       </c>
       <c r="C9">
-        <v>0.02544932063077545</v>
+        <v>0.0020236387620214164</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2299,14 +2676,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="89" t="s">
-        <v>190</v>
+      <c r="A10" s="121" t="s">
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0.96039333891808121</v>
+        <v>0.99786703292830803</v>
       </c>
       <c r="C10">
-        <v>0.039606661081918848</v>
+        <v>0.0021329670716920264</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2316,14 +2693,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="89" t="s">
-        <v>67</v>
+      <c r="A11" s="121" t="s">
+        <v>189</v>
       </c>
       <c r="B11">
-        <v>0.89135673427091322</v>
+        <v>0.99790433444499582</v>
       </c>
       <c r="C11">
-        <v>0.10864326572908681</v>
+        <v>0.0020956655550041468</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2333,14 +2710,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="89" t="s">
-        <v>138</v>
+      <c r="A12" s="121" t="s">
+        <v>204</v>
       </c>
       <c r="B12">
-        <v>0.98302694321969375</v>
+        <v>0.94037672746538226</v>
       </c>
       <c r="C12">
-        <v>0.016973056780306254</v>
+        <v>0.059623272534617744</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2350,14 +2727,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="89" t="s">
-        <v>69</v>
+      <c r="A13" s="121" t="s">
+        <v>136</v>
       </c>
       <c r="B13">
-        <v>0.89140886176168666</v>
+        <v>0.9989852447899904</v>
       </c>
       <c r="C13">
-        <v>0.10859113823831339</v>
+        <v>0.0010147552100095551</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2367,155 +2744,512 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="89" t="s">
-        <v>56</v>
+      <c r="A14" s="121" t="s">
+        <v>139</v>
       </c>
       <c r="B14">
-        <v>0.0039151185939697575</v>
+        <v>0.99777997627117687</v>
       </c>
       <c r="C14">
-        <v>0.99608488140603024</v>
+        <v>0.0022200237288231518</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="89" t="s">
-        <v>195</v>
+      <c r="A15" s="121" t="s">
+        <v>205</v>
       </c>
       <c r="B15">
-        <v>0.035558115176325344</v>
+        <v>0.99823215945040711</v>
       </c>
       <c r="C15">
-        <v>0.96444188482367466</v>
+        <v>0.0017678405495929158</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>0.99943300893838083</v>
+      </c>
+      <c r="C16">
+        <v>0.00056699106161911571</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>0.99911065462818849</v>
+      </c>
+      <c r="C17">
+        <v>0.00088934537181153679</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18">
+        <v>0.99965530086896215</v>
+      </c>
+      <c r="C18">
+        <v>0.00034469913103780849</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0.99868665795274636</v>
+      </c>
+      <c r="C19">
+        <v>0.0013133420472536878</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>0.99703938578219864</v>
+      </c>
+      <c r="C20">
+        <v>0.0029606142178013944</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21">
+        <v>0.999317520368877</v>
+      </c>
+      <c r="C21">
+        <v>0.0006824796311230188</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22">
+        <v>0.99812736001459412</v>
+      </c>
+      <c r="C22">
+        <v>0.0018726399854058979</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <v>0.99956717625554059</v>
+      </c>
+      <c r="C23">
+        <v>0.00043282374445940047</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24">
+        <v>0.9951344671929464</v>
+      </c>
+      <c r="C24">
+        <v>0.0048655328070535617</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25">
+        <v>0.9714510615752483</v>
+      </c>
+      <c r="C25">
+        <v>0.028548938424751695</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.014440229080617373</v>
+      </c>
+      <c r="C26">
+        <v>0.98555977091938263</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27">
+        <v>0.4206548862284194</v>
+      </c>
+      <c r="C27">
+        <v>0.5793451137715806</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28">
+        <v>6.7691901957656064e-05</v>
+      </c>
+      <c r="C28">
+        <v>0.99993230809804234</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29">
+        <v>0.0028531818286388062</v>
+      </c>
+      <c r="C29">
+        <v>0.99714681817136119</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30">
+        <v>0.00077328363247430865</v>
+      </c>
+      <c r="C30">
+        <v>0.99922671636752569</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31">
+        <v>0.00011731533507641778</v>
+      </c>
+      <c r="C31">
+        <v>0.99988268466492358</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="B16">
-        <v>0.13960971535149225</v>
-      </c>
-      <c r="C16">
-        <v>0.86039028464850786</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>0.0047186282039157756</v>
-      </c>
-      <c r="C17">
-        <v>0.99528137179608422</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18">
-        <v>0.0030549506211029476</v>
-      </c>
-      <c r="C18">
-        <v>0.99694504937889705</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="89" t="s">
+      <c r="B32">
+        <v>0.039070082785475302</v>
+      </c>
+      <c r="C32">
+        <v>0.9609299172145247</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="121" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33">
+        <v>7.8166120773937031e-05</v>
+      </c>
+      <c r="C33">
+        <v>0.99992183387922606</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>3.8373212335129914e-05</v>
+      </c>
+      <c r="C34">
+        <v>0.99996162678766487</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35">
+        <v>2.9793149430856758e-06</v>
+      </c>
+      <c r="C35">
+        <v>0.99999702068505691</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="B19">
-        <v>0.053086958181112975</v>
-      </c>
-      <c r="C19">
-        <v>0.94691304181888702</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20">
-        <v>0.03197867908500629</v>
-      </c>
-      <c r="C20">
-        <v>0.96802132091499371</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="89" t="s">
+      <c r="B36">
+        <v>0.0034370805464745136</v>
+      </c>
+      <c r="C36">
+        <v>0.99656291945352549</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="121" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37">
+        <v>0.00014288353865066217</v>
+      </c>
+      <c r="C37">
+        <v>0.99985711646134934</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>2.0069284572654666e-05</v>
+      </c>
+      <c r="C38">
+        <v>0.99997993071542735</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="B21">
-        <v>0.026329585717290833</v>
-      </c>
-      <c r="C21">
-        <v>0.97367041428270917</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22">
-        <v>0.074308172474867096</v>
-      </c>
-      <c r="C22">
-        <v>0.9256918275251329</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
+      <c r="B39">
+        <v>0.00053989523782405069</v>
+      </c>
+      <c r="C39">
+        <v>0.99946010476217595</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>0.0006609817239829896</v>
+      </c>
+      <c r="C40">
+        <v>0.99933901827601701</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>0.0057338081208588854</v>
+      </c>
+      <c r="C41">
+        <v>0.99426619187914111</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42">
+        <v>7.0287193264517711e-06</v>
+      </c>
+      <c r="C42">
+        <v>0.99999297128067355</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>0.001146493446000374</v>
+      </c>
+      <c r="C43">
+        <v>0.99885350655399963</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
         <v>2</v>
       </c>
     </row>
@@ -3305,42 +4039,42 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E43"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93" t="s">
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="123" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="93" t="s">
-        <v>76</v>
+      <c r="A2" s="123" t="s">
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>0.99753014737866863</v>
+        <v>0.95586783137172082</v>
       </c>
       <c r="C2">
-        <v>0.0024698526213313733</v>
+        <v>0.04413216862827913</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3350,14 +4084,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="93" t="s">
-        <v>1</v>
+      <c r="A3" s="123" t="s">
+        <v>120</v>
       </c>
       <c r="B3">
-        <v>0.99708399940236969</v>
+        <v>0.98025846188530197</v>
       </c>
       <c r="C3">
-        <v>0.0029160005976303009</v>
+        <v>0.019741538114698018</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3367,14 +4101,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="93" t="s">
-        <v>38</v>
+      <c r="A4" s="123" t="s">
+        <v>171</v>
       </c>
       <c r="B4">
-        <v>0.99931938107682006</v>
+        <v>0.9559946910577175</v>
       </c>
       <c r="C4">
-        <v>0.00068061892317998072</v>
+        <v>0.044005308942282495</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3384,31 +4118,31 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="93" t="s">
-        <v>39</v>
+      <c r="A5" s="123" t="s">
+        <v>131</v>
       </c>
       <c r="B5">
-        <v>0.0091767781039598928</v>
+        <v>0.98293128935104546</v>
       </c>
       <c r="C5">
-        <v>0.99082322189604011</v>
+        <v>0.017068710648954523</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="93" t="s">
-        <v>148</v>
+      <c r="A6" s="123" t="s">
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>0.99952320967086006</v>
+        <v>0.96601641775852609</v>
       </c>
       <c r="C6">
-        <v>0.00047679032913996273</v>
+        <v>0.033983582241473888</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3418,14 +4152,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="93" t="s">
-        <v>42</v>
+      <c r="A7" s="123" t="s">
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0.99987933463655554</v>
+        <v>0.98126672073946675</v>
       </c>
       <c r="C7">
-        <v>0.00012066536344440917</v>
+        <v>0.018733279260533208</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3435,14 +4169,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="93" t="s">
-        <v>134</v>
+      <c r="A8" s="123" t="s">
+        <v>175</v>
       </c>
       <c r="B8">
-        <v>0.9984537837898485</v>
+        <v>0.97130441246658417</v>
       </c>
       <c r="C8">
-        <v>0.0015462162101515184</v>
+        <v>0.028695587533415782</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3452,240 +4186,597 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>0.97721886795035717</v>
+      </c>
+      <c r="C9">
+        <v>0.022781132049642841</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10">
+        <v>0.98026463156475063</v>
+      </c>
+      <c r="C10">
+        <v>0.019735368435249416</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.97442901636711299</v>
+      </c>
+      <c r="C11">
+        <v>0.025570983632887054</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="123" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12">
+        <v>0.97125644656670052</v>
+      </c>
+      <c r="C12">
+        <v>0.028743553433299509</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="B9">
-        <v>0.99884212034427411</v>
-      </c>
-      <c r="C9">
-        <v>0.0011578796557258888</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="93" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10">
-        <v>0.98423830225093145</v>
-      </c>
-      <c r="C10">
-        <v>0.015761697749068528</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11">
-        <v>0.99111067920682705</v>
-      </c>
-      <c r="C11">
-        <v>0.0088893207931729796</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12">
-        <v>0.99935376443331347</v>
-      </c>
-      <c r="C12">
-        <v>0.00064623556668647313</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="93" t="s">
+      <c r="B13">
+        <v>0.97259466852595455</v>
+      </c>
+      <c r="C13">
+        <v>0.027405331474045461</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="123" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>0.97022084067478065</v>
+      </c>
+      <c r="C14">
+        <v>0.0297791593252194</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15">
+        <v>0.97723548602618793</v>
+      </c>
+      <c r="C15">
+        <v>0.022764513973812024</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16">
+        <v>0.95947782692004813</v>
+      </c>
+      <c r="C16">
+        <v>0.040522173079951922</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>0.94019709411557228</v>
+      </c>
+      <c r="C17">
+        <v>0.059802905884427666</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18">
+        <v>0.97495125419435602</v>
+      </c>
+      <c r="C18">
+        <v>0.025048745805643931</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19">
+        <v>0.97392570285238789</v>
+      </c>
+      <c r="C19">
+        <v>0.026074297147612082</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="B13">
-        <v>0.99831492931424559</v>
-      </c>
-      <c r="C13">
-        <v>0.0016850706857543557</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14">
-        <v>0.99816183949491022</v>
-      </c>
-      <c r="C14">
-        <v>0.0018381605050897564</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="93" t="s">
+      <c r="B20">
+        <v>0.96465672991784113</v>
+      </c>
+      <c r="C20">
+        <v>0.035343270082158887</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21">
+        <v>0.96919292370201859</v>
+      </c>
+      <c r="C21">
+        <v>0.030807076297981451</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="B15">
-        <v>0.99950258383066115</v>
-      </c>
-      <c r="C15">
-        <v>0.00049741616933883796</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16">
-        <v>0.99973109223769929</v>
-      </c>
-      <c r="C16">
-        <v>0.00026890776230069808</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="93" t="s">
+      <c r="B22">
+        <v>0.98214846688341173</v>
+      </c>
+      <c r="C22">
+        <v>0.017851533116588249</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23">
+        <v>0.98139399257586157</v>
+      </c>
+      <c r="C23">
+        <v>0.018606007424138458</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="123" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24">
+        <v>0.98616279173413324</v>
+      </c>
+      <c r="C24">
+        <v>0.013837208265866735</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0.033586988416147379</v>
+      </c>
+      <c r="C25">
+        <v>0.96641301158385262</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26">
+        <v>0.032639800306704103</v>
+      </c>
+      <c r="C26">
+        <v>0.9673601996932959</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="B17">
-        <v>0.00024038195253106576</v>
-      </c>
-      <c r="C17">
-        <v>0.99975961804746893</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18">
-        <v>3.8744292750747533e-06</v>
-      </c>
-      <c r="C18">
-        <v>0.99999612557072493</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19">
-        <v>0.02038729799022776</v>
-      </c>
-      <c r="C19">
-        <v>0.97961270200977224</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>2.0884010250354912e-05</v>
-      </c>
-      <c r="C20">
-        <v>0.99997911598974965</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21">
-        <v>0.0062845445951027479</v>
-      </c>
-      <c r="C21">
-        <v>0.99371545540489725</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>0.00036017331595983304</v>
-      </c>
-      <c r="C22">
-        <v>0.99963982668404017</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
+      <c r="B27">
+        <v>0.019912779227959421</v>
+      </c>
+      <c r="C27">
+        <v>0.98008722077204058</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="123" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28">
+        <v>0.037346834513104277</v>
+      </c>
+      <c r="C28">
+        <v>0.96265316548689572</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>0.0063744428246504947</v>
+      </c>
+      <c r="C29">
+        <v>0.99362555717534951</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30">
+        <v>0.060638851301079488</v>
+      </c>
+      <c r="C30">
+        <v>0.93936114869892051</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31">
+        <v>0.05899394751239817</v>
+      </c>
+      <c r="C31">
+        <v>0.94100605248760183</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32">
+        <v>0.14454336352256048</v>
+      </c>
+      <c r="C32">
+        <v>0.85545663647743952</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33">
+        <v>0.031354761279290155</v>
+      </c>
+      <c r="C33">
+        <v>0.96864523872070984</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34">
+        <v>0.025720350954982041</v>
+      </c>
+      <c r="C34">
+        <v>0.97427964904501796</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="123" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35">
+        <v>0.023930248843412327</v>
+      </c>
+      <c r="C35">
+        <v>0.97606975115658767</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>0.0009890495917044273</v>
+      </c>
+      <c r="C36">
+        <v>0.99901095040829557</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>0.05018607390109231</v>
+      </c>
+      <c r="C37">
+        <v>0.94981392609890769</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38">
+        <v>0.0043388314041827858</v>
+      </c>
+      <c r="C38">
+        <v>0.99566116859581721</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="123" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39">
+        <v>0.08449911394881604</v>
+      </c>
+      <c r="C39">
+        <v>0.91550088605118396</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>0.05177546156318813</v>
+      </c>
+      <c r="C40">
+        <v>0.94822453843681187</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41">
+        <v>0.1245238734053058</v>
+      </c>
+      <c r="C41">
+        <v>0.8754761265946942</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>0.098688992745964002</v>
+      </c>
+      <c r="C42">
+        <v>0.90131100725403601</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0.074683874515379722</v>
+      </c>
+      <c r="C43">
+        <v>0.92531612548462028</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
         <v>2</v>
       </c>
     </row>
@@ -10779,31 +11870,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F43"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
     <col min="6" max="6" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77" t="s">
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="115" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -10811,14 +11902,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="77" t="s">
-        <v>172</v>
+      <c r="A2" s="115" t="s">
+        <v>91</v>
       </c>
       <c r="B2">
-        <v>0.99830148937026786</v>
+        <v>0.98920629010295968</v>
       </c>
       <c r="C2">
-        <v>0.001698510629732106</v>
+        <v>0.010793709897040309</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -10831,194 +11922,194 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>0.98143227815841649</v>
+      </c>
+      <c r="C3">
+        <v>0.018567721841583493</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>0.99267223273517191</v>
+      </c>
+      <c r="C4">
+        <v>0.007327767264828108</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="115" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>0.98930275765245701</v>
+      </c>
+      <c r="C5">
+        <v>0.010697242347543044</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="B3">
-        <v>0.99831860107335491</v>
-      </c>
-      <c r="C3">
-        <v>0.0016813989266451237</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="77" t="s">
+      <c r="B6">
+        <v>0.98377044998986884</v>
+      </c>
+      <c r="C6">
+        <v>0.016229550010131169</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
-        <v>0.9993790508738235</v>
-      </c>
-      <c r="C4">
-        <v>0.00062094912617646379</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5">
-        <v>0.99962287196057853</v>
-      </c>
-      <c r="C5">
-        <v>0.00037712803942141623</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6">
-        <v>0.99891124751062632</v>
-      </c>
-      <c r="C6">
-        <v>0.0010887524893736778</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="77" t="s">
+      <c r="B7">
+        <v>0.99150954710287842</v>
+      </c>
+      <c r="C7">
+        <v>0.008490452897121548</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>0.99303347467035807</v>
+      </c>
+      <c r="C8">
+        <v>0.0069665253296418757</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>0.99301361920261155</v>
+      </c>
+      <c r="C9">
+        <v>0.0069863807973884031</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="115" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10">
+        <v>0.99404618653059429</v>
+      </c>
+      <c r="C10">
+        <v>0.005953813469405672</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <v>0.9947342857835888</v>
+      </c>
+      <c r="C11">
+        <v>0.0052657142164112478</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B7">
-        <v>0.99878915405793889</v>
-      </c>
-      <c r="C7">
-        <v>0.0012108459420611666</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8">
-        <v>0.99941131236587588</v>
-      </c>
-      <c r="C8">
-        <v>0.00058868763412413629</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9">
-        <v>0.9988691996586494</v>
-      </c>
-      <c r="C9">
-        <v>0.0011308003413505504</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10">
-        <v>0.99943122483244851</v>
-      </c>
-      <c r="C10">
-        <v>0.00056877516755144796</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11">
-        <v>0.99873376069217645</v>
-      </c>
-      <c r="C11">
-        <v>0.0012662393078235776</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="77" t="s">
-        <v>112</v>
-      </c>
       <c r="B12">
-        <v>0.99977136536016042</v>
+        <v>0.98641711084465289</v>
       </c>
       <c r="C12">
-        <v>0.00022863463983960162</v>
+        <v>0.013582889155347101</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -11031,14 +12122,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="77" t="s">
-        <v>72</v>
+      <c r="A13" s="115" t="s">
+        <v>64</v>
       </c>
       <c r="B13">
-        <v>0.99973297317412368</v>
+        <v>0.98863330163107166</v>
       </c>
       <c r="C13">
-        <v>0.00026702682587628182</v>
+        <v>0.011366698368928375</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -11051,343 +12142,564 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="77" t="s">
-        <v>208</v>
+      <c r="A14" s="115" t="s">
+        <v>106</v>
       </c>
       <c r="B14">
-        <v>0.48617354674448943</v>
+        <v>0.99004014917251093</v>
       </c>
       <c r="C14">
-        <v>0.51382645325551057</v>
+        <v>0.0099598508274890488</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="77" t="s">
-        <v>116</v>
+      <c r="A15" s="115" t="s">
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>0.012336860179194</v>
+        <v>0.98835728998169647</v>
       </c>
       <c r="C15">
-        <v>0.987663139820806</v>
+        <v>0.011642710018303498</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="77" t="s">
-        <v>117</v>
+      <c r="A16" s="115" t="s">
+        <v>66</v>
       </c>
       <c r="B16">
-        <v>0.00012531109995828071</v>
+        <v>0.99048350392573625</v>
       </c>
       <c r="C16">
-        <v>0.99987468890004172</v>
+        <v>0.0095164960742637264</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="77" t="s">
-        <v>143</v>
+      <c r="A17" s="115" t="s">
+        <v>107</v>
       </c>
       <c r="B17">
-        <v>0.0015339008688356468</v>
+        <v>0.9910910195032081</v>
       </c>
       <c r="C17">
-        <v>0.99846609913116435</v>
+        <v>0.0089089804967919465</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="77" t="s">
-        <v>25</v>
+      <c r="A18" s="115" t="s">
+        <v>108</v>
       </c>
       <c r="B18">
-        <v>2.64406401478956e-05</v>
+        <v>0.98773688505374724</v>
       </c>
       <c r="C18">
-        <v>0.9999735593598521</v>
+        <v>0.012263114946252754</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="77" t="s">
-        <v>12</v>
+      <c r="A19" s="115" t="s">
+        <v>190</v>
       </c>
       <c r="B19">
-        <v>0.00096701410949928679</v>
+        <v>0.97892672017103932</v>
       </c>
       <c r="C19">
-        <v>0.99903298589050071</v>
+        <v>0.021073279828960723</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="77" t="s">
-        <v>26</v>
+      <c r="A20" s="115" t="s">
+        <v>81</v>
       </c>
       <c r="B20">
-        <v>7.7107410811905197e-05</v>
+        <v>0.99093269062160472</v>
       </c>
       <c r="C20">
-        <v>0.99992289258918809</v>
+        <v>0.0090673093783952621</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="77" t="s">
-        <v>170</v>
+      <c r="A21" s="115" t="s">
+        <v>68</v>
       </c>
       <c r="B21">
-        <v>0.00068631275105823786</v>
+        <v>0.97990671374571503</v>
       </c>
       <c r="C21">
-        <v>0.99931368724894176</v>
+        <v>0.020093286254284918</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="77" t="s">
-        <v>215</v>
+      <c r="A22" s="115" t="s">
+        <v>69</v>
       </c>
       <c r="B22">
-        <v>0.028387449914158203</v>
+        <v>0.94286252484869615</v>
       </c>
       <c r="C22">
-        <v>0.9716125500858418</v>
+        <v>0.0571374751513039</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
+      <c r="A23" s="115" t="s">
+        <v>98</v>
       </c>
       <c r="B23">
-        <v>0.060684146035478281</v>
+        <v>0.96688611031260485</v>
       </c>
       <c r="C23">
-        <v>0.40293146265838858</v>
+        <v>0.0331138896873951</v>
       </c>
       <c r="D23">
-        <v>0.53638439130613325</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
+      <c r="A24" s="115" t="s">
+        <v>83</v>
       </c>
       <c r="B24">
-        <v>0.065597581205390929</v>
+        <v>0.9749575725663977</v>
       </c>
       <c r="C24">
-        <v>0.40295513366137059</v>
+        <v>0.025042427433602295</v>
       </c>
       <c r="D24">
-        <v>0.53144728513323858</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
+      <c r="A25" s="115" t="s">
+        <v>164</v>
       </c>
       <c r="B25">
-        <v>0.024377656529807695</v>
+        <v>0.9936106455777336</v>
       </c>
       <c r="C25">
-        <v>0.42294640105477549</v>
+        <v>0.006389354422266365</v>
       </c>
       <c r="D25">
-        <v>0.55267594241541695</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
+      <c r="A26" s="115" t="s">
+        <v>180</v>
       </c>
       <c r="B26">
-        <v>0.035169996954841083</v>
+        <v>0.99618655043612514</v>
       </c>
       <c r="C26">
-        <v>0.41803103010719767</v>
+        <v>0.0038134495638748509</v>
       </c>
       <c r="D26">
-        <v>0.5467989729379612</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
+      <c r="A27" s="115" t="s">
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>0.057407947426611136</v>
+        <v>0.99064797148171435</v>
       </c>
       <c r="C27">
-        <v>0.40675343537002384</v>
+        <v>0.0093520285182856506</v>
       </c>
       <c r="D27">
-        <v>0.53583861720336512</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>27</v>
+      <c r="A28" s="115" t="s">
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>0.072273923065221055</v>
+        <v>0.0041787256260886751</v>
       </c>
       <c r="C28">
-        <v>0.39778210657261581</v>
+        <v>0.99582127437391132</v>
       </c>
       <c r="D28">
-        <v>0.52994397036216323</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
+      <c r="A29" s="115" t="s">
+        <v>128</v>
       </c>
       <c r="B29">
-        <v>0.064712415594880543</v>
+        <v>0.19887965035541647</v>
       </c>
       <c r="C29">
-        <v>0.40339748602965086</v>
+        <v>0.80112034964458356</v>
       </c>
       <c r="D29">
-        <v>0.53189009837546852</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
+      <c r="A30" s="115" t="s">
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>0.060261311257373808</v>
+        <v>0.28330428566012211</v>
       </c>
       <c r="C30">
-        <v>0.40532440155273119</v>
+        <v>0.71669571433987789</v>
       </c>
       <c r="D30">
-        <v>0.53441428718989503</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31">
+        <v>0.25432059059944478</v>
+      </c>
+      <c r="C31">
+        <v>0.74567940940055522</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="115" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32">
+        <v>0.003378292505407221</v>
+      </c>
+      <c r="C32">
+        <v>0.99662170749459278</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33">
+        <v>0.0057626603105720431</v>
+      </c>
+      <c r="C33">
+        <v>0.99423733968942796</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34">
+        <v>0.00033069552226860921</v>
+      </c>
+      <c r="C34">
+        <v>0.99966930447773139</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35">
+        <v>0.011653599912213708</v>
+      </c>
+      <c r="C35">
+        <v>0.98834640008778629</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>0.00064955572602853895</v>
+      </c>
+      <c r="C36">
+        <v>0.99935044427397146</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37">
+        <v>0.03229744048396177</v>
+      </c>
+      <c r="C37">
+        <v>0.96770255951603823</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38">
+        <v>0.013284018956238208</v>
+      </c>
+      <c r="C38">
+        <v>0.98671598104376179</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39">
+        <v>0.0098710446277572306</v>
+      </c>
+      <c r="C39">
+        <v>0.99012895537224277</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="115" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40">
+        <v>0.019776532911115141</v>
+      </c>
+      <c r="C40">
+        <v>0.98022346708888486</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>0.0090250471332822269</v>
+      </c>
+      <c r="C41">
+        <v>0.99097495286671777</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42">
+        <v>0.010338396353638202</v>
+      </c>
+      <c r="C42">
+        <v>0.9896616036463618</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43">
+        <v>0.047502964524865576</v>
+      </c>
+      <c r="C43">
+        <v>0.95249703547513442</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -12670,31 +13982,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
     <col min="6" max="6" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81" t="s">
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="117" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -12702,14 +14014,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="81" t="s">
-        <v>105</v>
+      <c r="A2" s="117" t="s">
+        <v>92</v>
       </c>
       <c r="B2">
-        <v>0.98088163102656856</v>
+        <v>0.99838708390787423</v>
       </c>
       <c r="C2">
-        <v>0.019118368973431429</v>
+        <v>0.0016129160921257895</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -12722,14 +14034,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="81" t="s">
-        <v>146</v>
+      <c r="A3" s="117" t="s">
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>0.98161693941175443</v>
+        <v>0.99412312684060378</v>
       </c>
       <c r="C3">
-        <v>0.018383060588245619</v>
+        <v>0.0058768731593962535</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -12742,14 +14054,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="81" t="s">
-        <v>35</v>
+      <c r="A4" s="117" t="s">
+        <v>161</v>
       </c>
       <c r="B4">
-        <v>0.99283318064916726</v>
+        <v>0.99408950474507185</v>
       </c>
       <c r="C4">
-        <v>0.0071668193508327219</v>
+        <v>0.0059104952549281532</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -12762,14 +14074,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="81" t="s">
-        <v>121</v>
+      <c r="A5" s="117" t="s">
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.99420293208930155</v>
+        <v>0.99716922599398883</v>
       </c>
       <c r="C5">
-        <v>0.0057970679106984632</v>
+        <v>0.0028307740060111945</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -12782,34 +14094,34 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>0.99940719091511621</v>
+      </c>
+      <c r="C6">
+        <v>0.00059280908488379793</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="B6">
-        <v>0.9948774297106312</v>
-      </c>
-      <c r="C6">
-        <v>0.0051225702893687832</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="81" t="s">
-        <v>106</v>
-      </c>
       <c r="B7">
-        <v>0.99198309620506864</v>
+        <v>0.99940111234839546</v>
       </c>
       <c r="C7">
-        <v>0.0080169037949314095</v>
+        <v>0.00059888765160457291</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -12822,14 +14134,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="81" t="s">
-        <v>79</v>
+      <c r="A8" s="117" t="s">
+        <v>147</v>
       </c>
       <c r="B8">
-        <v>0.99246317364361836</v>
+        <v>0.99921389510036329</v>
       </c>
       <c r="C8">
-        <v>0.0075368263563815882</v>
+        <v>0.00078610489963672214</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -12842,14 +14154,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="81" t="s">
-        <v>177</v>
+      <c r="A9" s="117" t="s">
+        <v>93</v>
       </c>
       <c r="B9">
-        <v>0.98788820221419693</v>
+        <v>0.99850848676909632</v>
       </c>
       <c r="C9">
-        <v>0.012111797785803057</v>
+        <v>0.0014915132309036765</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -12862,443 +14174,664 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10">
+        <v>0.99742355135149274</v>
+      </c>
+      <c r="C10">
+        <v>0.0025764486485072655</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11">
+        <v>0.99919501279906198</v>
+      </c>
+      <c r="C11">
+        <v>0.00080498720093796826</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0.99908298993913058</v>
+      </c>
+      <c r="C12">
+        <v>0.00091701006086936326</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0.99884091427478228</v>
+      </c>
+      <c r="C13">
+        <v>0.00115908572521769</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14">
+        <v>0.99857095840154364</v>
+      </c>
+      <c r="C14">
+        <v>0.001429041598456378</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0.99974666301652371</v>
+      </c>
+      <c r="C15">
+        <v>0.00025333698347630539</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>0.99920439780394255</v>
+      </c>
+      <c r="C16">
+        <v>0.00079560219605742839</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17">
+        <v>0.99807718849403537</v>
+      </c>
+      <c r="C17">
+        <v>0.0019228115059646723</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>0.99963831632376865</v>
+      </c>
+      <c r="C18">
+        <v>0.00036168367623138503</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19">
+        <v>0.99819265733576601</v>
+      </c>
+      <c r="C19">
+        <v>0.0018073426642340041</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="B10">
-        <v>0.98604130395763201</v>
-      </c>
-      <c r="C10">
-        <v>0.013958696042367939</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="81" t="s">
+      <c r="B20">
+        <v>0.9984260116610022</v>
+      </c>
+      <c r="C20">
+        <v>0.0015739883389977625</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>0.98384627905731992</v>
+      </c>
+      <c r="C21">
+        <v>0.016153720942680059</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22">
+        <v>0.99815496637078149</v>
+      </c>
+      <c r="C22">
+        <v>0.0018450336292184972</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>0.99904920002366726</v>
+      </c>
+      <c r="C23">
+        <v>0.00095079997633272973</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="B11">
-        <v>0.94956083967167992</v>
-      </c>
-      <c r="C11">
-        <v>0.050439160328320055</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12">
-        <v>0.99076468172742049</v>
-      </c>
-      <c r="C12">
-        <v>0.0092353182725794583</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13">
-        <v>0.99326901018840974</v>
-      </c>
-      <c r="C13">
-        <v>0.0067309898115902097</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14">
-        <v>0.98056079239045735</v>
-      </c>
-      <c r="C14">
-        <v>0.019439207609542625</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15">
-        <v>0.097675908891539112</v>
-      </c>
-      <c r="C15">
-        <v>0.9023240911084609</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16">
-        <v>0.56178269239725187</v>
-      </c>
-      <c r="C16">
-        <v>0.43821730760274813</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17">
-        <v>0.11054338569215993</v>
-      </c>
-      <c r="C17">
-        <v>0.88945661430784007</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.014024917956840133</v>
-      </c>
-      <c r="C18">
-        <v>0.98597508204315987</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19">
-        <v>0.00074334902460970742</v>
-      </c>
-      <c r="C19">
-        <v>0.99925665097539029</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20">
-        <v>0.031047350479395552</v>
-      </c>
-      <c r="C20">
-        <v>0.96895264952060445</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21">
-        <v>0.0067513393747536954</v>
-      </c>
-      <c r="C21">
-        <v>0.9932486606252463</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22">
-        <v>0.015957285495968088</v>
-      </c>
-      <c r="C22">
-        <v>0.98404271450403191</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23">
-        <v>0.050863751677042823</v>
-      </c>
-      <c r="C23">
-        <v>0.94913624832295718</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="B24">
-        <v>4.5542439685194111e-12</v>
+        <v>0.98892667855701433</v>
       </c>
       <c r="C24">
-        <v>0.59729493972625014</v>
+        <v>0.011073321442985678</v>
       </c>
       <c r="D24">
-        <v>0.40270506026919567</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
-        <v>56</v>
+      <c r="A25" s="117" t="s">
+        <v>179</v>
       </c>
       <c r="B25">
-        <v>1.2930193317378331e-12</v>
+        <v>0.99518925755416854</v>
       </c>
       <c r="C25">
-        <v>0.42446694712425881</v>
+        <v>0.0048107424458314531</v>
       </c>
       <c r="D25">
-        <v>0.57553305287444823</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>57</v>
+      <c r="A26" s="117" t="s">
+        <v>48</v>
       </c>
       <c r="B26">
-        <v>1.2930570446560193e-12</v>
+        <v>0.99938071150652119</v>
       </c>
       <c r="C26">
-        <v>0.42445813711774183</v>
+        <v>0.00061928849347875619</v>
       </c>
       <c r="D26">
-        <v>0.57554186288096509</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>58</v>
+      <c r="A27" s="117" t="s">
+        <v>49</v>
       </c>
       <c r="B27">
-        <v>1.0557002855598089e-12</v>
+        <v>0.99906880709994716</v>
       </c>
       <c r="C27">
-        <v>0.41162187854183713</v>
+        <v>0.00093119290005285328</v>
       </c>
       <c r="D27">
-        <v>0.58837812145710722</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
-        <v>59</v>
+      <c r="A28" s="117" t="s">
+        <v>100</v>
       </c>
       <c r="B28">
-        <v>1.2928354642339264e-12</v>
+        <v>0.99939802943439704</v>
       </c>
       <c r="C28">
-        <v>0.42446379258770789</v>
+        <v>0.00060197056560297262</v>
       </c>
       <c r="D28">
-        <v>0.57553620741099931</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
-        <v>60</v>
+      <c r="A29" s="117" t="s">
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>1.2928349088411282e-12</v>
+        <v>0.99845961008303707</v>
       </c>
       <c r="C29">
-        <v>0.42445912257249502</v>
+        <v>0.0015403899169628818</v>
       </c>
       <c r="D29">
-        <v>0.57554087742621218</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>16</v>
+      <c r="A30" s="117" t="s">
+        <v>208</v>
       </c>
       <c r="B30">
-        <v>1.2922989043364231e-12</v>
+        <v>0.47695445170541895</v>
       </c>
       <c r="C30">
-        <v>0.42444685037556323</v>
+        <v>0.52304554829458105</v>
       </c>
       <c r="D30">
-        <v>0.57555314962314441</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
-        <v>61</v>
+      <c r="A31" s="117" t="s">
+        <v>209</v>
       </c>
       <c r="B31">
-        <v>1.292814851750009e-12</v>
+        <v>0.0087888785648708723</v>
       </c>
       <c r="C31">
-        <v>0.42446070391731144</v>
+        <v>0.99121112143512913</v>
       </c>
       <c r="D31">
-        <v>0.57553929608139576</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="117" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32">
+        <v>0.27613360285286048</v>
+      </c>
+      <c r="C32">
+        <v>0.72386639714713952</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>0.0048627685489985861</v>
+      </c>
+      <c r="C33">
+        <v>0.99513723145100141</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34">
+        <v>0.12471324189764699</v>
+      </c>
+      <c r="C34">
+        <v>0.87528675810235301</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>0.00020598905444069171</v>
+      </c>
+      <c r="C35">
+        <v>0.99979401094555931</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>0.00022255052321984437</v>
+      </c>
+      <c r="C36">
+        <v>0.99977744947678016</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>0.0015194575488813866</v>
+      </c>
+      <c r="C37">
+        <v>0.99848054245111861</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38">
+        <v>1.5523784655080419e-05</v>
+      </c>
+      <c r="C38">
+        <v>0.99998447621534492</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39">
+        <v>0.0042295770403985022</v>
+      </c>
+      <c r="C39">
+        <v>0.9957704229596015</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>0.00015290302598014449</v>
+      </c>
+      <c r="C40">
+        <v>0.99984709697401986</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41">
+        <v>0.00066593680190996096</v>
+      </c>
+      <c r="C41">
+        <v>0.99933406319809004</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42">
+        <v>0.0090996896747583822</v>
+      </c>
+      <c r="C42">
+        <v>0.99090031032524162</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43">
+        <v>0.0012522683380778998</v>
+      </c>
+      <c r="C43">
+        <v>0.9987477316619221</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44">
+        <v>0.0067871578563389878</v>
+      </c>
+      <c r="C44">
+        <v>0.99321284214366101</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/train-Primates.xlsx
+++ b/outputs/train-Primates.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="217">
   <si>
     <t>Row</t>
   </si>
@@ -714,7 +714,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="125">
+  <borders count="165">
     <border>
       <left/>
       <right/>
@@ -846,11 +846,51 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -976,6 +1016,46 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,38 +1069,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119" t="s">
+      <c r="A1" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="119" t="s">
-        <v>62</v>
+      <c r="A2" s="159" t="s">
+        <v>159</v>
       </c>
       <c r="B2">
-        <v>0.93947846556982384</v>
+        <v>0.99912446408422506</v>
       </c>
       <c r="C2">
-        <v>0.060521534430176105</v>
+        <v>0.00087553591577488625</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1030,14 +1110,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="119" t="s">
-        <v>146</v>
+      <c r="A3" s="159" t="s">
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>0.95136422028708634</v>
+        <v>0.99835832638178068</v>
       </c>
       <c r="C3">
-        <v>0.048635779712913677</v>
+        <v>0.0016416736182193537</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1047,14 +1127,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="119" t="s">
-        <v>159</v>
+      <c r="A4" s="159" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.97110315557972948</v>
+        <v>0.99818977924174668</v>
       </c>
       <c r="C4">
-        <v>0.028896844420270539</v>
+        <v>0.0018102207582533041</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1064,31 +1144,31 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="119" t="s">
-        <v>160</v>
+      <c r="A5" s="159" t="s">
+        <v>173</v>
       </c>
       <c r="B5">
-        <v>0.18114305111718909</v>
+        <v>0.9996802834566193</v>
       </c>
       <c r="C5">
-        <v>0.81885694888281091</v>
+        <v>0.00031971654338071119</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="119" t="s">
-        <v>1</v>
+      <c r="A6" s="159" t="s">
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>0.94407744979449904</v>
+        <v>0.99863831535178516</v>
       </c>
       <c r="C6">
-        <v>0.05592255020550093</v>
+        <v>0.0013616846482148032</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1098,14 +1178,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="119" t="s">
-        <v>172</v>
+      <c r="A7" s="159" t="s">
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>0.95545131333072209</v>
+        <v>0.99943218427114677</v>
       </c>
       <c r="C7">
-        <v>0.04454868666927795</v>
+        <v>0.00056781572885326154</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1115,14 +1195,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="119" t="s">
-        <v>133</v>
+      <c r="A8" s="159" t="s">
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.9881107017227454</v>
+        <v>0.99945844767648473</v>
       </c>
       <c r="C8">
-        <v>0.011889298277254649</v>
+        <v>0.00054155232351530422</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1132,14 +1212,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="119" t="s">
-        <v>80</v>
+      <c r="A9" s="159" t="s">
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>0.95167280949825073</v>
+        <v>0.99911439311997474</v>
       </c>
       <c r="C9">
-        <v>0.048327190501749266</v>
+        <v>0.00088560688002527167</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1149,14 +1229,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="119" t="s">
-        <v>151</v>
+      <c r="A10" s="159" t="s">
+        <v>163</v>
       </c>
       <c r="B10">
-        <v>0.96433942787722848</v>
+        <v>0.99416937108074821</v>
       </c>
       <c r="C10">
-        <v>0.035660572122771537</v>
+        <v>0.0058306289192518032</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1166,14 +1246,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="159" t="s">
         <v>176</v>
       </c>
       <c r="B11">
-        <v>0.96962815870032171</v>
+        <v>0.99926825283720844</v>
       </c>
       <c r="C11">
-        <v>0.030371841299678338</v>
+        <v>0.00073174716279159838</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1183,14 +1263,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="119" t="s">
-        <v>134</v>
+      <c r="A12" s="159" t="s">
+        <v>109</v>
       </c>
       <c r="B12">
-        <v>0.96459562250742059</v>
+        <v>0.99246317183536459</v>
       </c>
       <c r="C12">
-        <v>0.035404377492579457</v>
+        <v>0.0075368281646354509</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1200,14 +1280,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="119" t="s">
-        <v>109</v>
+      <c r="A13" s="159" t="s">
+        <v>82</v>
       </c>
       <c r="B13">
-        <v>0.90464407103590494</v>
+        <v>0.99772031401311456</v>
       </c>
       <c r="C13">
-        <v>0.095355928964095074</v>
+        <v>0.0022796859868854488</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1217,14 +1297,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="119" t="s">
-        <v>44</v>
+      <c r="A14" s="159" t="s">
+        <v>139</v>
       </c>
       <c r="B14">
-        <v>0.95935618710584547</v>
+        <v>0.99885598539265397</v>
       </c>
       <c r="C14">
-        <v>0.040643812894154571</v>
+        <v>0.0011440146073460049</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1234,14 +1314,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="119" t="s">
-        <v>124</v>
+      <c r="A15" s="159" t="s">
+        <v>191</v>
       </c>
       <c r="B15">
-        <v>0.91389982021142957</v>
+        <v>0.99966401760835721</v>
       </c>
       <c r="C15">
-        <v>0.086100179788570458</v>
+        <v>0.00033598239164275503</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1251,14 +1331,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="119" t="s">
-        <v>110</v>
+      <c r="A16" s="159" t="s">
+        <v>47</v>
       </c>
       <c r="B16">
-        <v>0.96090950271835196</v>
+        <v>0.99611270890397319</v>
       </c>
       <c r="C16">
-        <v>0.039090497281648012</v>
+        <v>0.0038872910960267618</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1268,14 +1348,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="119" t="s">
-        <v>111</v>
+      <c r="A17" s="159" t="s">
+        <v>98</v>
       </c>
       <c r="B17">
-        <v>0.92659010395083763</v>
+        <v>0.99091797993404218</v>
       </c>
       <c r="C17">
-        <v>0.073409896049162385</v>
+        <v>0.0090820200659578725</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1285,14 +1365,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="119" t="s">
-        <v>45</v>
+      <c r="A18" s="159" t="s">
+        <v>179</v>
       </c>
       <c r="B18">
-        <v>0.86193888350469172</v>
+        <v>0.99412258649440943</v>
       </c>
       <c r="C18">
-        <v>0.13806111649530828</v>
+        <v>0.0058774135055905665</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1302,14 +1382,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="119" t="s">
-        <v>97</v>
+      <c r="A19" s="159" t="s">
+        <v>192</v>
       </c>
       <c r="B19">
-        <v>0.92623083711436949</v>
+        <v>0.9990484783744028</v>
       </c>
       <c r="C19">
-        <v>0.073769162885630457</v>
+        <v>0.00095152162559715794</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1319,14 +1399,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="119" t="s">
-        <v>82</v>
+      <c r="A20" s="159" t="s">
+        <v>49</v>
       </c>
       <c r="B20">
-        <v>0.9474859492404013</v>
+        <v>0.99947918867948626</v>
       </c>
       <c r="C20">
-        <v>0.052514050759598592</v>
+        <v>0.00052081132051369765</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1336,14 +1416,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="119" t="s">
-        <v>138</v>
+      <c r="A21" s="159" t="s">
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>0.97848891737884869</v>
+        <v>0.99878388098688131</v>
       </c>
       <c r="C21">
-        <v>0.021511082621151294</v>
+        <v>0.001216119013118672</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1353,14 +1433,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="119" t="s">
-        <v>191</v>
+      <c r="A22" s="159" t="s">
+        <v>84</v>
       </c>
       <c r="B22">
-        <v>0.97849176204121413</v>
+        <v>0.99939546745976282</v>
       </c>
       <c r="C22">
-        <v>0.021508237958785897</v>
+        <v>0.00060453254023713689</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1370,14 +1450,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="119" t="s">
-        <v>153</v>
+      <c r="A23" s="159" t="s">
+        <v>113</v>
       </c>
       <c r="B23">
-        <v>0.98142371557052499</v>
+        <v>0.99850015065165243</v>
       </c>
       <c r="C23">
-        <v>0.018576284429475051</v>
+        <v>0.001499849348347538</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1387,14 +1467,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="119" t="s">
-        <v>71</v>
+      <c r="A24" s="159" t="s">
+        <v>140</v>
       </c>
       <c r="B24">
-        <v>0.96372081071999205</v>
+        <v>0.99876993694150296</v>
       </c>
       <c r="C24">
-        <v>0.036279189280007992</v>
+        <v>0.0012300630584969915</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1404,14 +1484,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="119" t="s">
-        <v>140</v>
+      <c r="A25" s="159" t="s">
+        <v>194</v>
       </c>
       <c r="B25">
-        <v>0.9602826858169683</v>
+        <v>0.99901016705022083</v>
       </c>
       <c r="C25">
-        <v>0.039717314183031677</v>
+        <v>0.0009898329497791316</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1421,14 +1501,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="119" t="s">
-        <v>101</v>
+      <c r="A26" s="159" t="s">
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>0.96088237095975493</v>
+        <v>0.99921414846503964</v>
       </c>
       <c r="C26">
-        <v>0.039117629040245031</v>
+        <v>0.0007858515349603171</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1438,14 +1518,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="119" t="s">
-        <v>72</v>
+      <c r="A27" s="159" t="s">
+        <v>114</v>
       </c>
       <c r="B27">
-        <v>0.98110670968235536</v>
+        <v>0.99827259214300323</v>
       </c>
       <c r="C27">
-        <v>0.018893290317644612</v>
+        <v>0.0017274078569967505</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1455,14 +1535,14 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="119" t="s">
+      <c r="A28" s="159" t="s">
         <v>56</v>
       </c>
       <c r="B28">
-        <v>0.0070237819038353475</v>
+        <v>1.7217586651074868e-05</v>
       </c>
       <c r="C28">
-        <v>0.99297621809616465</v>
+        <v>0.99998278241334893</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1472,14 +1552,14 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="119" t="s">
-        <v>52</v>
+      <c r="A29" s="159" t="s">
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>0.058238257357979384</v>
+        <v>0.00010150221194249465</v>
       </c>
       <c r="C29">
-        <v>0.94176174264202062</v>
+        <v>0.99989849778805751</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1489,14 +1569,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="119" t="s">
-        <v>155</v>
+      <c r="A30" s="159" t="s">
+        <v>116</v>
       </c>
       <c r="B30">
-        <v>0.056067276223143336</v>
+        <v>0.0077009123822542325</v>
       </c>
       <c r="C30">
-        <v>0.94393272377685666</v>
+        <v>0.99229908761774577</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1506,14 +1586,14 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="119" t="s">
+      <c r="A31" s="159" t="s">
         <v>184</v>
       </c>
       <c r="B31">
-        <v>0.0039075136316838455</v>
+        <v>4.9470567213050209e-05</v>
       </c>
       <c r="C31">
-        <v>0.99609248636831615</v>
+        <v>0.99995052943278695</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1523,14 +1603,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="119" t="s">
-        <v>23</v>
+      <c r="A32" s="159" t="s">
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>0.018181888753110664</v>
+        <v>0.0011500821812628903</v>
       </c>
       <c r="C32">
-        <v>0.98181811124688934</v>
+        <v>0.99884991781873711</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1540,14 +1620,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="119" t="s">
-        <v>142</v>
+      <c r="A33" s="159" t="s">
+        <v>196</v>
       </c>
       <c r="B33">
-        <v>0.0064850018286418676</v>
+        <v>0.043330973578158183</v>
       </c>
       <c r="C33">
-        <v>0.99351499817135813</v>
+        <v>0.95666902642184182</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1557,14 +1637,14 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="119" t="s">
-        <v>197</v>
+      <c r="A34" s="159" t="s">
+        <v>57</v>
       </c>
       <c r="B34">
-        <v>0.0015610443074397518</v>
+        <v>3.2062456833958919e-06</v>
       </c>
       <c r="C34">
-        <v>0.99843895569256025</v>
+        <v>0.9999967937543166</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1574,14 +1654,14 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="119" t="s">
-        <v>104</v>
+      <c r="A35" s="159" t="s">
+        <v>198</v>
       </c>
       <c r="B35">
-        <v>0.0046583498373270471</v>
+        <v>4.6378766443977426e-06</v>
       </c>
       <c r="C35">
-        <v>0.99534165016267295</v>
+        <v>0.9999953621233556</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1591,14 +1671,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="119" t="s">
-        <v>58</v>
+      <c r="A36" s="159" t="s">
+        <v>199</v>
       </c>
       <c r="B36">
-        <v>0.061556517036590042</v>
+        <v>4.5335861603712502e-06</v>
       </c>
       <c r="C36">
-        <v>0.93844348296340996</v>
+        <v>0.99999546641383963</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1608,14 +1688,14 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="119" t="s">
-        <v>13</v>
+      <c r="A37" s="159" t="s">
+        <v>186</v>
       </c>
       <c r="B37">
-        <v>0.0041066630558401762</v>
+        <v>0.001595575082951828</v>
       </c>
       <c r="C37">
-        <v>0.99589333694415982</v>
+        <v>0.99840442491704817</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1625,14 +1705,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="119" t="s">
-        <v>90</v>
+      <c r="A38" s="159" t="s">
+        <v>169</v>
       </c>
       <c r="B38">
-        <v>0.049906019892453024</v>
+        <v>0.0001007488938401524</v>
       </c>
       <c r="C38">
-        <v>0.95009398010754698</v>
+        <v>0.99989925110615985</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1642,14 +1722,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="159" t="s">
         <v>201</v>
       </c>
       <c r="B39">
-        <v>0.019154634908608248</v>
+        <v>0.00038807892965420088</v>
       </c>
       <c r="C39">
-        <v>0.98084536509139175</v>
+        <v>0.9996119210703458</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1659,14 +1739,14 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="159" t="s">
         <v>28</v>
       </c>
       <c r="B40">
-        <v>0.022994122046141929</v>
+        <v>0.00072445872497606256</v>
       </c>
       <c r="C40">
-        <v>0.97700587795385807</v>
+        <v>0.99927554127502394</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1676,14 +1756,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="119" t="s">
-        <v>61</v>
+      <c r="A41" s="159" t="s">
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>0.029348834956023029</v>
+        <v>0.0079346732045553203</v>
       </c>
       <c r="C41">
-        <v>0.97065116504397697</v>
+        <v>0.99206532679544468</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1693,31 +1773,31 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="119" t="s">
+      <c r="A42" s="159" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42">
+        <v>0.00080262373999595571</v>
+      </c>
+      <c r="C42">
+        <v>0.99919737626000404</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B42">
-        <v>0.052617096624744897</v>
-      </c>
-      <c r="C42">
-        <v>0.94738290337525521</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="119" t="s">
-        <v>187</v>
-      </c>
       <c r="B43">
-        <v>0.027628448142361761</v>
+        <v>0.01652155870579064</v>
       </c>
       <c r="C43">
-        <v>0.97237155185763824</v>
+        <v>0.98347844129420936</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2516,38 +2596,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121" t="s">
+      <c r="A1" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="161" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="121" t="s">
-        <v>105</v>
+      <c r="A2" s="161" t="s">
+        <v>120</v>
       </c>
       <c r="B2">
-        <v>0.99637084329501135</v>
+        <v>0.98472359964829204</v>
       </c>
       <c r="C2">
-        <v>0.003629156704988605</v>
+        <v>0.015276400351708011</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2557,14 +2637,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="121" t="s">
-        <v>38</v>
+      <c r="A3" s="161" t="s">
+        <v>91</v>
       </c>
       <c r="B3">
-        <v>0.99862507323806515</v>
+        <v>0.97528937077017663</v>
       </c>
       <c r="C3">
-        <v>0.0013749267619348998</v>
+        <v>0.024710629229823335</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2574,48 +2654,48 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="121" t="s">
-        <v>39</v>
+      <c r="A4" s="161" t="s">
+        <v>146</v>
       </c>
       <c r="B4">
-        <v>1.799879783426217e-05</v>
+        <v>0.96640494296023904</v>
       </c>
       <c r="C4">
-        <v>0.99998200120216574</v>
+        <v>0.033595057039760977</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="121" t="s">
-        <v>203</v>
+      <c r="A5" s="161" t="s">
+        <v>160</v>
       </c>
       <c r="B5">
-        <v>0.99904037182956862</v>
+        <v>0.26927520255976978</v>
       </c>
       <c r="C5">
-        <v>0.000959628170431428</v>
+        <v>0.73072479744023022</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="121" t="s">
-        <v>188</v>
+      <c r="A6" s="161" t="s">
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>0.9995805311965511</v>
+        <v>0.98734238867203383</v>
       </c>
       <c r="C6">
-        <v>0.0004194688034488658</v>
+        <v>0.012657611327966212</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2625,14 +2705,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="121" t="s">
-        <v>162</v>
+      <c r="A7" s="161" t="s">
+        <v>92</v>
       </c>
       <c r="B7">
-        <v>0.99912883012928277</v>
+        <v>0.97309344816401255</v>
       </c>
       <c r="C7">
-        <v>0.00087116987071722465</v>
+        <v>0.026906551835987422</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2642,14 +2722,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="121" t="s">
-        <v>163</v>
+      <c r="A8" s="161" t="s">
+        <v>172</v>
       </c>
       <c r="B8">
-        <v>0.99011527102043428</v>
+        <v>0.96715519630157054</v>
       </c>
       <c r="C8">
-        <v>0.0098847289795657069</v>
+        <v>0.032844803698429473</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2659,14 +2739,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="121" t="s">
-        <v>123</v>
+      <c r="A9" s="161" t="s">
+        <v>161</v>
       </c>
       <c r="B9">
-        <v>0.99797636123797862</v>
+        <v>0.9510012100351265</v>
       </c>
       <c r="C9">
-        <v>0.0020236387620214164</v>
+        <v>0.048998789964873536</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2676,235 +2756,235 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>0.97915741214502205</v>
+      </c>
+      <c r="C10">
+        <v>0.020842587854977994</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="161" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11">
+        <v>0.98524942613516742</v>
+      </c>
+      <c r="C11">
+        <v>0.014750573864832577</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="161" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12">
+        <v>0.98680801207184499</v>
+      </c>
+      <c r="C12">
+        <v>0.013191987928155057</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="161" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>0.97207380926354481</v>
+      </c>
+      <c r="C13">
+        <v>0.02792619073645515</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.97481123745506437</v>
+      </c>
+      <c r="C14">
+        <v>0.025188762544935683</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15">
+        <v>0.9729945156564791</v>
+      </c>
+      <c r="C15">
+        <v>0.027005484343520902</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16">
+        <v>0.97405667809631014</v>
+      </c>
+      <c r="C16">
+        <v>0.025943321903689823</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>0.97048287584580428</v>
+      </c>
+      <c r="C17">
+        <v>0.029517124154195724</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18">
+        <v>0.97536843880258306</v>
+      </c>
+      <c r="C18">
+        <v>0.024631561197416982</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="161" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19">
+        <v>0.99321382493923083</v>
+      </c>
+      <c r="C19">
+        <v>0.0067861750607691737</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>0.99786703292830803</v>
-      </c>
-      <c r="C10">
-        <v>0.0021329670716920264</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="121" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11">
-        <v>0.99790433444499582</v>
-      </c>
-      <c r="C11">
-        <v>0.0020956655550041468</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="121" t="s">
+      <c r="B20">
+        <v>0.97479002691687688</v>
+      </c>
+      <c r="C20">
+        <v>0.025209973083123133</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="B12">
-        <v>0.94037672746538226</v>
-      </c>
-      <c r="C12">
-        <v>0.059623272534617744</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="121" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13">
-        <v>0.9989852447899904</v>
-      </c>
-      <c r="C13">
-        <v>0.0010147552100095551</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="121" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14">
-        <v>0.99777997627117687</v>
-      </c>
-      <c r="C14">
-        <v>0.0022200237288231518</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="121" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15">
-        <v>0.99823215945040711</v>
-      </c>
-      <c r="C15">
-        <v>0.0017678405495929158</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="121" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16">
-        <v>0.99943300893838083</v>
-      </c>
-      <c r="C16">
-        <v>0.00056699106161911571</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <v>0.99911065462818849</v>
-      </c>
-      <c r="C17">
-        <v>0.00088934537181153679</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="121" t="s">
+      <c r="B21">
+        <v>0.92596121923831809</v>
+      </c>
+      <c r="C21">
+        <v>0.074038780761681924</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22">
+        <v>0.97431838800455195</v>
+      </c>
+      <c r="C22">
+        <v>0.025681611995448085</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="B18">
-        <v>0.99965530086896215</v>
-      </c>
-      <c r="C18">
-        <v>0.00034469913103780849</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>0.99868665795274636</v>
-      </c>
-      <c r="C19">
-        <v>0.0013133420472536878</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="121" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20">
-        <v>0.99703938578219864</v>
-      </c>
-      <c r="C20">
-        <v>0.0029606142178013944</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21">
-        <v>0.999317520368877</v>
-      </c>
-      <c r="C21">
-        <v>0.0006824796311230188</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22">
-        <v>0.99812736001459412</v>
-      </c>
-      <c r="C22">
-        <v>0.0018726399854058979</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="121" t="s">
-        <v>102</v>
-      </c>
       <c r="B23">
-        <v>0.99956717625554059</v>
+        <v>0.99084056071236104</v>
       </c>
       <c r="C23">
-        <v>0.00043282374445940047</v>
+        <v>0.0091594392876389753</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2914,14 +2994,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="121" t="s">
-        <v>127</v>
+      <c r="A24" s="161" t="s">
+        <v>71</v>
       </c>
       <c r="B24">
-        <v>0.9951344671929464</v>
+        <v>0.98414176918408325</v>
       </c>
       <c r="C24">
-        <v>0.0048655328070535617</v>
+        <v>0.015858230815916703</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2931,14 +3011,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="121" t="s">
-        <v>114</v>
+      <c r="A25" s="161" t="s">
+        <v>85</v>
       </c>
       <c r="B25">
-        <v>0.9714510615752483</v>
+        <v>0.98887017738696614</v>
       </c>
       <c r="C25">
-        <v>0.028548938424751695</v>
+        <v>0.011129822613033805</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2948,14 +3028,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="121" t="s">
-        <v>10</v>
+      <c r="A26" s="161" t="s">
+        <v>103</v>
       </c>
       <c r="B26">
-        <v>0.014440229080617373</v>
+        <v>0.016118891885955833</v>
       </c>
       <c r="C26">
-        <v>0.98555977091938263</v>
+        <v>0.98388110811404417</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2965,48 +3045,48 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>0.022256078805150237</v>
+      </c>
+      <c r="C27">
+        <v>0.97774392119484976</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="B27">
-        <v>0.4206548862284194</v>
-      </c>
-      <c r="C27">
-        <v>0.5793451137715806</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="121" t="s">
+      <c r="B28">
+        <v>0.45855203709712988</v>
+      </c>
+      <c r="C28">
+        <v>0.54144796290287012</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="B28">
-        <v>6.7691901957656064e-05</v>
-      </c>
-      <c r="C28">
-        <v>0.99993230809804234</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="121" t="s">
-        <v>115</v>
-      </c>
       <c r="B29">
-        <v>0.0028531818286388062</v>
+        <v>0.0066334245865166119</v>
       </c>
       <c r="C29">
-        <v>0.99714681817136119</v>
+        <v>0.99336657541348339</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -3016,14 +3096,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="121" t="s">
-        <v>166</v>
+      <c r="A30" s="161" t="s">
+        <v>155</v>
       </c>
       <c r="B30">
-        <v>0.00077328363247430865</v>
+        <v>0.087312583891243301</v>
       </c>
       <c r="C30">
-        <v>0.99922671636752569</v>
+        <v>0.9126874161087567</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3033,31 +3113,31 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="161" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>0.098561565220698588</v>
+      </c>
+      <c r="C31">
+        <v>0.90143843477930141</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="B31">
-        <v>0.00011731533507641778</v>
-      </c>
-      <c r="C31">
-        <v>0.99988268466492358</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="121" t="s">
-        <v>196</v>
-      </c>
       <c r="B32">
-        <v>0.039070082785475302</v>
+        <v>0.010782345885639644</v>
       </c>
       <c r="C32">
-        <v>0.9609299172145247</v>
+        <v>0.98921765411436036</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3067,14 +3147,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="121" t="s">
-        <v>156</v>
+      <c r="A33" s="161" t="s">
+        <v>141</v>
       </c>
       <c r="B33">
-        <v>7.8166120773937031e-05</v>
+        <v>0.25534966655884406</v>
       </c>
       <c r="C33">
-        <v>0.99992183387922606</v>
+        <v>0.74465033344115594</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -3084,31 +3164,31 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="161" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34">
+        <v>0.0060196081341511434</v>
+      </c>
+      <c r="C34">
+        <v>0.99398039186584886</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B34">
-        <v>3.8373212335129914e-05</v>
-      </c>
-      <c r="C34">
-        <v>0.99996162678766487</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="121" t="s">
-        <v>144</v>
-      </c>
       <c r="B35">
-        <v>2.9793149430856758e-06</v>
+        <v>0.0097948835813747026</v>
       </c>
       <c r="C35">
-        <v>0.99999702068505691</v>
+        <v>0.9902051164186253</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3118,14 +3198,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="121" t="s">
-        <v>212</v>
+      <c r="A36" s="161" t="s">
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>0.0034370805464745136</v>
+        <v>0.054753376588486453</v>
       </c>
       <c r="C36">
-        <v>0.99656291945352549</v>
+        <v>0.94524662341151355</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3135,14 +3215,14 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="121" t="s">
-        <v>169</v>
+      <c r="A37" s="161" t="s">
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>0.00014288353865066217</v>
+        <v>0.006579569042022837</v>
       </c>
       <c r="C37">
-        <v>0.99985711646134934</v>
+        <v>0.99342043095797716</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3152,14 +3232,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="121" t="s">
-        <v>14</v>
+      <c r="A38" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="B38">
-        <v>2.0069284572654666e-05</v>
+        <v>0.011199418125643956</v>
       </c>
       <c r="C38">
-        <v>0.99997993071542735</v>
+        <v>0.98880058187435604</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3169,14 +3249,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="161" t="s">
         <v>118</v>
       </c>
       <c r="B39">
-        <v>0.00053989523782405069</v>
+        <v>0.02207098151885023</v>
       </c>
       <c r="C39">
-        <v>0.99946010476217595</v>
+        <v>0.97792901848114977</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3186,14 +3266,14 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="121" t="s">
-        <v>54</v>
+      <c r="A40" s="161" t="s">
+        <v>214</v>
       </c>
       <c r="B40">
-        <v>0.0006609817239829896</v>
+        <v>0.0082069335793433229</v>
       </c>
       <c r="C40">
-        <v>0.99933901827601701</v>
+        <v>0.99179306642065668</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3203,14 +3283,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="121" t="s">
-        <v>55</v>
+      <c r="A41" s="161" t="s">
+        <v>145</v>
       </c>
       <c r="B41">
-        <v>0.0057338081208588854</v>
+        <v>0.033559676600465549</v>
       </c>
       <c r="C41">
-        <v>0.99426619187914111</v>
+        <v>0.96644032339953445</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3220,14 +3300,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="121" t="s">
-        <v>119</v>
+      <c r="A42" s="161" t="s">
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>7.0287193264517711e-06</v>
+        <v>0.041022428390385612</v>
       </c>
       <c r="C42">
-        <v>0.99999297128067355</v>
+        <v>0.95897757160961439</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3237,14 +3317,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="121" t="s">
-        <v>29</v>
+      <c r="A43" s="161" t="s">
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>0.001146493446000374</v>
+        <v>0.029191661861792451</v>
       </c>
       <c r="C43">
-        <v>0.99885350655399963</v>
+        <v>0.97080833813820755</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -4043,38 +4123,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123" t="s">
+      <c r="A1" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="163" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="123" t="s">
-        <v>75</v>
+      <c r="A2" s="163" t="s">
+        <v>171</v>
       </c>
       <c r="B2">
-        <v>0.95586783137172082</v>
+        <v>0.99173258577870205</v>
       </c>
       <c r="C2">
-        <v>0.04413216862827913</v>
+        <v>0.0082674142212979616</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4084,14 +4164,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="123" t="s">
-        <v>120</v>
+      <c r="A3" s="163" t="s">
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>0.98025846188530197</v>
+        <v>0.97342753101739043</v>
       </c>
       <c r="C3">
-        <v>0.019741538114698018</v>
+        <v>0.02657246898260961</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4101,14 +4181,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="123" t="s">
-        <v>171</v>
+      <c r="A4" s="163" t="s">
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0.9559946910577175</v>
+        <v>0.9908472828973256</v>
       </c>
       <c r="C4">
-        <v>0.044005308942282495</v>
+        <v>0.0091527171026744032</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4118,14 +4198,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="123" t="s">
-        <v>131</v>
+      <c r="A5" s="163" t="s">
+        <v>37</v>
       </c>
       <c r="B5">
-        <v>0.98293128935104546</v>
+        <v>0.9984585249741913</v>
       </c>
       <c r="C5">
-        <v>0.017068710648954523</v>
+        <v>0.0015414750258087248</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4135,14 +4215,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="123" t="s">
-        <v>40</v>
+      <c r="A6" s="163" t="s">
+        <v>147</v>
       </c>
       <c r="B6">
-        <v>0.96601641775852609</v>
+        <v>0.99794389333158218</v>
       </c>
       <c r="C6">
-        <v>0.033983582241473888</v>
+        <v>0.002056106668417876</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4152,65 +4232,65 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>1.2775217883564949e-08</v>
+      </c>
+      <c r="C7">
+        <v>0.99999998722478212</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>0.98126672073946675</v>
-      </c>
-      <c r="C7">
-        <v>0.018733279260533208</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="123" t="s">
+      <c r="B8">
+        <v>0.99723252369811899</v>
+      </c>
+      <c r="C8">
+        <v>0.0027674763018810532</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9">
+        <v>0.99775168321658669</v>
+      </c>
+      <c r="C9">
+        <v>0.0022483167834133218</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="B8">
-        <v>0.97130441246658417</v>
-      </c>
-      <c r="C8">
-        <v>0.028695587533415782</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>0.97721886795035717</v>
-      </c>
-      <c r="C9">
-        <v>0.022781132049642841</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="123" t="s">
-        <v>79</v>
-      </c>
       <c r="B10">
-        <v>0.98026463156475063</v>
+        <v>0.99445084488270041</v>
       </c>
       <c r="C10">
-        <v>0.019735368435249416</v>
+        <v>0.0055491551172995321</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4220,14 +4300,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="123" t="s">
-        <v>6</v>
+      <c r="A11" s="163" t="s">
+        <v>107</v>
       </c>
       <c r="B11">
-        <v>0.97442901636711299</v>
+        <v>0.99535590480660507</v>
       </c>
       <c r="C11">
-        <v>0.025570983632887054</v>
+        <v>0.0046440951933949372</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4237,14 +4317,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="123" t="s">
-        <v>177</v>
+      <c r="A12" s="163" t="s">
+        <v>124</v>
       </c>
       <c r="B12">
-        <v>0.97125644656670052</v>
+        <v>0.97551570376480357</v>
       </c>
       <c r="C12">
-        <v>0.028743553433299509</v>
+        <v>0.024484296235196414</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4254,14 +4334,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="123" t="s">
-        <v>152</v>
+      <c r="A13" s="163" t="s">
+        <v>190</v>
       </c>
       <c r="B13">
-        <v>0.97259466852595455</v>
+        <v>0.98893820082776929</v>
       </c>
       <c r="C13">
-        <v>0.027405331474045461</v>
+        <v>0.011061799172230748</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4271,14 +4351,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="123" t="s">
-        <v>178</v>
+      <c r="A14" s="163" t="s">
+        <v>110</v>
       </c>
       <c r="B14">
-        <v>0.97022084067478065</v>
+        <v>0.99112400726249561</v>
       </c>
       <c r="C14">
-        <v>0.0297791593252194</v>
+        <v>0.0088759927375043571</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4288,14 +4368,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="123" t="s">
-        <v>137</v>
+      <c r="A15" s="163" t="s">
+        <v>125</v>
       </c>
       <c r="B15">
-        <v>0.97723548602618793</v>
+        <v>0.99465308515626516</v>
       </c>
       <c r="C15">
-        <v>0.022764513973812024</v>
+        <v>0.0053469148437348341</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -4305,14 +4385,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="123" t="s">
-        <v>126</v>
+      <c r="A16" s="163" t="s">
+        <v>67</v>
       </c>
       <c r="B16">
-        <v>0.95947782692004813</v>
+        <v>0.94395317904480869</v>
       </c>
       <c r="C16">
-        <v>0.040522173079951922</v>
+        <v>0.056046820955191291</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -4322,14 +4402,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="123" t="s">
-        <v>47</v>
+      <c r="A17" s="163" t="s">
+        <v>138</v>
       </c>
       <c r="B17">
-        <v>0.94019709411557228</v>
+        <v>0.99761464786615406</v>
       </c>
       <c r="C17">
-        <v>0.059802905884427666</v>
+        <v>0.002385352133845965</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4339,14 +4419,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="123" t="s">
-        <v>192</v>
+      <c r="A18" s="163" t="s">
+        <v>206</v>
       </c>
       <c r="B18">
-        <v>0.97495125419435602</v>
+        <v>0.99171584069691643</v>
       </c>
       <c r="C18">
-        <v>0.025048745805643931</v>
+        <v>0.0082841593030835436</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4356,82 +4436,82 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="163" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>0.99712756804739489</v>
+      </c>
+      <c r="C19">
+        <v>0.0028724319526051401</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="163" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20">
+        <v>0.99738934685029801</v>
+      </c>
+      <c r="C20">
+        <v>0.0026106531497019692</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="163" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21">
+        <v>0.98735230437930854</v>
+      </c>
+      <c r="C21">
+        <v>0.012647695620691431</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>0.99868012423498109</v>
+      </c>
+      <c r="C22">
+        <v>0.0013198757650189339</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="B19">
-        <v>0.97392570285238789</v>
-      </c>
-      <c r="C19">
-        <v>0.026074297147612082</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="123" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20">
-        <v>0.96465672991784113</v>
-      </c>
-      <c r="C20">
-        <v>0.035343270082158887</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21">
-        <v>0.96919292370201859</v>
-      </c>
-      <c r="C21">
-        <v>0.030807076297981451</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="123" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22">
-        <v>0.98214846688341173</v>
-      </c>
-      <c r="C22">
-        <v>0.017851533116588249</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="123" t="s">
-        <v>165</v>
-      </c>
       <c r="B23">
-        <v>0.98139399257586157</v>
+        <v>0.99723421624789577</v>
       </c>
       <c r="C23">
-        <v>0.018606007424138458</v>
+        <v>0.0027657837521042768</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4441,14 +4521,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="123" t="s">
-        <v>182</v>
+      <c r="A24" s="163" t="s">
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>0.98616279173413324</v>
+        <v>0.99492718096724353</v>
       </c>
       <c r="C24">
-        <v>0.013837208265866735</v>
+        <v>0.0050728190327564609</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4458,31 +4538,31 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="123" t="s">
-        <v>18</v>
+      <c r="A25" s="163" t="s">
+        <v>127</v>
       </c>
       <c r="B25">
-        <v>0.033586988416147379</v>
+        <v>0.99067891513200657</v>
       </c>
       <c r="C25">
-        <v>0.96641301158385262</v>
+        <v>0.0093210848679933858</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="123" t="s">
-        <v>103</v>
+      <c r="A26" s="163" t="s">
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>0.032639800306704103</v>
+        <v>0.023988542648455846</v>
       </c>
       <c r="C26">
-        <v>0.9673601996932959</v>
+        <v>0.97601145735154415</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4492,14 +4572,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="123" t="s">
-        <v>86</v>
+      <c r="A27" s="163" t="s">
+        <v>209</v>
       </c>
       <c r="B27">
-        <v>0.019912779227959421</v>
+        <v>0.014393301453178187</v>
       </c>
       <c r="C27">
-        <v>0.98008722077204058</v>
+        <v>0.98560669854682181</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -4509,14 +4589,14 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="123" t="s">
-        <v>195</v>
+      <c r="A28" s="163" t="s">
+        <v>52</v>
       </c>
       <c r="B28">
-        <v>0.037346834513104277</v>
+        <v>2.3643405011597451e-09</v>
       </c>
       <c r="C28">
-        <v>0.96265316548689572</v>
+        <v>0.9999999976356595</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -4526,14 +4606,14 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="123" t="s">
-        <v>20</v>
+      <c r="A29" s="163" t="s">
+        <v>210</v>
       </c>
       <c r="B29">
-        <v>0.0063744428246504947</v>
+        <v>0.085873060481287858</v>
       </c>
       <c r="C29">
-        <v>0.99362555717534951</v>
+        <v>0.91412693951871216</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4543,14 +4623,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="123" t="s">
-        <v>116</v>
+      <c r="A30" s="163" t="s">
+        <v>129</v>
       </c>
       <c r="B30">
-        <v>0.060638851301079488</v>
+        <v>0.016760540671927893</v>
       </c>
       <c r="C30">
-        <v>0.93936114869892051</v>
+        <v>0.98323945932807211</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -4560,14 +4640,14 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="123" t="s">
-        <v>129</v>
+      <c r="A31" s="163" t="s">
+        <v>156</v>
       </c>
       <c r="B31">
-        <v>0.05899394751239817</v>
+        <v>9.2811857212105053e-05</v>
       </c>
       <c r="C31">
-        <v>0.94100605248760183</v>
+        <v>0.99990718814278789</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -4577,14 +4657,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="123" t="s">
-        <v>87</v>
+      <c r="A32" s="163" t="s">
+        <v>168</v>
       </c>
       <c r="B32">
-        <v>0.14454336352256048</v>
+        <v>0.004440905930644834</v>
       </c>
       <c r="C32">
-        <v>0.85545663647743952</v>
+        <v>0.99555909406935517</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4594,14 +4674,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="123" t="s">
-        <v>73</v>
+      <c r="A33" s="163" t="s">
+        <v>185</v>
       </c>
       <c r="B33">
-        <v>0.031354761279290155</v>
+        <v>0.0015602703351221825</v>
       </c>
       <c r="C33">
-        <v>0.96864523872070984</v>
+        <v>0.99843972966487782</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -4611,14 +4691,14 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="123" t="s">
-        <v>168</v>
+      <c r="A34" s="163" t="s">
+        <v>144</v>
       </c>
       <c r="B34">
-        <v>0.025720350954982041</v>
+        <v>9.7485550759612849e-06</v>
       </c>
       <c r="C34">
-        <v>0.97427964904501796</v>
+        <v>0.99999025144492404</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4628,14 +4708,14 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="123" t="s">
-        <v>185</v>
+      <c r="A35" s="163" t="s">
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>0.023930248843412327</v>
+        <v>1.805482252936752e-05</v>
       </c>
       <c r="C35">
-        <v>0.97606975115658767</v>
+        <v>0.99998194517747063</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -4645,14 +4725,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="123" t="s">
-        <v>57</v>
+      <c r="A36" s="163" t="s">
+        <v>212</v>
       </c>
       <c r="B36">
-        <v>0.0009890495917044273</v>
+        <v>0.0099819828706420033</v>
       </c>
       <c r="C36">
-        <v>0.99901095040829557</v>
+        <v>0.990018017129358</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -4662,14 +4742,14 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="123" t="s">
-        <v>11</v>
+      <c r="A37" s="163" t="s">
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>0.05018607390109231</v>
+        <v>0.0014429807068365721</v>
       </c>
       <c r="C37">
-        <v>0.94981392609890769</v>
+        <v>0.99855701929316343</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -4679,14 +4759,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="123" t="s">
-        <v>211</v>
+      <c r="A38" s="163" t="s">
+        <v>130</v>
       </c>
       <c r="B38">
-        <v>0.0043388314041827858</v>
+        <v>0.0083158225195918423</v>
       </c>
       <c r="C38">
-        <v>0.99566116859581721</v>
+        <v>0.99168417748040816</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4696,14 +4776,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="123" t="s">
-        <v>213</v>
+      <c r="A39" s="163" t="s">
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>0.08449911394881604</v>
+        <v>7.3110763635364506e-06</v>
       </c>
       <c r="C39">
-        <v>0.91550088605118396</v>
+        <v>0.99999268892363646</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4713,14 +4793,14 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="123" t="s">
-        <v>27</v>
+      <c r="A40" s="163" t="s">
+        <v>90</v>
       </c>
       <c r="B40">
-        <v>0.05177546156318813</v>
+        <v>0.001909321999066127</v>
       </c>
       <c r="C40">
-        <v>0.94822453843681187</v>
+        <v>0.99809067800093387</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4730,14 +4810,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="123" t="s">
-        <v>215</v>
+      <c r="A41" s="163" t="s">
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>0.1245238734053058</v>
+        <v>1.3485590624195964e-05</v>
       </c>
       <c r="C41">
-        <v>0.8754761265946942</v>
+        <v>0.9999865144093758</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -4747,14 +4827,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="123" t="s">
-        <v>15</v>
+      <c r="A42" s="163" t="s">
+        <v>55</v>
       </c>
       <c r="B42">
-        <v>0.098688992745964002</v>
+        <v>0.0044054501216191921</v>
       </c>
       <c r="C42">
-        <v>0.90131100725403601</v>
+        <v>0.99559454987838081</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4764,14 +4844,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="123" t="s">
-        <v>16</v>
+      <c r="A43" s="163" t="s">
+        <v>158</v>
       </c>
       <c r="B43">
-        <v>0.074683874515379722</v>
+        <v>0.0021605837919757009</v>
       </c>
       <c r="C43">
-        <v>0.92531612548462028</v>
+        <v>0.9978394162080243</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -11882,19 +11962,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="115" t="s">
+      <c r="A1" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="155" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -11902,14 +11982,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="115" t="s">
-        <v>91</v>
+      <c r="A2" s="155" t="s">
+        <v>105</v>
       </c>
       <c r="B2">
-        <v>0.98920629010295968</v>
+        <v>0.99010513329946415</v>
       </c>
       <c r="C2">
-        <v>0.010793709897040309</v>
+        <v>0.0098948667005358364</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -11922,14 +12002,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="155" t="s">
         <v>76</v>
       </c>
       <c r="B3">
-        <v>0.98143227815841649</v>
+        <v>0.99164304864744346</v>
       </c>
       <c r="C3">
-        <v>0.018567721841583493</v>
+        <v>0.0083569513525565495</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -11942,14 +12022,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="115" t="s">
-        <v>35</v>
+      <c r="A4" s="155" t="s">
+        <v>131</v>
       </c>
       <c r="B4">
-        <v>0.99267223273517191</v>
+        <v>0.99700002606890592</v>
       </c>
       <c r="C4">
-        <v>0.007327767264828108</v>
+        <v>0.0029999739310940256</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -11962,14 +12042,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="115" t="s">
-        <v>132</v>
+      <c r="A5" s="155" t="s">
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>0.98930275765245701</v>
+        <v>0.99639378134253742</v>
       </c>
       <c r="C5">
-        <v>0.010697242347543044</v>
+        <v>0.0036062186574625757</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -11982,14 +12062,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="115" t="s">
-        <v>78</v>
+      <c r="A6" s="155" t="s">
+        <v>121</v>
       </c>
       <c r="B6">
-        <v>0.98377044998986884</v>
+        <v>0.99724425494948954</v>
       </c>
       <c r="C6">
-        <v>0.016229550010131169</v>
+        <v>0.0027557450505104665</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -12002,14 +12082,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="115" t="s">
-        <v>36</v>
+      <c r="A7" s="155" t="s">
+        <v>174</v>
       </c>
       <c r="B7">
-        <v>0.99150954710287842</v>
+        <v>0.99162373426984529</v>
       </c>
       <c r="C7">
-        <v>0.008490452897121548</v>
+        <v>0.0083762657301546597</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -12022,14 +12102,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="115" t="s">
-        <v>121</v>
+      <c r="A8" s="155" t="s">
+        <v>150</v>
       </c>
       <c r="B8">
-        <v>0.99303347467035807</v>
+        <v>0.99647312241888719</v>
       </c>
       <c r="C8">
-        <v>0.0069665253296418757</v>
+        <v>0.003526877581112814</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -12042,14 +12122,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="115" t="s">
-        <v>37</v>
+      <c r="A9" s="155" t="s">
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.99301361920261155</v>
+        <v>0.99726291448031945</v>
       </c>
       <c r="C9">
-        <v>0.0069863807973884031</v>
+        <v>0.0027370855196805115</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -12062,14 +12142,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="115" t="s">
-        <v>148</v>
+      <c r="A10" s="155" t="s">
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>0.99404618653059429</v>
+        <v>0.99438059702398651</v>
       </c>
       <c r="C10">
-        <v>0.005953813469405672</v>
+        <v>0.0056194029760134956</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -12082,14 +12162,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="115" t="s">
-        <v>149</v>
+      <c r="A11" s="155" t="s">
+        <v>133</v>
       </c>
       <c r="B11">
-        <v>0.9947342857835888</v>
+        <v>0.9989835158408964</v>
       </c>
       <c r="C11">
-        <v>0.0052657142164112478</v>
+        <v>0.0010164841591036307</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -12102,14 +12182,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="115" t="s">
-        <v>94</v>
+      <c r="A12" s="155" t="s">
+        <v>188</v>
       </c>
       <c r="B12">
-        <v>0.98641711084465289</v>
+        <v>0.99801138598374739</v>
       </c>
       <c r="C12">
-        <v>0.013582889155347101</v>
+        <v>0.0019886140162526525</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12122,14 +12202,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="115" t="s">
-        <v>64</v>
+      <c r="A13" s="155" t="s">
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>0.98863330163107166</v>
+        <v>0.99681182203110508</v>
       </c>
       <c r="C13">
-        <v>0.011366698368928375</v>
+        <v>0.0031881779688948749</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -12142,14 +12222,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="115" t="s">
-        <v>106</v>
+      <c r="A14" s="155" t="s">
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>0.99004014917251093</v>
+        <v>0.99745657753785422</v>
       </c>
       <c r="C14">
-        <v>0.0099598508274890488</v>
+        <v>0.0025434224621457887</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12162,14 +12242,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="115" t="s">
-        <v>41</v>
+      <c r="A15" s="155" t="s">
+        <v>151</v>
       </c>
       <c r="B15">
-        <v>0.98835728998169647</v>
+        <v>0.99370384614828711</v>
       </c>
       <c r="C15">
-        <v>0.011642710018303498</v>
+        <v>0.0062961538517128856</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -12182,14 +12262,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="115" t="s">
-        <v>66</v>
+      <c r="A16" s="155" t="s">
+        <v>122</v>
       </c>
       <c r="B16">
-        <v>0.99048350392573625</v>
+        <v>0.9943245978062647</v>
       </c>
       <c r="C16">
-        <v>0.0095164960742637264</v>
+        <v>0.0056754021937353042</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -12202,14 +12282,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="115" t="s">
-        <v>107</v>
+      <c r="A17" s="155" t="s">
+        <v>123</v>
       </c>
       <c r="B17">
-        <v>0.9910910195032081</v>
+        <v>0.99374683145701004</v>
       </c>
       <c r="C17">
-        <v>0.0089089804967919465</v>
+        <v>0.0062531685429899411</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -12222,14 +12302,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="115" t="s">
-        <v>108</v>
+      <c r="A18" s="155" t="s">
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>0.98773688505374724</v>
+        <v>0.99494779474015882</v>
       </c>
       <c r="C18">
-        <v>0.012263114946252754</v>
+        <v>0.0050522052598411483</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -12242,14 +12322,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="115" t="s">
-        <v>190</v>
+      <c r="A19" s="155" t="s">
+        <v>135</v>
       </c>
       <c r="B19">
-        <v>0.97892672017103932</v>
+        <v>0.99304140653957895</v>
       </c>
       <c r="C19">
-        <v>0.021073279828960723</v>
+        <v>0.0069585934604210658</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -12262,14 +12342,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="155" t="s">
         <v>81</v>
       </c>
       <c r="B20">
-        <v>0.99093269062160472</v>
+        <v>0.99469286492587017</v>
       </c>
       <c r="C20">
-        <v>0.0090673093783952621</v>
+        <v>0.0053071350741297849</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -12282,14 +12362,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="115" t="s">
-        <v>68</v>
+      <c r="A21" s="155" t="s">
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>0.97990671374571503</v>
+        <v>0.96759781790763966</v>
       </c>
       <c r="C21">
-        <v>0.020093286254284918</v>
+        <v>0.032402182092360392</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -12302,14 +12382,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="115" t="s">
-        <v>69</v>
+      <c r="A22" s="155" t="s">
+        <v>68</v>
       </c>
       <c r="B22">
-        <v>0.94286252484869615</v>
+        <v>0.98933026978424576</v>
       </c>
       <c r="C22">
-        <v>0.0571374751513039</v>
+        <v>0.010669730215754241</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -12322,14 +12402,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="115" t="s">
-        <v>98</v>
+      <c r="A23" s="155" t="s">
+        <v>207</v>
       </c>
       <c r="B23">
-        <v>0.96688611031260485</v>
+        <v>0.97182973390646066</v>
       </c>
       <c r="C23">
-        <v>0.0331138896873951</v>
+        <v>0.028170266093539398</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -12342,14 +12422,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="115" t="s">
-        <v>83</v>
+      <c r="A24" s="155" t="s">
+        <v>70</v>
       </c>
       <c r="B24">
-        <v>0.9749575725663977</v>
+        <v>0.99509046759244013</v>
       </c>
       <c r="C24">
-        <v>0.025042427433602295</v>
+        <v>0.0049095324075598135</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -12362,14 +12442,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="115" t="s">
-        <v>164</v>
+      <c r="A25" s="155" t="s">
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>0.9936106455777336</v>
+        <v>0.99613035201264677</v>
       </c>
       <c r="C25">
-        <v>0.006389354422266365</v>
+        <v>0.0038696479873532416</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -12382,14 +12462,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="155" t="s">
         <v>180</v>
       </c>
       <c r="B26">
-        <v>0.99618655043612514</v>
+        <v>0.99834943893197126</v>
       </c>
       <c r="C26">
-        <v>0.0038134495638748509</v>
+        <v>0.001650561068028727</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -12402,14 +12482,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="115" t="s">
-        <v>51</v>
+      <c r="A27" s="155" t="s">
+        <v>193</v>
       </c>
       <c r="B27">
-        <v>0.99064797148171435</v>
+        <v>0.99208389179293754</v>
       </c>
       <c r="C27">
-        <v>0.0093520285182856506</v>
+        <v>0.0079161082070624</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -12422,74 +12502,74 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="115" t="s">
-        <v>19</v>
+      <c r="A28" s="155" t="s">
+        <v>102</v>
       </c>
       <c r="B28">
-        <v>0.0041787256260886751</v>
+        <v>0.99771284694027162</v>
       </c>
       <c r="C28">
-        <v>0.99582127437391132</v>
+        <v>0.0022871530597284098</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="115" t="s">
-        <v>128</v>
+      <c r="A29" s="155" t="s">
+        <v>72</v>
       </c>
       <c r="B29">
-        <v>0.19887965035541647</v>
+        <v>0.997179196374545</v>
       </c>
       <c r="C29">
-        <v>0.80112034964458356</v>
+        <v>0.0028208036254550035</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="115" t="s">
-        <v>21</v>
+      <c r="A30" s="155" t="s">
+        <v>182</v>
       </c>
       <c r="B30">
-        <v>0.28330428566012211</v>
+        <v>0.99731012877790426</v>
       </c>
       <c r="C30">
-        <v>0.71669571433987789</v>
+        <v>0.0026898712220956873</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="115" t="s">
-        <v>141</v>
+      <c r="A31" s="155" t="s">
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>0.25432059059944478</v>
+        <v>0.0081840122284423389</v>
       </c>
       <c r="C31">
-        <v>0.74567940940055522</v>
+        <v>0.99181598777155766</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -12499,48 +12579,48 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32">
+        <v>0.0027480955792393846</v>
+      </c>
+      <c r="C32">
+        <v>0.99725190442076062</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>0.0039280770409462207</v>
+      </c>
+      <c r="C33">
+        <v>0.99607192295905378</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B32">
-        <v>0.003378292505407221</v>
-      </c>
-      <c r="C32">
-        <v>0.99662170749459278</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33">
-        <v>0.0057626603105720431</v>
-      </c>
-      <c r="C33">
-        <v>0.99423733968942796</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="115" t="s">
-        <v>198</v>
-      </c>
       <c r="B34">
-        <v>0.00033069552226860921</v>
+        <v>0.0013117349394128341</v>
       </c>
       <c r="C34">
-        <v>0.99966930447773139</v>
+        <v>0.99868826506058717</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -12550,82 +12630,82 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="155" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>0.0071142435286892791</v>
+      </c>
+      <c r="C35">
+        <v>0.99288575647131072</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="155" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>0.00079467765997076611</v>
+      </c>
+      <c r="C36">
+        <v>0.99920532234002923</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>0.01338879911546631</v>
+      </c>
+      <c r="C37">
+        <v>0.98661120088453369</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="155" t="s">
         <v>143</v>
       </c>
-      <c r="B35">
-        <v>0.011653599912213708</v>
-      </c>
-      <c r="C35">
-        <v>0.98834640008778629</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36">
-        <v>0.00064955572602853895</v>
-      </c>
-      <c r="C36">
-        <v>0.99935044427397146</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37">
-        <v>0.03229744048396177</v>
-      </c>
-      <c r="C37">
-        <v>0.96770255951603823</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="115" t="s">
+      <c r="B38">
+        <v>0.0053227592713126493</v>
+      </c>
+      <c r="C38">
+        <v>0.99467724072868735</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="B38">
-        <v>0.013284018956238208</v>
-      </c>
-      <c r="C38">
-        <v>0.98671598104376179</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="115" t="s">
-        <v>214</v>
-      </c>
       <c r="B39">
-        <v>0.0098710446277572306</v>
+        <v>0.0093568584602315985</v>
       </c>
       <c r="C39">
-        <v>0.99012895537224277</v>
+        <v>0.9906431415397684</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -12635,14 +12715,14 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="115" t="s">
-        <v>157</v>
+      <c r="A40" s="155" t="s">
+        <v>170</v>
       </c>
       <c r="B40">
-        <v>0.019776532911115141</v>
+        <v>0.0022722141657320893</v>
       </c>
       <c r="C40">
-        <v>0.98022346708888486</v>
+        <v>0.99772778583426791</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -12652,14 +12732,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="115" t="s">
-        <v>60</v>
+      <c r="A41" s="155" t="s">
+        <v>119</v>
       </c>
       <c r="B41">
-        <v>0.0090250471332822269</v>
+        <v>0.00083307958053946418</v>
       </c>
       <c r="C41">
-        <v>0.99097495286671777</v>
+        <v>0.99916692041946054</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -12669,14 +12749,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="115" t="s">
-        <v>202</v>
+      <c r="A42" s="155" t="s">
+        <v>216</v>
       </c>
       <c r="B42">
-        <v>0.010338396353638202</v>
+        <v>0.026652354577701209</v>
       </c>
       <c r="C42">
-        <v>0.9896616036463618</v>
+        <v>0.97334764542229879</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -12686,14 +12766,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="115" t="s">
-        <v>216</v>
+      <c r="A43" s="155" t="s">
+        <v>187</v>
       </c>
       <c r="B43">
-        <v>0.047502964524865576</v>
+        <v>0.0036983389159668261</v>
       </c>
       <c r="C43">
-        <v>0.95249703547513442</v>
+        <v>0.99630166108403317</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -13987,26 +14067,26 @@
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
     <col min="5" max="5" width="6.42578125" customWidth="true"/>
     <col min="6" max="6" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117" t="s">
+      <c r="A1" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="157" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -14014,14 +14094,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="117" t="s">
-        <v>92</v>
+      <c r="A2" s="157" t="s">
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>0.99838708390787423</v>
+        <v>0.96698775330116926</v>
       </c>
       <c r="C2">
-        <v>0.0016129160921257895</v>
+        <v>0.033012246698830704</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -14034,14 +14114,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="117" t="s">
-        <v>77</v>
+      <c r="A3" s="157" t="s">
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>0.99412312684060378</v>
+        <v>0.95898782562835061</v>
       </c>
       <c r="C3">
-        <v>0.0058768731593962535</v>
+        <v>0.041012174371649411</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -14054,14 +14134,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="117" t="s">
-        <v>161</v>
+      <c r="A4" s="157" t="s">
+        <v>132</v>
       </c>
       <c r="B4">
-        <v>0.99408950474507185</v>
+        <v>0.98357203455600362</v>
       </c>
       <c r="C4">
-        <v>0.0059104952549281532</v>
+        <v>0.016427965443996384</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -14074,14 +14154,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="117" t="s">
-        <v>2</v>
+      <c r="A5" s="157" t="s">
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>0.99716922599398883</v>
+        <v>0.98549669457930134</v>
       </c>
       <c r="C5">
-        <v>0.0028307740060111945</v>
+        <v>0.014503305420698609</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -14094,14 +14174,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="157" t="s">
         <v>63</v>
       </c>
       <c r="B6">
-        <v>0.99940719091511621</v>
+        <v>0.98532623970115374</v>
       </c>
       <c r="C6">
-        <v>0.00059280908488379793</v>
+        <v>0.014673760298846249</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -14114,14 +14194,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="117" t="s">
-        <v>173</v>
+      <c r="A7" s="157" t="s">
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>0.99940111234839546</v>
+        <v>0.97243440967910266</v>
       </c>
       <c r="C7">
-        <v>0.00059888765160457291</v>
+        <v>0.027565590320897351</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -14134,14 +14214,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="117" t="s">
-        <v>147</v>
+      <c r="A8" s="157" t="s">
+        <v>203</v>
       </c>
       <c r="B8">
-        <v>0.99921389510036329</v>
+        <v>0.98007043488442225</v>
       </c>
       <c r="C8">
-        <v>0.00078610489963672214</v>
+        <v>0.019929565115577745</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -14154,14 +14234,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="117" t="s">
-        <v>93</v>
+      <c r="A9" s="157" t="s">
+        <v>95</v>
       </c>
       <c r="B9">
-        <v>0.99850848676909632</v>
+        <v>0.97738239538710736</v>
       </c>
       <c r="C9">
-        <v>0.0014915132309036765</v>
+        <v>0.022617604612892687</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -14174,14 +14254,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="117" t="s">
-        <v>174</v>
+      <c r="A10" s="157" t="s">
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>0.99742355135149274</v>
+        <v>0.9912460436980598</v>
       </c>
       <c r="C10">
-        <v>0.0025764486485072655</v>
+        <v>0.0087539563019402317</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -14194,14 +14274,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="117" t="s">
-        <v>150</v>
+      <c r="A11" s="157" t="s">
+        <v>66</v>
       </c>
       <c r="B11">
-        <v>0.99919501279906198</v>
+        <v>0.97694155692483675</v>
       </c>
       <c r="C11">
-        <v>0.00080498720093796826</v>
+        <v>0.023058443075163242</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -14214,14 +14294,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="117" t="s">
-        <v>4</v>
+      <c r="A12" s="157" t="s">
+        <v>162</v>
       </c>
       <c r="B12">
-        <v>0.99908298993913058</v>
+        <v>0.98198283902432404</v>
       </c>
       <c r="C12">
-        <v>0.00091701006086936326</v>
+        <v>0.018017160975675954</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -14234,14 +14314,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="117" t="s">
-        <v>5</v>
+      <c r="A13" s="157" t="s">
+        <v>189</v>
       </c>
       <c r="B13">
-        <v>0.99884091427478228</v>
+        <v>0.97172949692475308</v>
       </c>
       <c r="C13">
-        <v>0.00115908572521769</v>
+        <v>0.028270503075246884</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -14254,14 +14334,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="117" t="s">
-        <v>95</v>
+      <c r="A14" s="157" t="s">
+        <v>136</v>
       </c>
       <c r="B14">
-        <v>0.99857095840154364</v>
+        <v>0.98104402456242124</v>
       </c>
       <c r="C14">
-        <v>0.001429041598456378</v>
+        <v>0.018955975437578786</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -14274,14 +14354,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="117" t="s">
-        <v>42</v>
+      <c r="A15" s="157" t="s">
+        <v>111</v>
       </c>
       <c r="B15">
-        <v>0.99974666301652371</v>
+        <v>0.94287101862734091</v>
       </c>
       <c r="C15">
-        <v>0.00025333698347630539</v>
+        <v>0.057128981372659135</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -14294,14 +14374,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="117" t="s">
-        <v>43</v>
+      <c r="A16" s="157" t="s">
+        <v>178</v>
       </c>
       <c r="B16">
-        <v>0.99920439780394255</v>
+        <v>0.97503802870324341</v>
       </c>
       <c r="C16">
-        <v>0.00079560219605742839</v>
+        <v>0.02496197129675664</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -14314,14 +14394,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="117" t="s">
-        <v>122</v>
+      <c r="A17" s="157" t="s">
+        <v>97</v>
       </c>
       <c r="B17">
-        <v>0.99807718849403537</v>
+        <v>0.95114136053434184</v>
       </c>
       <c r="C17">
-        <v>0.0019228115059646723</v>
+        <v>0.04885863946565816</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -14334,14 +14414,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="117" t="s">
-        <v>96</v>
+      <c r="A18" s="157" t="s">
+        <v>137</v>
       </c>
       <c r="B18">
-        <v>0.99963831632376865</v>
+        <v>0.98174532458746577</v>
       </c>
       <c r="C18">
-        <v>0.00036168367623138503</v>
+        <v>0.018254675412534244</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -14354,14 +14434,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="117" t="s">
-        <v>135</v>
+      <c r="A19" s="157" t="s">
+        <v>205</v>
       </c>
       <c r="B19">
-        <v>0.99819265733576601</v>
+        <v>0.97769941132143456</v>
       </c>
       <c r="C19">
-        <v>0.0018073426642340041</v>
+        <v>0.022300588678565453</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -14374,14 +14454,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="117" t="s">
-        <v>125</v>
+      <c r="A20" s="157" t="s">
+        <v>69</v>
       </c>
       <c r="B20">
-        <v>0.9984260116610022</v>
+        <v>0.91258780594315025</v>
       </c>
       <c r="C20">
-        <v>0.0015739883389977625</v>
+        <v>0.087412194056849774</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -14394,14 +14474,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="117" t="s">
-        <v>67</v>
+      <c r="A21" s="157" t="s">
+        <v>99</v>
       </c>
       <c r="B21">
-        <v>0.98384627905731992</v>
+        <v>0.98722890213081849</v>
       </c>
       <c r="C21">
-        <v>0.016153720942680059</v>
+        <v>0.012771097869181527</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -14414,14 +14494,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="117" t="s">
-        <v>206</v>
+      <c r="A22" s="157" t="s">
+        <v>164</v>
       </c>
       <c r="B22">
-        <v>0.99815496637078149</v>
+        <v>0.98919017363432937</v>
       </c>
       <c r="C22">
-        <v>0.0018450336292184972</v>
+        <v>0.010809826365670681</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -14434,14 +14514,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="117" t="s">
-        <v>46</v>
+      <c r="A23" s="157" t="s">
+        <v>50</v>
       </c>
       <c r="B23">
-        <v>0.99904920002366726</v>
+        <v>0.97521746511928376</v>
       </c>
       <c r="C23">
-        <v>0.00095079997633272973</v>
+        <v>0.02478253488071628</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -14454,14 +14534,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="117" t="s">
-        <v>207</v>
+      <c r="A24" s="157" t="s">
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>0.98892667855701433</v>
+        <v>0.97668206068193719</v>
       </c>
       <c r="C24">
-        <v>0.011073321442985678</v>
+        <v>0.023317939318062794</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -14474,14 +14554,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="117" t="s">
-        <v>179</v>
+      <c r="A25" s="157" t="s">
+        <v>165</v>
       </c>
       <c r="B25">
-        <v>0.99518925755416854</v>
+        <v>0.98645236462471519</v>
       </c>
       <c r="C25">
-        <v>0.0048107424458314531</v>
+        <v>0.013547635375284786</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -14494,94 +14574,94 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="117" t="s">
-        <v>48</v>
+      <c r="A26" s="157" t="s">
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>0.99938071150652119</v>
+        <v>0.0053547068192623115</v>
       </c>
       <c r="C26">
-        <v>0.00061928849347875619</v>
+        <v>0.99464529318073769</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="117" t="s">
-        <v>49</v>
+      <c r="A27" s="157" t="s">
+        <v>208</v>
       </c>
       <c r="B27">
-        <v>0.99906880709994716</v>
+        <v>0.42761640730319816</v>
       </c>
       <c r="C27">
-        <v>0.00093119290005285328</v>
+        <v>0.57238359269680184</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="117" t="s">
-        <v>100</v>
+      <c r="A28" s="157" t="s">
+        <v>195</v>
       </c>
       <c r="B28">
-        <v>0.99939802943439704</v>
+        <v>0.023894487082897986</v>
       </c>
       <c r="C28">
-        <v>0.00060197056560297262</v>
+        <v>0.97610551291710201</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="117" t="s">
-        <v>9</v>
+      <c r="A29" s="157" t="s">
+        <v>115</v>
       </c>
       <c r="B29">
-        <v>0.99845961008303707</v>
+        <v>0.047043835809480017</v>
       </c>
       <c r="C29">
-        <v>0.0015403899169628818</v>
+        <v>0.95295616419051998</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="117" t="s">
-        <v>208</v>
+      <c r="A30" s="157" t="s">
+        <v>128</v>
       </c>
       <c r="B30">
-        <v>0.47695445170541895</v>
+        <v>0.21464715197745121</v>
       </c>
       <c r="C30">
-        <v>0.52304554829458105</v>
+        <v>0.78535284802254879</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -14594,14 +14674,14 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="117" t="s">
-        <v>209</v>
+      <c r="A31" s="157" t="s">
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>0.0087888785648708723</v>
+        <v>0.27397907826614576</v>
       </c>
       <c r="C31">
-        <v>0.99121112143512913</v>
+        <v>0.72602092173385424</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -14614,14 +14694,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="117" t="s">
-        <v>210</v>
+      <c r="A32" s="157" t="s">
+        <v>88</v>
       </c>
       <c r="B32">
-        <v>0.27613360285286048</v>
+        <v>0.16446944315484738</v>
       </c>
       <c r="C32">
-        <v>0.72386639714713952</v>
+        <v>0.83553055684515265</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -14631,14 +14711,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="117" t="s">
-        <v>22</v>
+      <c r="A33" s="157" t="s">
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>0.0048627685489985861</v>
+        <v>0.001803797278990382</v>
       </c>
       <c r="C33">
-        <v>0.99513723145100141</v>
+        <v>0.99819620272100962</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -14648,14 +14728,14 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="117" t="s">
-        <v>88</v>
+      <c r="A34" s="157" t="s">
+        <v>197</v>
       </c>
       <c r="B34">
-        <v>0.12471324189764699</v>
+        <v>0.00020880048139726437</v>
       </c>
       <c r="C34">
-        <v>0.87528675810235301</v>
+        <v>0.99979119951860274</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -14665,14 +14745,14 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="117" t="s">
-        <v>24</v>
+      <c r="A35" s="157" t="s">
+        <v>104</v>
       </c>
       <c r="B35">
-        <v>0.00020598905444069171</v>
+        <v>0.0014839270122616322</v>
       </c>
       <c r="C35">
-        <v>0.99979401094555931</v>
+        <v>0.99851607298773837</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -14682,14 +14762,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="117" t="s">
-        <v>53</v>
+      <c r="A36" s="157" t="s">
+        <v>89</v>
       </c>
       <c r="B36">
-        <v>0.00022255052321984437</v>
+        <v>0.0096560807793324432</v>
       </c>
       <c r="C36">
-        <v>0.99977744947678016</v>
+        <v>0.99034391922066756</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -14699,14 +14779,14 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="117" t="s">
-        <v>12</v>
+      <c r="A37" s="157" t="s">
+        <v>211</v>
       </c>
       <c r="B37">
-        <v>0.0015194575488813866</v>
+        <v>0.0021500180318981821</v>
       </c>
       <c r="C37">
-        <v>0.99848054245111861</v>
+        <v>0.99784998196810182</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -14716,14 +14796,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="117" t="s">
-        <v>199</v>
+      <c r="A38" s="157" t="s">
+        <v>213</v>
       </c>
       <c r="B38">
-        <v>1.5523784655080419e-05</v>
+        <v>0.048628532387269156</v>
       </c>
       <c r="C38">
-        <v>0.99998447621534492</v>
+        <v>0.95137146761273084</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -14733,14 +14813,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="117" t="s">
-        <v>186</v>
+      <c r="A39" s="157" t="s">
+        <v>54</v>
       </c>
       <c r="B39">
-        <v>0.0042295770403985022</v>
+        <v>0.029925682104442464</v>
       </c>
       <c r="C39">
-        <v>0.9957704229596015</v>
+        <v>0.97007431789555754</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -14750,14 +14830,14 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="117" t="s">
-        <v>26</v>
+      <c r="A40" s="157" t="s">
+        <v>157</v>
       </c>
       <c r="B40">
-        <v>0.00015290302598014449</v>
+        <v>0.025478281413217285</v>
       </c>
       <c r="C40">
-        <v>0.99984709697401986</v>
+        <v>0.97452171858678271</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -14767,14 +14847,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="117" t="s">
-        <v>200</v>
+      <c r="A41" s="157" t="s">
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>0.00066593680190996096</v>
+        <v>0.036483765609838126</v>
       </c>
       <c r="C41">
-        <v>0.99933406319809004</v>
+        <v>0.96351623439016187</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -14784,14 +14864,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="117" t="s">
-        <v>145</v>
+      <c r="A42" s="157" t="s">
+        <v>60</v>
       </c>
       <c r="B42">
-        <v>0.0090996896747583822</v>
+        <v>0.010932904872245519</v>
       </c>
       <c r="C42">
-        <v>0.99090031032524162</v>
+        <v>0.98906709512775448</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -14801,14 +14881,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="117" t="s">
-        <v>170</v>
+      <c r="A43" s="157" t="s">
+        <v>215</v>
       </c>
       <c r="B43">
-        <v>0.0012522683380778998</v>
+        <v>0.10616336621046851</v>
       </c>
       <c r="C43">
-        <v>0.9987477316619221</v>
+        <v>0.89383663378953149</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -14818,14 +14898,14 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="117" t="s">
-        <v>158</v>
+      <c r="A44" s="157" t="s">
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>0.0067871578563389878</v>
+        <v>0.023874425097471952</v>
       </c>
       <c r="C44">
-        <v>0.99321284214366101</v>
+        <v>0.97612557490252805</v>
       </c>
       <c r="D44">
         <v>2</v>
